--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="704">
   <si>
     <t>TestCases</t>
   </si>
@@ -2095,6 +2095,63 @@
   </si>
   <si>
     <t>091826828694610</t>
+  </si>
+  <si>
+    <t>6912997955</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>LakshmiNarain96027@example.net</t>
+  </si>
+  <si>
+    <t>1988-08-10</t>
+  </si>
+  <si>
+    <t>541355177562646</t>
+  </si>
+  <si>
+    <t>77f121d026d20396</t>
+  </si>
+  <si>
+    <t>990215102347172</t>
+  </si>
+  <si>
+    <t>7959217556</t>
+  </si>
+  <si>
+    <t>SatishKadakia34325@example.net</t>
+  </si>
+  <si>
+    <t>1991-01-31</t>
+  </si>
+  <si>
+    <t>666019919795257</t>
+  </si>
+  <si>
+    <t>a26797293dd69c58</t>
+  </si>
+  <si>
+    <t>999683274253406</t>
+  </si>
+  <si>
+    <t>6829804508</t>
+  </si>
+  <si>
+    <t>DevendraDara39822@example.net</t>
+  </si>
+  <si>
+    <t>1989-03-21</t>
+  </si>
+  <si>
+    <t>215782908919446</t>
+  </si>
+  <si>
+    <t>afa28dcd69e38947</t>
+  </si>
+  <si>
+    <t>557793521292034</t>
   </si>
 </sst>
 </file>
@@ -2585,7 +2642,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2697,16 +2754,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="C2" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2921,13 +2978,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>679</v>
+        <v>617</v>
       </c>
       <c r="F2" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -3420,10 +3477,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="E2" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -3435,7 +3492,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -3595,7 +3652,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3612,7 +3669,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3629,7 +3686,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3646,7 +3703,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3663,7 +3720,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3732,7 +3789,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -3962,7 +4019,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -4119,7 +4176,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>679</v>
+        <v>617</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1015">
   <si>
     <t>TestCases</t>
   </si>
@@ -2152,6 +2152,939 @@
   </si>
   <si>
     <t>557793521292034</t>
+  </si>
+  <si>
+    <t>9419423538</t>
+  </si>
+  <si>
+    <t>Vimala</t>
+  </si>
+  <si>
+    <t>MohanlalDani63263@example.net</t>
+  </si>
+  <si>
+    <t>1973-08-06</t>
+  </si>
+  <si>
+    <t>086446227591023</t>
+  </si>
+  <si>
+    <t>5e2eeb1ff1c8e48b</t>
+  </si>
+  <si>
+    <t>640767891249203</t>
+  </si>
+  <si>
+    <t>9382450024</t>
+  </si>
+  <si>
+    <t>Madhavi</t>
+  </si>
+  <si>
+    <t>DavidBhasin29944@example.net</t>
+  </si>
+  <si>
+    <t>1986-07-16</t>
+  </si>
+  <si>
+    <t>347182743417642</t>
+  </si>
+  <si>
+    <t>772071fc61e559ac</t>
+  </si>
+  <si>
+    <t>956005083904352</t>
+  </si>
+  <si>
+    <t>IDEP186714788311YFU6</t>
+  </si>
+  <si>
+    <t>4204360.0</t>
+  </si>
+  <si>
+    <t>9863530506</t>
+  </si>
+  <si>
+    <t>Kanika</t>
+  </si>
+  <si>
+    <t>ZahirNarula87149@example.net</t>
+  </si>
+  <si>
+    <t>1991-12-12</t>
+  </si>
+  <si>
+    <t>602149087963556</t>
+  </si>
+  <si>
+    <t>4e71b5ce41d02f5b</t>
+  </si>
+  <si>
+    <t>305454071144274</t>
+  </si>
+  <si>
+    <t>IDEP8617148878497RA1</t>
+  </si>
+  <si>
+    <t>4205580.0</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>59999863480</t>
+  </si>
+  <si>
+    <t>URLQBE</t>
+  </si>
+  <si>
+    <t>59999308515</t>
+  </si>
+  <si>
+    <t>RSIANO</t>
+  </si>
+  <si>
+    <t>59999718474</t>
+  </si>
+  <si>
+    <t>MFTPEK</t>
+  </si>
+  <si>
+    <t>59999094108</t>
+  </si>
+  <si>
+    <t>LGKKJB</t>
+  </si>
+  <si>
+    <t>59999000637</t>
+  </si>
+  <si>
+    <t>TUNLCS</t>
+  </si>
+  <si>
+    <t>59999846753</t>
+  </si>
+  <si>
+    <t>CATAJB</t>
+  </si>
+  <si>
+    <t>59999662736</t>
+  </si>
+  <si>
+    <t>QTHJNI</t>
+  </si>
+  <si>
+    <t>59999913065</t>
+  </si>
+  <si>
+    <t>MNTFAP</t>
+  </si>
+  <si>
+    <t>59999391698</t>
+  </si>
+  <si>
+    <t>AMDPAT</t>
+  </si>
+  <si>
+    <t>59999189829</t>
+  </si>
+  <si>
+    <t>RMANKU</t>
+  </si>
+  <si>
+    <t>9096200487</t>
+  </si>
+  <si>
+    <t>ChiragDhingra48268@example.net</t>
+  </si>
+  <si>
+    <t>1975-10-01</t>
+  </si>
+  <si>
+    <t>694792654398760</t>
+  </si>
+  <si>
+    <t>a3a91dde40356953</t>
+  </si>
+  <si>
+    <t>476834951814836</t>
+  </si>
+  <si>
+    <t>335577019096200487</t>
+  </si>
+  <si>
+    <t>ICIC80503797442</t>
+  </si>
+  <si>
+    <t>6801825460</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>TarunKumer53956@example.net</t>
+  </si>
+  <si>
+    <t>1987-06-28</t>
+  </si>
+  <si>
+    <t>342460754993064</t>
+  </si>
+  <si>
+    <t>d44781f69d5e50ee</t>
+  </si>
+  <si>
+    <t>941729686373040</t>
+  </si>
+  <si>
+    <t>335577016801825460</t>
+  </si>
+  <si>
+    <t>ICIC98045567663</t>
+  </si>
+  <si>
+    <t>7486966991</t>
+  </si>
+  <si>
+    <t>Tanuja</t>
+  </si>
+  <si>
+    <t>UdayPrabhakar17633@example.net</t>
+  </si>
+  <si>
+    <t>1988-05-31</t>
+  </si>
+  <si>
+    <t>786121040143566</t>
+  </si>
+  <si>
+    <t>9e9db85286f9e5ad</t>
+  </si>
+  <si>
+    <t>003912492415727</t>
+  </si>
+  <si>
+    <t>IDEP867114992424J62S</t>
+  </si>
+  <si>
+    <t>4205582.0</t>
+  </si>
+  <si>
+    <t>6827984767</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>GhanshyamGrewal15462@example.net</t>
+  </si>
+  <si>
+    <t>1993-07-12</t>
+  </si>
+  <si>
+    <t>940206133399481</t>
+  </si>
+  <si>
+    <t>37fbf3d91eb9cdce</t>
+  </si>
+  <si>
+    <t>503432853463484</t>
+  </si>
+  <si>
+    <t>IDEP1876158261151OSH</t>
+  </si>
+  <si>
+    <t>4205585.0</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>59999067905</t>
+  </si>
+  <si>
+    <t>EENEKG</t>
+  </si>
+  <si>
+    <t>59999671421</t>
+  </si>
+  <si>
+    <t>AAOOLC</t>
+  </si>
+  <si>
+    <t>59999211714</t>
+  </si>
+  <si>
+    <t>LILIUJ</t>
+  </si>
+  <si>
+    <t>59999876522</t>
+  </si>
+  <si>
+    <t>SSTLKA</t>
+  </si>
+  <si>
+    <t>59999889608</t>
+  </si>
+  <si>
+    <t>JJPDSC</t>
+  </si>
+  <si>
+    <t>59999573375</t>
+  </si>
+  <si>
+    <t>FSJGIP</t>
+  </si>
+  <si>
+    <t>59999188664</t>
+  </si>
+  <si>
+    <t>NTLCFF</t>
+  </si>
+  <si>
+    <t>59999244862</t>
+  </si>
+  <si>
+    <t>KDDJRF</t>
+  </si>
+  <si>
+    <t>59999276390</t>
+  </si>
+  <si>
+    <t>FJACPH</t>
+  </si>
+  <si>
+    <t>59999461131</t>
+  </si>
+  <si>
+    <t>PDLELN</t>
+  </si>
+  <si>
+    <t>9527954512</t>
+  </si>
+  <si>
+    <t>Shanti</t>
+  </si>
+  <si>
+    <t>ViratRanganathan49672@example.net</t>
+  </si>
+  <si>
+    <t>1985-09-23</t>
+  </si>
+  <si>
+    <t>811059755047748</t>
+  </si>
+  <si>
+    <t>6c4d7ffb3e135c9b</t>
+  </si>
+  <si>
+    <t>962774311973214</t>
+  </si>
+  <si>
+    <t>335577019527954512</t>
+  </si>
+  <si>
+    <t>ICIC89672008965</t>
+  </si>
+  <si>
+    <t>6830422997</t>
+  </si>
+  <si>
+    <t>Aarushi</t>
+  </si>
+  <si>
+    <t>BinoyaBeharry22902@example.net</t>
+  </si>
+  <si>
+    <t>1993-11-13</t>
+  </si>
+  <si>
+    <t>982989161057696</t>
+  </si>
+  <si>
+    <t>d794e68617b35ed9</t>
+  </si>
+  <si>
+    <t>895376496458953</t>
+  </si>
+  <si>
+    <t>335577016830422997</t>
+  </si>
+  <si>
+    <t>ICIC93538840202</t>
+  </si>
+  <si>
+    <t>8892953889</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>NawabJoshi52558@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-24</t>
+  </si>
+  <si>
+    <t>362708305881013</t>
+  </si>
+  <si>
+    <t>719da8d731575432</t>
+  </si>
+  <si>
+    <t>724426598468413</t>
+  </si>
+  <si>
+    <t>6516310699</t>
+  </si>
+  <si>
+    <t>Rimi</t>
+  </si>
+  <si>
+    <t>PravinTak51416@example.net</t>
+  </si>
+  <si>
+    <t>1984-07-01</t>
+  </si>
+  <si>
+    <t>872711859247584</t>
+  </si>
+  <si>
+    <t>6a072ae67f8d62b2</t>
+  </si>
+  <si>
+    <t>849306853046528</t>
+  </si>
+  <si>
+    <t>IDEP1867166224157CAD</t>
+  </si>
+  <si>
+    <t>4205594.0</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>59999310977</t>
+  </si>
+  <si>
+    <t>HHPIKQ</t>
+  </si>
+  <si>
+    <t>59999007237</t>
+  </si>
+  <si>
+    <t>ULDKSR</t>
+  </si>
+  <si>
+    <t>59999730895</t>
+  </si>
+  <si>
+    <t>SGCHUD</t>
+  </si>
+  <si>
+    <t>59999299682</t>
+  </si>
+  <si>
+    <t>JPMIND</t>
+  </si>
+  <si>
+    <t>59999376692</t>
+  </si>
+  <si>
+    <t>TLKMSF</t>
+  </si>
+  <si>
+    <t>59999519431</t>
+  </si>
+  <si>
+    <t>GMMLPQ</t>
+  </si>
+  <si>
+    <t>59999569766</t>
+  </si>
+  <si>
+    <t>PESRTL</t>
+  </si>
+  <si>
+    <t>59999022057</t>
+  </si>
+  <si>
+    <t>BUMNDU</t>
+  </si>
+  <si>
+    <t>59999903698</t>
+  </si>
+  <si>
+    <t>GDQRBG</t>
+  </si>
+  <si>
+    <t>59999875810</t>
+  </si>
+  <si>
+    <t>GDTOQO</t>
+  </si>
+  <si>
+    <t>6201999471</t>
+  </si>
+  <si>
+    <t>Shweta</t>
+  </si>
+  <si>
+    <t>YaduBhatt87578@example.net</t>
+  </si>
+  <si>
+    <t>1978-03-30</t>
+  </si>
+  <si>
+    <t>124155790308210</t>
+  </si>
+  <si>
+    <t>cf7c3dc7e3788407</t>
+  </si>
+  <si>
+    <t>528228052602109</t>
+  </si>
+  <si>
+    <t>335577016201999471</t>
+  </si>
+  <si>
+    <t>ICIC91411666068</t>
+  </si>
+  <si>
+    <t>8670291894</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>AatifVenkatesh99549@example.net</t>
+  </si>
+  <si>
+    <t>1994-06-04</t>
+  </si>
+  <si>
+    <t>756963680167041</t>
+  </si>
+  <si>
+    <t>6a5f5d65f87374d2</t>
+  </si>
+  <si>
+    <t>638908629998018</t>
+  </si>
+  <si>
+    <t>335577018670291894</t>
+  </si>
+  <si>
+    <t>ICIC80294105831</t>
+  </si>
+  <si>
+    <t>9280478317</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>RahimNazareth66407@example.net</t>
+  </si>
+  <si>
+    <t>1970-10-28</t>
+  </si>
+  <si>
+    <t>987735111118160</t>
+  </si>
+  <si>
+    <t>1f1301d850dc7b84</t>
+  </si>
+  <si>
+    <t>448957322181489</t>
+  </si>
+  <si>
+    <t>IDEP187617149573BTXD</t>
+  </si>
+  <si>
+    <t>4205605.0</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>59999161911</t>
+  </si>
+  <si>
+    <t>LQAUIR</t>
+  </si>
+  <si>
+    <t>BNPL1876173898412961</t>
+  </si>
+  <si>
+    <t>59999046822</t>
+  </si>
+  <si>
+    <t>BDKQKJ</t>
+  </si>
+  <si>
+    <t>59999075637</t>
+  </si>
+  <si>
+    <t>NJULLM</t>
+  </si>
+  <si>
+    <t>59999772337</t>
+  </si>
+  <si>
+    <t>CFFIHT</t>
+  </si>
+  <si>
+    <t>59999750677</t>
+  </si>
+  <si>
+    <t>DONTBN</t>
+  </si>
+  <si>
+    <t>59999668196</t>
+  </si>
+  <si>
+    <t>IIDOLP</t>
+  </si>
+  <si>
+    <t>59999979712</t>
+  </si>
+  <si>
+    <t>MQUUEC</t>
+  </si>
+  <si>
+    <t>59999344605</t>
+  </si>
+  <si>
+    <t>KBIHHT</t>
+  </si>
+  <si>
+    <t>59999183151</t>
+  </si>
+  <si>
+    <t>AUQRIF</t>
+  </si>
+  <si>
+    <t>59999931478</t>
+  </si>
+  <si>
+    <t>CQITUH</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>7559613659</t>
+  </si>
+  <si>
+    <t>Astha</t>
+  </si>
+  <si>
+    <t>SurajParmar20266@example.net</t>
+  </si>
+  <si>
+    <t>1988-06-27</t>
+  </si>
+  <si>
+    <t>090739593891439</t>
+  </si>
+  <si>
+    <t>868b421c813616b3</t>
+  </si>
+  <si>
+    <t>204621630145446</t>
+  </si>
+  <si>
+    <t>335577017559613659</t>
+  </si>
+  <si>
+    <t>ICIC83574307053</t>
+  </si>
+  <si>
+    <t>9640185033</t>
+  </si>
+  <si>
+    <t>NarayanKunda82372@example.net</t>
+  </si>
+  <si>
+    <t>1994-06-20</t>
+  </si>
+  <si>
+    <t>276099482209839</t>
+  </si>
+  <si>
+    <t>6e7bfbe7bb2165f9</t>
+  </si>
+  <si>
+    <t>277483388802872</t>
+  </si>
+  <si>
+    <t>335577019640185033</t>
+  </si>
+  <si>
+    <t>ICIC92604675401</t>
+  </si>
+  <si>
+    <t>7270097362</t>
+  </si>
+  <si>
+    <t>Nitika</t>
+  </si>
+  <si>
+    <t>PirzadaSinha50215@example.net</t>
+  </si>
+  <si>
+    <t>1992-11-12</t>
+  </si>
+  <si>
+    <t>596105386127432</t>
+  </si>
+  <si>
+    <t>7c94ac361985fdcf</t>
+  </si>
+  <si>
+    <t>745023115369227</t>
+  </si>
+  <si>
+    <t>IDEP7168175893571BR8</t>
+  </si>
+  <si>
+    <t>4205609.0</t>
+  </si>
+  <si>
+    <t>7914926647</t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>DevendraPandit92725@example.net</t>
+  </si>
+  <si>
+    <t>1993-09-06</t>
+  </si>
+  <si>
+    <t>991183877400825</t>
+  </si>
+  <si>
+    <t>d945e42fd24eb122</t>
+  </si>
+  <si>
+    <t>838281421603832</t>
+  </si>
+  <si>
+    <t>IDEP6871177284236AGQ</t>
+  </si>
+  <si>
+    <t>4205615.0</t>
+  </si>
+  <si>
+    <t>9587558761</t>
+  </si>
+  <si>
+    <t>SiddharthParsa26202@example.net</t>
+  </si>
+  <si>
+    <t>1993-10-19</t>
+  </si>
+  <si>
+    <t>384932750253619</t>
+  </si>
+  <si>
+    <t>8299dea188fb18a2</t>
+  </si>
+  <si>
+    <t>918358152742295</t>
+  </si>
+  <si>
+    <t>IDEP187618448535RJYP</t>
+  </si>
+  <si>
+    <t>4205617.0</t>
+  </si>
+  <si>
+    <t>9491972590</t>
+  </si>
+  <si>
+    <t>Bimla</t>
+  </si>
+  <si>
+    <t>FakaruddinKrishnan11771@example.net</t>
+  </si>
+  <si>
+    <t>1976-03-30</t>
+  </si>
+  <si>
+    <t>378975680651103</t>
+  </si>
+  <si>
+    <t>99d0249d2ca85a04</t>
+  </si>
+  <si>
+    <t>175776291929143</t>
+  </si>
+  <si>
+    <t>IDEP687118989798ZXTR</t>
+  </si>
+  <si>
+    <t>4205623.0</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>59999413372</t>
+  </si>
+  <si>
+    <t>GNJOTI</t>
+  </si>
+  <si>
+    <t>BNPL1768191975382538</t>
+  </si>
+  <si>
+    <t>59999339028</t>
+  </si>
+  <si>
+    <t>KDPKSH</t>
+  </si>
+  <si>
+    <t>59999572227</t>
+  </si>
+  <si>
+    <t>NEHFLA</t>
+  </si>
+  <si>
+    <t>59999508926</t>
+  </si>
+  <si>
+    <t>HPPTDR</t>
+  </si>
+  <si>
+    <t>59999004768</t>
+  </si>
+  <si>
+    <t>GHTPSS</t>
+  </si>
+  <si>
+    <t>59999077612</t>
+  </si>
+  <si>
+    <t>RJAHAF</t>
+  </si>
+  <si>
+    <t>59999458623</t>
+  </si>
+  <si>
+    <t>RAIQPJ</t>
+  </si>
+  <si>
+    <t>59999509475</t>
+  </si>
+  <si>
+    <t>KFJNFR</t>
+  </si>
+  <si>
+    <t>59999252535</t>
+  </si>
+  <si>
+    <t>HSPPRD</t>
+  </si>
+  <si>
+    <t>59999055350</t>
+  </si>
+  <si>
+    <t>NDQGSE</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>6784056865</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>FakaruddinKanda95427@example.net</t>
+  </si>
+  <si>
+    <t>1972-02-11</t>
+  </si>
+  <si>
+    <t>452310670727417</t>
+  </si>
+  <si>
+    <t>754f015dbb320eb8</t>
+  </si>
+  <si>
+    <t>223870449906475</t>
+  </si>
+  <si>
+    <t>335577016784056865</t>
+  </si>
+  <si>
+    <t>ICIC82790363377</t>
+  </si>
+  <si>
+    <t>9661953328</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>SharadChana77179@example.net</t>
+  </si>
+  <si>
+    <t>1991-02-11</t>
+  </si>
+  <si>
+    <t>066494999498773</t>
+  </si>
+  <si>
+    <t>45f13cd4170aab24</t>
+  </si>
+  <si>
+    <t>944663915306447</t>
+  </si>
+  <si>
+    <t>335577019661953328</t>
+  </si>
+  <si>
+    <t>ICIC94309159574</t>
   </si>
 </sst>
 </file>
@@ -2642,7 +3575,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>698</v>
+        <v>1006</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2754,16 +3687,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>702</v>
+        <v>1011</v>
       </c>
       <c r="C2" t="s">
-        <v>703</v>
+        <v>1012</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>701</v>
+        <v>1010</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2866,7 +3799,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>579</v>
+        <v>1004</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -2878,7 +3811,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>580</v>
+        <v>1005</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -2887,7 +3820,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0</v>
+        <v>148.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2978,13 +3911,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>617</v>
+        <v>1007</v>
       </c>
       <c r="F2" t="s">
-        <v>699</v>
+        <v>1008</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>700</v>
+        <v>1009</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -3330,7 +4263,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>588</v>
+        <v>1013</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -3342,7 +4275,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>589</v>
+        <v>1014</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -3351,7 +4284,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0</v>
+        <v>148.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3477,10 +4410,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>698</v>
+        <v>1006</v>
       </c>
       <c r="E2" t="s">
-        <v>699</v>
+        <v>1008</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -3492,7 +4425,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>701</v>
+        <v>1010</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -3501,10 +4434,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>546</v>
+        <v>968</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>4204360.0</v>
+        <v>4205635.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -3652,7 +4585,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>698</v>
+        <v>1006</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3669,7 +4602,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>698</v>
+        <v>1006</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3686,7 +4619,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>698</v>
+        <v>1006</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3703,7 +4636,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>698</v>
+        <v>1006</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3720,7 +4653,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>698</v>
+        <v>1006</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3789,7 +4722,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>701</v>
+        <v>1010</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -4019,7 +4952,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>701</v>
+        <v>1010</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -4176,7 +5109,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>617</v>
+        <v>1007</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
@@ -4333,7 +5266,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>974</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>132</v>
@@ -4347,7 +5280,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
+        <v>974</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>132</v>
@@ -4472,22 +5405,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>546</v>
+        <v>968</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>974</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>569</v>
+        <v>994</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>570</v>
+        <v>995</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4824,7 +5757,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>552</v>
+        <v>977</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="1140">
   <si>
     <t>TestCases</t>
   </si>
@@ -3085,6 +3085,381 @@
   </si>
   <si>
     <t>ICIC94309159574</t>
+  </si>
+  <si>
+    <t>8048509532</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>AnandKhalsa79699@example.net</t>
+  </si>
+  <si>
+    <t>1971-12-11</t>
+  </si>
+  <si>
+    <t>682519169825720</t>
+  </si>
+  <si>
+    <t>1f3593b386dad923</t>
+  </si>
+  <si>
+    <t>172590350897023</t>
+  </si>
+  <si>
+    <t>IDEP7186232312854A72</t>
+  </si>
+  <si>
+    <t>4205635.0</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>59999102279</t>
+  </si>
+  <si>
+    <t>CDOLML</t>
+  </si>
+  <si>
+    <t>BNPL7681234688215416</t>
+  </si>
+  <si>
+    <t>59999903085</t>
+  </si>
+  <si>
+    <t>KEUFJB</t>
+  </si>
+  <si>
+    <t>59999262111</t>
+  </si>
+  <si>
+    <t>FTCQOP</t>
+  </si>
+  <si>
+    <t>59999503775</t>
+  </si>
+  <si>
+    <t>DFEFGE</t>
+  </si>
+  <si>
+    <t>59999102705</t>
+  </si>
+  <si>
+    <t>CAGMNK</t>
+  </si>
+  <si>
+    <t>59999210383</t>
+  </si>
+  <si>
+    <t>RGPDRE</t>
+  </si>
+  <si>
+    <t>59999221554</t>
+  </si>
+  <si>
+    <t>TIASOT</t>
+  </si>
+  <si>
+    <t>59999299703</t>
+  </si>
+  <si>
+    <t>OPRKFQ</t>
+  </si>
+  <si>
+    <t>59999404768</t>
+  </si>
+  <si>
+    <t>CUAUDS</t>
+  </si>
+  <si>
+    <t>59999612079</t>
+  </si>
+  <si>
+    <t>OJPNBE</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>8775039075</t>
+  </si>
+  <si>
+    <t>NareshGokhale53655@example.net</t>
+  </si>
+  <si>
+    <t>1979-09-19</t>
+  </si>
+  <si>
+    <t>003583656699560</t>
+  </si>
+  <si>
+    <t>7be58a79155137c8</t>
+  </si>
+  <si>
+    <t>149012120263352</t>
+  </si>
+  <si>
+    <t>335577018775039075</t>
+  </si>
+  <si>
+    <t>ICIC87722840769</t>
+  </si>
+  <si>
+    <t>6948459760</t>
+  </si>
+  <si>
+    <t>Binita</t>
+  </si>
+  <si>
+    <t>HrishikeshKadakia47663@example.net</t>
+  </si>
+  <si>
+    <t>1991-09-21</t>
+  </si>
+  <si>
+    <t>622941523073859</t>
+  </si>
+  <si>
+    <t>17c15e7b5f266a8e</t>
+  </si>
+  <si>
+    <t>401907373891093</t>
+  </si>
+  <si>
+    <t>335577016948459760</t>
+  </si>
+  <si>
+    <t>ICIC97321511126</t>
+  </si>
+  <si>
+    <t>6767473825</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>NeerendraVarughese27331@example.net</t>
+  </si>
+  <si>
+    <t>1984-08-02</t>
+  </si>
+  <si>
+    <t>354023251160747</t>
+  </si>
+  <si>
+    <t>a1ab1f3ff389e1ce</t>
+  </si>
+  <si>
+    <t>912305495291163</t>
+  </si>
+  <si>
+    <t>IDEP681723516112AG4R</t>
+  </si>
+  <si>
+    <t>4205685.0</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>59999169926</t>
+  </si>
+  <si>
+    <t>NCEKDC</t>
+  </si>
+  <si>
+    <t>BNPL8671237428247623</t>
+  </si>
+  <si>
+    <t>59999350442</t>
+  </si>
+  <si>
+    <t>APTKRM</t>
+  </si>
+  <si>
+    <t>59999988129</t>
+  </si>
+  <si>
+    <t>OPFTNN</t>
+  </si>
+  <si>
+    <t>59999065993</t>
+  </si>
+  <si>
+    <t>KKRCUA</t>
+  </si>
+  <si>
+    <t>59999274352</t>
+  </si>
+  <si>
+    <t>SCDORO</t>
+  </si>
+  <si>
+    <t>59999377919</t>
+  </si>
+  <si>
+    <t>DMBTGG</t>
+  </si>
+  <si>
+    <t>59999469938</t>
+  </si>
+  <si>
+    <t>AIHODA</t>
+  </si>
+  <si>
+    <t>59999172302</t>
+  </si>
+  <si>
+    <t>ECCGPL</t>
+  </si>
+  <si>
+    <t>59999452266</t>
+  </si>
+  <si>
+    <t>IOLSEB</t>
+  </si>
+  <si>
+    <t>59999383058</t>
+  </si>
+  <si>
+    <t>EGHASQ</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>9998196466</t>
+  </si>
+  <si>
+    <t>Kajal</t>
+  </si>
+  <si>
+    <t>SuryaSodhani61801@example.net</t>
+  </si>
+  <si>
+    <t>1990-10-24</t>
+  </si>
+  <si>
+    <t>290007350256479</t>
+  </si>
+  <si>
+    <t>60001da2803620f7</t>
+  </si>
+  <si>
+    <t>711480468337104</t>
+  </si>
+  <si>
+    <t>335577019998196466</t>
+  </si>
+  <si>
+    <t>ICIC87115410323</t>
+  </si>
+  <si>
+    <t>6632616558</t>
+  </si>
+  <si>
+    <t>Akhila</t>
+  </si>
+  <si>
+    <t>VenkatTaneja96498@example.net</t>
+  </si>
+  <si>
+    <t>1978-09-21</t>
+  </si>
+  <si>
+    <t>184548348414968</t>
+  </si>
+  <si>
+    <t>b94f621fa1badb73</t>
+  </si>
+  <si>
+    <t>440873132270974</t>
+  </si>
+  <si>
+    <t>335577016632616558</t>
+  </si>
+  <si>
+    <t>ICIC99051804630</t>
+  </si>
+  <si>
+    <t>6491509290</t>
+  </si>
+  <si>
+    <t>Charu</t>
+  </si>
+  <si>
+    <t>DevendraRam18321@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-14</t>
+  </si>
+  <si>
+    <t>447239815017905</t>
+  </si>
+  <si>
+    <t>f4581304d2847468</t>
+  </si>
+  <si>
+    <t>428119223529845</t>
+  </si>
+  <si>
+    <t>9828863641</t>
+  </si>
+  <si>
+    <t>KoushtubhChauhan99899@example.net</t>
+  </si>
+  <si>
+    <t>1990-11-12</t>
+  </si>
+  <si>
+    <t>142372560072227</t>
+  </si>
+  <si>
+    <t>91885ab404c707f5</t>
+  </si>
+  <si>
+    <t>333188250286797</t>
+  </si>
+  <si>
+    <t>8069876541</t>
+  </si>
+  <si>
+    <t>JamshedApte60499@example.net</t>
+  </si>
+  <si>
+    <t>1972-03-26</t>
+  </si>
+  <si>
+    <t>067516225700355</t>
+  </si>
+  <si>
+    <t>00206a3f9aa83191</t>
+  </si>
+  <si>
+    <t>320530246267404</t>
+  </si>
+  <si>
+    <t>8767399352</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>DaanishMalhotra14292@example.net</t>
+  </si>
+  <si>
+    <t>1988-04-17</t>
+  </si>
+  <si>
+    <t>821752459909969</t>
+  </si>
+  <si>
+    <t>894d4562ff10e217</t>
+  </si>
+  <si>
+    <t>894250048910756</t>
   </si>
 </sst>
 </file>
@@ -3575,7 +3950,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1006</v>
+        <v>1133</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3687,16 +4062,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1011</v>
+        <v>1138</v>
       </c>
       <c r="C2" t="s">
-        <v>1012</v>
+        <v>1139</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1010</v>
+        <v>1137</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3799,7 +4174,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1004</v>
+        <v>1103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -3811,7 +4186,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>1005</v>
+        <v>1104</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -3820,7 +4195,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>148.0</v>
+        <v>161.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3911,13 +4286,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>1007</v>
+        <v>1134</v>
       </c>
       <c r="F2" t="s">
-        <v>1008</v>
+        <v>1135</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1009</v>
+        <v>1136</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -4263,7 +4638,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1013</v>
+        <v>1112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4275,7 +4650,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>1014</v>
+        <v>1113</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -4284,7 +4659,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>148.0</v>
+        <v>161.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4410,10 +4785,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1006</v>
+        <v>1133</v>
       </c>
       <c r="E2" t="s">
-        <v>1008</v>
+        <v>1135</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -4425,7 +4800,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1010</v>
+        <v>1137</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -4434,10 +4809,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>968</v>
+        <v>1071</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>4205635.0</v>
+        <v>4205688.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -4585,7 +4960,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1006</v>
+        <v>1133</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4602,7 +4977,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1006</v>
+        <v>1133</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4619,7 +4994,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1006</v>
+        <v>1133</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4636,7 +5011,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1006</v>
+        <v>1133</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4653,7 +5028,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1006</v>
+        <v>1133</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4722,7 +5097,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1010</v>
+        <v>1137</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -4952,7 +5327,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1010</v>
+        <v>1137</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -5109,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1007</v>
+        <v>1134</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
@@ -5266,7 +5641,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>974</v>
+        <v>895</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>132</v>
@@ -5280,7 +5655,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>974</v>
+        <v>895</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>132</v>
@@ -5405,22 +5780,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>968</v>
+        <v>1071</v>
       </c>
       <c r="C2" t="s">
-        <v>974</v>
+        <v>895</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>994</v>
+        <v>1093</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>995</v>
+        <v>1094</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -5757,7 +6132,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>977</v>
+        <v>1076</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="1329">
   <si>
     <t>TestCases</t>
   </si>
@@ -3460,6 +3460,573 @@
   </si>
   <si>
     <t>894250048910756</t>
+  </si>
+  <si>
+    <t>9040451794</t>
+  </si>
+  <si>
+    <t>Bhanupriya</t>
+  </si>
+  <si>
+    <t>YaduSridhar72243@example.net</t>
+  </si>
+  <si>
+    <t>1974-07-30</t>
+  </si>
+  <si>
+    <t>812480320411251</t>
+  </si>
+  <si>
+    <t>706f8ff660183c11</t>
+  </si>
+  <si>
+    <t>465338935866089</t>
+  </si>
+  <si>
+    <t>IDEP871626672187VM58</t>
+  </si>
+  <si>
+    <t>4205688.0</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>59999244493</t>
+  </si>
+  <si>
+    <t>EUOTDL</t>
+  </si>
+  <si>
+    <t>BNPL7681268886368753</t>
+  </si>
+  <si>
+    <t>59999539887</t>
+  </si>
+  <si>
+    <t>IPOQPS</t>
+  </si>
+  <si>
+    <t>59999634219</t>
+  </si>
+  <si>
+    <t>HCCAQM</t>
+  </si>
+  <si>
+    <t>59999425276</t>
+  </si>
+  <si>
+    <t>GOKNBI</t>
+  </si>
+  <si>
+    <t>59999431410</t>
+  </si>
+  <si>
+    <t>BFNHRM</t>
+  </si>
+  <si>
+    <t>59999158622</t>
+  </si>
+  <si>
+    <t>RRDDST</t>
+  </si>
+  <si>
+    <t>59999129807</t>
+  </si>
+  <si>
+    <t>NPAICE</t>
+  </si>
+  <si>
+    <t>59999394296</t>
+  </si>
+  <si>
+    <t>JKJBBP</t>
+  </si>
+  <si>
+    <t>59999591357</t>
+  </si>
+  <si>
+    <t>RLRDFK</t>
+  </si>
+  <si>
+    <t>59999870188</t>
+  </si>
+  <si>
+    <t>MOCTHM</t>
+  </si>
+  <si>
+    <t>7047240458</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>UjwalBalan38958@example.net</t>
+  </si>
+  <si>
+    <t>1974-12-30</t>
+  </si>
+  <si>
+    <t>423263806150762</t>
+  </si>
+  <si>
+    <t>1226297fdb9d77d4</t>
+  </si>
+  <si>
+    <t>453566282112830</t>
+  </si>
+  <si>
+    <t>IDEP7618278181315VYW</t>
+  </si>
+  <si>
+    <t>4205707.0</t>
+  </si>
+  <si>
+    <t>9720035000</t>
+  </si>
+  <si>
+    <t>SatishwarThaman36056@example.net</t>
+  </si>
+  <si>
+    <t>1988-12-07</t>
+  </si>
+  <si>
+    <t>358912232307698</t>
+  </si>
+  <si>
+    <t>bf927a02e8773d19</t>
+  </si>
+  <si>
+    <t>460525410044043</t>
+  </si>
+  <si>
+    <t>IDEP861727282128XJ1I</t>
+  </si>
+  <si>
+    <t>4205710.0</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>59999945890</t>
+  </si>
+  <si>
+    <t>DAEFQO</t>
+  </si>
+  <si>
+    <t>BNPL8176274497273651</t>
+  </si>
+  <si>
+    <t>59999097369</t>
+  </si>
+  <si>
+    <t>ETFHHF</t>
+  </si>
+  <si>
+    <t>59999547349</t>
+  </si>
+  <si>
+    <t>ENGGRN</t>
+  </si>
+  <si>
+    <t>59999202976</t>
+  </si>
+  <si>
+    <t>MTQRTP</t>
+  </si>
+  <si>
+    <t>59999491936</t>
+  </si>
+  <si>
+    <t>FHDQNU</t>
+  </si>
+  <si>
+    <t>59999284771</t>
+  </si>
+  <si>
+    <t>GCABUG</t>
+  </si>
+  <si>
+    <t>59999554886</t>
+  </si>
+  <si>
+    <t>UKAEUT</t>
+  </si>
+  <si>
+    <t>59999750312</t>
+  </si>
+  <si>
+    <t>HSEHIH</t>
+  </si>
+  <si>
+    <t>59999224125</t>
+  </si>
+  <si>
+    <t>ONLERA</t>
+  </si>
+  <si>
+    <t>59999388205</t>
+  </si>
+  <si>
+    <t>IHOKGQ</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>8581298528</t>
+  </si>
+  <si>
+    <t>Yasmin</t>
+  </si>
+  <si>
+    <t>JackKabra21050@example.net</t>
+  </si>
+  <si>
+    <t>1984-06-09</t>
+  </si>
+  <si>
+    <t>030384293020345</t>
+  </si>
+  <si>
+    <t>ed899b93dfd9aa09</t>
+  </si>
+  <si>
+    <t>565119972700970</t>
+  </si>
+  <si>
+    <t>335577018581298528</t>
+  </si>
+  <si>
+    <t>ICIC81821842758</t>
+  </si>
+  <si>
+    <t>7873295558</t>
+  </si>
+  <si>
+    <t>RaghavanGrewal28524@example.net</t>
+  </si>
+  <si>
+    <t>1986-10-09</t>
+  </si>
+  <si>
+    <t>298953435758991</t>
+  </si>
+  <si>
+    <t>9421333773b93e16</t>
+  </si>
+  <si>
+    <t>334244172683741</t>
+  </si>
+  <si>
+    <t>335577017873295558</t>
+  </si>
+  <si>
+    <t>ICIC88325253994</t>
+  </si>
+  <si>
+    <t>7082685314</t>
+  </si>
+  <si>
+    <t>Nupur</t>
+  </si>
+  <si>
+    <t>SureshVohra66479@example.net</t>
+  </si>
+  <si>
+    <t>1980-05-09</t>
+  </si>
+  <si>
+    <t>049276472023596</t>
+  </si>
+  <si>
+    <t>84f0493b84b17151</t>
+  </si>
+  <si>
+    <t>247195147783188</t>
+  </si>
+  <si>
+    <t>IDEP7681279634482LNQ</t>
+  </si>
+  <si>
+    <t>4205715.0</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>59999153064</t>
+  </si>
+  <si>
+    <t>BTKCCR</t>
+  </si>
+  <si>
+    <t>BNPL8761281794939635</t>
+  </si>
+  <si>
+    <t>59999429897</t>
+  </si>
+  <si>
+    <t>DRMKPU</t>
+  </si>
+  <si>
+    <t>59999285242</t>
+  </si>
+  <si>
+    <t>PPLUSH</t>
+  </si>
+  <si>
+    <t>59999266052</t>
+  </si>
+  <si>
+    <t>SCDTJS</t>
+  </si>
+  <si>
+    <t>59999867828</t>
+  </si>
+  <si>
+    <t>DUENBG</t>
+  </si>
+  <si>
+    <t>59999208755</t>
+  </si>
+  <si>
+    <t>ISSPSE</t>
+  </si>
+  <si>
+    <t>59999950664</t>
+  </si>
+  <si>
+    <t>CGGUOA</t>
+  </si>
+  <si>
+    <t>59999279196</t>
+  </si>
+  <si>
+    <t>UNRLHC</t>
+  </si>
+  <si>
+    <t>59999803475</t>
+  </si>
+  <si>
+    <t>NFDCIG</t>
+  </si>
+  <si>
+    <t>59999135372</t>
+  </si>
+  <si>
+    <t>JSIIJG</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>6212056481</t>
+  </si>
+  <si>
+    <t>Chameli</t>
+  </si>
+  <si>
+    <t>YaduPrabhu17645@example.net</t>
+  </si>
+  <si>
+    <t>1993-06-14</t>
+  </si>
+  <si>
+    <t>730350425321730</t>
+  </si>
+  <si>
+    <t>4e057354e38c2388</t>
+  </si>
+  <si>
+    <t>336919455499455</t>
+  </si>
+  <si>
+    <t>335577016212056481</t>
+  </si>
+  <si>
+    <t>ICIC84422867068</t>
+  </si>
+  <si>
+    <t>8620591728</t>
+  </si>
+  <si>
+    <t>TanayMorar47726@example.net</t>
+  </si>
+  <si>
+    <t>1982-04-24</t>
+  </si>
+  <si>
+    <t>375562029980865</t>
+  </si>
+  <si>
+    <t>dccd6d1d46d50f00</t>
+  </si>
+  <si>
+    <t>005910121206796</t>
+  </si>
+  <si>
+    <t>335577018620591728</t>
+  </si>
+  <si>
+    <t>ICIC90045962166</t>
+  </si>
+  <si>
+    <t>9236662974</t>
+  </si>
+  <si>
+    <t>Bhairavi</t>
+  </si>
+  <si>
+    <t>TabeedChaudhuri89137@example.net</t>
+  </si>
+  <si>
+    <t>1984-11-16</t>
+  </si>
+  <si>
+    <t>899071538008884</t>
+  </si>
+  <si>
+    <t>18dadcca20917d31</t>
+  </si>
+  <si>
+    <t>390600510345353</t>
+  </si>
+  <si>
+    <t>IDEP816728222675SCRZ</t>
+  </si>
+  <si>
+    <t>4205730.0</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>59999004425</t>
+  </si>
+  <si>
+    <t>DIRTKI</t>
+  </si>
+  <si>
+    <t>BNPL8176284325878769</t>
+  </si>
+  <si>
+    <t>59999136986</t>
+  </si>
+  <si>
+    <t>DCQSSA</t>
+  </si>
+  <si>
+    <t>59999728600</t>
+  </si>
+  <si>
+    <t>CRCPPS</t>
+  </si>
+  <si>
+    <t>59999870586</t>
+  </si>
+  <si>
+    <t>FBSORT</t>
+  </si>
+  <si>
+    <t>59999892328</t>
+  </si>
+  <si>
+    <t>JDOFSC</t>
+  </si>
+  <si>
+    <t>59999713847</t>
+  </si>
+  <si>
+    <t>OTBFQI</t>
+  </si>
+  <si>
+    <t>59999571398</t>
+  </si>
+  <si>
+    <t>THRRMS</t>
+  </si>
+  <si>
+    <t>59999706194</t>
+  </si>
+  <si>
+    <t>PORDRL</t>
+  </si>
+  <si>
+    <t>59999238366</t>
+  </si>
+  <si>
+    <t>HEDOOK</t>
+  </si>
+  <si>
+    <t>59999538701</t>
+  </si>
+  <si>
+    <t>PBHDSD</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>6693386114</t>
+  </si>
+  <si>
+    <t>Parminder</t>
+  </si>
+  <si>
+    <t>AniruddhInani97886@example.net</t>
+  </si>
+  <si>
+    <t>1987-12-31</t>
+  </si>
+  <si>
+    <t>341759709393309</t>
+  </si>
+  <si>
+    <t>1831d9c8082555b1</t>
+  </si>
+  <si>
+    <t>374023674868906</t>
+  </si>
+  <si>
+    <t>335577016693386114</t>
+  </si>
+  <si>
+    <t>ICIC86466101919</t>
+  </si>
+  <si>
+    <t>8948569003</t>
+  </si>
+  <si>
+    <t>UmarThomas44363@example.net</t>
+  </si>
+  <si>
+    <t>1978-06-20</t>
+  </si>
+  <si>
+    <t>977374146241441</t>
+  </si>
+  <si>
+    <t>0582125f8b8147fe</t>
+  </si>
+  <si>
+    <t>614160598435741</t>
+  </si>
+  <si>
+    <t>335577018948569003</t>
+  </si>
+  <si>
+    <t>ICIC80925860558</t>
   </si>
 </sst>
 </file>
@@ -3950,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1133</v>
+        <v>1321</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4062,16 +4629,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1138</v>
+        <v>1325</v>
       </c>
       <c r="C2" t="s">
-        <v>1139</v>
+        <v>1326</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1137</v>
+        <v>1324</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4174,7 +4741,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1103</v>
+        <v>1319</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4186,7 +4753,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>1104</v>
+        <v>1320</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -4195,7 +4762,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>161.0</v>
+        <v>98.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4286,13 +4853,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>1134</v>
+        <v>531</v>
       </c>
       <c r="F2" t="s">
-        <v>1135</v>
+        <v>1322</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1136</v>
+        <v>1323</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -4638,7 +5205,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1112</v>
+        <v>1327</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4650,7 +5217,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>1113</v>
+        <v>1328</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -4659,7 +5226,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>161.0</v>
+        <v>98.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4785,10 +5352,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1133</v>
+        <v>1321</v>
       </c>
       <c r="E2" t="s">
-        <v>1135</v>
+        <v>1322</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -4800,7 +5367,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1137</v>
+        <v>1324</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -4809,10 +5376,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1071</v>
+        <v>1287</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>4205688.0</v>
+        <v>4205732.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -4960,7 +5527,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1133</v>
+        <v>1321</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4977,7 +5544,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1133</v>
+        <v>1321</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4994,7 +5561,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1133</v>
+        <v>1321</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5011,7 +5578,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1133</v>
+        <v>1321</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5028,7 +5595,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1133</v>
+        <v>1321</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5097,7 +5664,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1137</v>
+        <v>1324</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -5327,7 +5894,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1137</v>
+        <v>1324</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -5484,7 +6051,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1134</v>
+        <v>531</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
@@ -5641,7 +6208,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>895</v>
+        <v>1289</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>132</v>
@@ -5655,7 +6222,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>895</v>
+        <v>1289</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>132</v>
@@ -5780,22 +6347,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>1071</v>
+        <v>1287</v>
       </c>
       <c r="C2" t="s">
-        <v>895</v>
+        <v>1289</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>1093</v>
+        <v>1309</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>1094</v>
+        <v>1310</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -6132,7 +6699,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1076</v>
+        <v>1292</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1476">
   <si>
     <t>TestCases</t>
   </si>
@@ -4027,6 +4027,447 @@
   </si>
   <si>
     <t>ICIC80925860558</t>
+  </si>
+  <si>
+    <t>8235156134</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>RajBobal85082@example.net</t>
+  </si>
+  <si>
+    <t>1993-03-28</t>
+  </si>
+  <si>
+    <t>870333437211867</t>
+  </si>
+  <si>
+    <t>3bfdca01505b0e73</t>
+  </si>
+  <si>
+    <t>946443263513698</t>
+  </si>
+  <si>
+    <t>IDEP716828597658R9Q4</t>
+  </si>
+  <si>
+    <t>4205732.0</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>59999265882</t>
+  </si>
+  <si>
+    <t>RAMULB</t>
+  </si>
+  <si>
+    <t>BNPL8671288815931285</t>
+  </si>
+  <si>
+    <t>59999708002</t>
+  </si>
+  <si>
+    <t>HHQLPS</t>
+  </si>
+  <si>
+    <t>59999142028</t>
+  </si>
+  <si>
+    <t>UFTMFA</t>
+  </si>
+  <si>
+    <t>59999549139</t>
+  </si>
+  <si>
+    <t>MSLPRO</t>
+  </si>
+  <si>
+    <t>59999608373</t>
+  </si>
+  <si>
+    <t>EGATPK</t>
+  </si>
+  <si>
+    <t>59999443392</t>
+  </si>
+  <si>
+    <t>LRGNDS</t>
+  </si>
+  <si>
+    <t>59999856233</t>
+  </si>
+  <si>
+    <t>REGDDJ</t>
+  </si>
+  <si>
+    <t>59999601610</t>
+  </si>
+  <si>
+    <t>RLKBRN</t>
+  </si>
+  <si>
+    <t>59999432634</t>
+  </si>
+  <si>
+    <t>PNGSLC</t>
+  </si>
+  <si>
+    <t>59999883218</t>
+  </si>
+  <si>
+    <t>IUICMQ</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>7387021087</t>
+  </si>
+  <si>
+    <t>AarifPandit99550@example.net</t>
+  </si>
+  <si>
+    <t>1984-06-27</t>
+  </si>
+  <si>
+    <t>187750781337576</t>
+  </si>
+  <si>
+    <t>7a37f86d0321bdd0</t>
+  </si>
+  <si>
+    <t>912933370085788</t>
+  </si>
+  <si>
+    <t>335577017387021087</t>
+  </si>
+  <si>
+    <t>ICIC80331792525</t>
+  </si>
+  <si>
+    <t>9916156781</t>
+  </si>
+  <si>
+    <t>BirenWason80584@example.net</t>
+  </si>
+  <si>
+    <t>1992-02-17</t>
+  </si>
+  <si>
+    <t>791109916596283</t>
+  </si>
+  <si>
+    <t>bc41cdde544e4369</t>
+  </si>
+  <si>
+    <t>256124146704167</t>
+  </si>
+  <si>
+    <t>335577019916156781</t>
+  </si>
+  <si>
+    <t>ICIC83980530656</t>
+  </si>
+  <si>
+    <t>9541099287</t>
+  </si>
+  <si>
+    <t>Sona</t>
+  </si>
+  <si>
+    <t>NayanKale95900@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-05</t>
+  </si>
+  <si>
+    <t>615019317759295</t>
+  </si>
+  <si>
+    <t>05b0b9b9e4cf4aed</t>
+  </si>
+  <si>
+    <t>686140633684712</t>
+  </si>
+  <si>
+    <t>IDEP816728868846GO72</t>
+  </si>
+  <si>
+    <t>4205736.0</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>59999619201</t>
+  </si>
+  <si>
+    <t>PAOKQQ</t>
+  </si>
+  <si>
+    <t>BNPL6187298851436823</t>
+  </si>
+  <si>
+    <t>59999658288</t>
+  </si>
+  <si>
+    <t>ITNHOP</t>
+  </si>
+  <si>
+    <t>59999883885</t>
+  </si>
+  <si>
+    <t>KHIUFU</t>
+  </si>
+  <si>
+    <t>59999957262</t>
+  </si>
+  <si>
+    <t>SUHRCH</t>
+  </si>
+  <si>
+    <t>59999372846</t>
+  </si>
+  <si>
+    <t>BTGPBK</t>
+  </si>
+  <si>
+    <t>59999131416</t>
+  </si>
+  <si>
+    <t>HTHJSB</t>
+  </si>
+  <si>
+    <t>59999558137</t>
+  </si>
+  <si>
+    <t>EUSTGA</t>
+  </si>
+  <si>
+    <t>59999911982</t>
+  </si>
+  <si>
+    <t>JUNPOB</t>
+  </si>
+  <si>
+    <t>59999154559</t>
+  </si>
+  <si>
+    <t>HBUMLJ</t>
+  </si>
+  <si>
+    <t>59999633292</t>
+  </si>
+  <si>
+    <t>JNMSJT</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>6719576190</t>
+  </si>
+  <si>
+    <t>Aishwarya</t>
+  </si>
+  <si>
+    <t>SubhashSandhu22517@example.net</t>
+  </si>
+  <si>
+    <t>1979-11-21</t>
+  </si>
+  <si>
+    <t>862783538013382</t>
+  </si>
+  <si>
+    <t>936abf16185257b9</t>
+  </si>
+  <si>
+    <t>578349649449124</t>
+  </si>
+  <si>
+    <t>335577016719576190</t>
+  </si>
+  <si>
+    <t>ICIC84390503505</t>
+  </si>
+  <si>
+    <t>7409888934</t>
+  </si>
+  <si>
+    <t>Dipti</t>
+  </si>
+  <si>
+    <t>ParveenMalpani42249@example.net</t>
+  </si>
+  <si>
+    <t>1992-02-02</t>
+  </si>
+  <si>
+    <t>544369301725208</t>
+  </si>
+  <si>
+    <t>be0fb21225a11ad9</t>
+  </si>
+  <si>
+    <t>802768399008251</t>
+  </si>
+  <si>
+    <t>335577017409888934</t>
+  </si>
+  <si>
+    <t>ICIC80482241859</t>
+  </si>
+  <si>
+    <t>8058940799</t>
+  </si>
+  <si>
+    <t>Chhavi</t>
+  </si>
+  <si>
+    <t>QabeelMathai88741@example.net</t>
+  </si>
+  <si>
+    <t>1983-03-19</t>
+  </si>
+  <si>
+    <t>800074539326287</t>
+  </si>
+  <si>
+    <t>26d6038e683004e0</t>
+  </si>
+  <si>
+    <t>849743120205174</t>
+  </si>
+  <si>
+    <t>IDEP618789698162GCTN</t>
+  </si>
+  <si>
+    <t>4205739.0</t>
+  </si>
+  <si>
+    <t>9958150728</t>
+  </si>
+  <si>
+    <t>Sukriti</t>
+  </si>
+  <si>
+    <t>MoninKrishnamurthy76350@example.net</t>
+  </si>
+  <si>
+    <t>1981-04-16</t>
+  </si>
+  <si>
+    <t>934610058128080</t>
+  </si>
+  <si>
+    <t>23fb34bc14a47fe8</t>
+  </si>
+  <si>
+    <t>845976327262390</t>
+  </si>
+  <si>
+    <t>8779533239</t>
+  </si>
+  <si>
+    <t>AkhilSubramaniam40521@example.net</t>
+  </si>
+  <si>
+    <t>1981-01-27</t>
+  </si>
+  <si>
+    <t>005538824807311</t>
+  </si>
+  <si>
+    <t>3467141bba5f0f3e</t>
+  </si>
+  <si>
+    <t>247454972676748</t>
+  </si>
+  <si>
+    <t>9231211502</t>
+  </si>
+  <si>
+    <t>ArjunPandya76036@example.net</t>
+  </si>
+  <si>
+    <t>1974-03-18</t>
+  </si>
+  <si>
+    <t>054822199056559</t>
+  </si>
+  <si>
+    <t>f21baf4fe8514468</t>
+  </si>
+  <si>
+    <t>418187385276242</t>
+  </si>
+  <si>
+    <t>IDEP817698942338KTDR</t>
+  </si>
+  <si>
+    <t>4205878.0</t>
+  </si>
+  <si>
+    <t>7769424104</t>
+  </si>
+  <si>
+    <t>Devika</t>
+  </si>
+  <si>
+    <t>ZahirKaran52234@example.net</t>
+  </si>
+  <si>
+    <t>1975-03-12</t>
+  </si>
+  <si>
+    <t>620631322937469</t>
+  </si>
+  <si>
+    <t>72ff076f31b06bbf</t>
+  </si>
+  <si>
+    <t>657489342717379</t>
+  </si>
+  <si>
+    <t>IDEP786191329783XCYS</t>
+  </si>
+  <si>
+    <t>4205889.0</t>
+  </si>
+  <si>
+    <t>9990055473</t>
+  </si>
+  <si>
+    <t>AlexKade68861@example.net</t>
+  </si>
+  <si>
+    <t>1991-06-25</t>
+  </si>
+  <si>
+    <t>394274816520386</t>
+  </si>
+  <si>
+    <t>bfb988f6eff3321f</t>
+  </si>
+  <si>
+    <t>785091139598908</t>
+  </si>
+  <si>
+    <t>IDEP618792686288FGBL</t>
+  </si>
+  <si>
+    <t>4205891.0</t>
   </si>
 </sst>
 </file>
@@ -4517,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1321</v>
+        <v>1468</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4629,16 +5070,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1325</v>
+        <v>1472</v>
       </c>
       <c r="C2" t="s">
-        <v>1326</v>
+        <v>1473</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1324</v>
+        <v>1471</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4741,7 +5182,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1319</v>
+        <v>1418</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4753,7 +5194,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>1320</v>
+        <v>1419</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -4762,7 +5203,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>98.0</v>
+        <v>93.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4853,13 +5294,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>531</v>
+        <v>338</v>
       </c>
       <c r="F2" t="s">
-        <v>1322</v>
+        <v>1469</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1323</v>
+        <v>1470</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -5205,7 +5646,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1327</v>
+        <v>1427</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -5217,7 +5658,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>1328</v>
+        <v>1428</v>
       </c>
       <c r="H2" s="28">
         <v>44798.630833333336</v>
@@ -5226,7 +5667,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>98.0</v>
+        <v>93.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5352,10 +5793,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1321</v>
+        <v>1468</v>
       </c>
       <c r="E2" t="s">
-        <v>1322</v>
+        <v>1469</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -5367,7 +5808,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1324</v>
+        <v>1471</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -5376,10 +5817,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1287</v>
+        <v>1474</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>4205732.0</v>
+        <v>4205895.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -5527,7 +5968,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1321</v>
+        <v>1468</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5544,7 +5985,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1321</v>
+        <v>1468</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5561,7 +6002,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1321</v>
+        <v>1468</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5578,7 +6019,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1321</v>
+        <v>1468</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5595,7 +6036,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1321</v>
+        <v>1468</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5664,7 +6105,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1324</v>
+        <v>1471</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -5894,7 +6335,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1324</v>
+        <v>1471</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -6051,7 +6492,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>531</v>
+        <v>338</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
@@ -6208,7 +6649,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>1289</v>
+        <v>250</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>132</v>
@@ -6222,7 +6663,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>1289</v>
+        <v>250</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>132</v>
@@ -6347,22 +6788,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>1287</v>
+        <v>1474</v>
       </c>
       <c r="C2" t="s">
-        <v>1289</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>1309</v>
+        <v>1408</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>1310</v>
+        <v>1409</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -6699,7 +7140,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1292</v>
+        <v>1391</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="1503">
   <si>
     <t>TestCases</t>
   </si>
@@ -4468,6 +4468,87 @@
   </si>
   <si>
     <t>4205891.0</t>
+  </si>
+  <si>
+    <t>6683607700</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>ArvindGara23494@example.net</t>
+  </si>
+  <si>
+    <t>1987-01-18</t>
+  </si>
+  <si>
+    <t>357525445551471</t>
+  </si>
+  <si>
+    <t>8a0eb9d47f610563</t>
+  </si>
+  <si>
+    <t>130280329818570</t>
+  </si>
+  <si>
+    <t>IDEP768193718684925S</t>
+  </si>
+  <si>
+    <t>4205895.0</t>
+  </si>
+  <si>
+    <t>6416345432</t>
+  </si>
+  <si>
+    <t>Rakhi</t>
+  </si>
+  <si>
+    <t>ZeeshanDash43142@example.net</t>
+  </si>
+  <si>
+    <t>1980-11-04</t>
+  </si>
+  <si>
+    <t>335411441135824</t>
+  </si>
+  <si>
+    <t>c869491e2b85f0c9</t>
+  </si>
+  <si>
+    <t>515598615452795</t>
+  </si>
+  <si>
+    <t>IDEP716894833267E6XA</t>
+  </si>
+  <si>
+    <t>4205904.0</t>
+  </si>
+  <si>
+    <t>9641707995</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>HrishikeshComar85427@example.net</t>
+  </si>
+  <si>
+    <t>1995-06-29</t>
+  </si>
+  <si>
+    <t>420143617371141</t>
+  </si>
+  <si>
+    <t>fcc1ea5048f1140a</t>
+  </si>
+  <si>
+    <t>707763891040734</t>
+  </si>
+  <si>
+    <t>IDEP876194283422BQX7</t>
+  </si>
+  <si>
+    <t>4205907.0</t>
   </si>
 </sst>
 </file>
@@ -4958,7 +5039,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1468</v>
+        <v>1494</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5070,16 +5151,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1472</v>
+        <v>1499</v>
       </c>
       <c r="C2" t="s">
-        <v>1473</v>
+        <v>1500</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1471</v>
+        <v>1498</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5294,13 +5375,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>1495</v>
       </c>
       <c r="F2" t="s">
-        <v>1469</v>
+        <v>1496</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1470</v>
+        <v>1497</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -5793,10 +5874,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1468</v>
+        <v>1494</v>
       </c>
       <c r="E2" t="s">
-        <v>1469</v>
+        <v>1496</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -5808,7 +5889,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1471</v>
+        <v>1498</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -5817,10 +5898,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1474</v>
+        <v>1501</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>4205895.0</v>
+        <v>4205910.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -5968,7 +6049,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1468</v>
+        <v>1494</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5985,7 +6066,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1468</v>
+        <v>1494</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6002,7 +6083,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1468</v>
+        <v>1494</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6019,7 +6100,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1468</v>
+        <v>1494</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6036,7 +6117,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1468</v>
+        <v>1494</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6105,7 +6186,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1471</v>
+        <v>1498</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -6335,7 +6416,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1471</v>
+        <v>1498</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -6492,7 +6573,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>338</v>
+        <v>1495</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>
@@ -6788,7 +6869,7 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>1474</v>
+        <v>1501</v>
       </c>
       <c r="C2" t="s">
         <v>250</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="1510">
   <si>
     <t>TestCases</t>
   </si>
@@ -4549,6 +4549,27 @@
   </si>
   <si>
     <t>4205907.0</t>
+  </si>
+  <si>
+    <t>9189430324</t>
+  </si>
+  <si>
+    <t>Heer</t>
+  </si>
+  <si>
+    <t>OmarDash33742@example.net</t>
+  </si>
+  <si>
+    <t>1976-02-12</t>
+  </si>
+  <si>
+    <t>973633519060702</t>
+  </si>
+  <si>
+    <t>5b62b252992be333</t>
+  </si>
+  <si>
+    <t>678507595877411</t>
   </si>
 </sst>
 </file>
@@ -5039,7 +5060,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1494</v>
+        <v>1503</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5151,16 +5172,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1499</v>
+        <v>1508</v>
       </c>
       <c r="C2" t="s">
-        <v>1500</v>
+        <v>1509</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1498</v>
+        <v>1507</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5375,13 +5396,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>1495</v>
+        <v>1504</v>
       </c>
       <c r="F2" t="s">
-        <v>1496</v>
+        <v>1505</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1497</v>
+        <v>1506</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>31</v>
@@ -5874,10 +5895,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1494</v>
+        <v>1503</v>
       </c>
       <c r="E2" t="s">
-        <v>1496</v>
+        <v>1505</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -5889,7 +5910,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1498</v>
+        <v>1507</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -6049,7 +6070,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1494</v>
+        <v>1503</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6066,7 +6087,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1494</v>
+        <v>1503</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6083,7 +6104,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1494</v>
+        <v>1503</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6100,7 +6121,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1494</v>
+        <v>1503</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6117,7 +6138,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1494</v>
+        <v>1503</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6186,7 +6207,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1498</v>
+        <v>1507</v>
       </c>
       <c r="F2" s="19">
         <v>18.939800000000002</v>
@@ -6416,7 +6437,7 @@
         <v>82</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1498</v>
+        <v>1507</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>72</v>
@@ -6573,7 +6594,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1495</v>
+        <v>1504</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>109</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81290E4F-A69C-4170-AB85-0A1CF72CDCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3438083-AB3C-453B-A193-B60E57F1252E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="469">
   <si>
     <t>TestCases</t>
   </si>
@@ -650,30 +650,6 @@
     <t>CREDITED</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>BNPL8167824843495879</t>
-  </si>
-  <si>
-    <t>59999344462</t>
-  </si>
-  <si>
-    <t>GBTADM</t>
-  </si>
-  <si>
-    <t>335577018612027829</t>
-  </si>
-  <si>
-    <t>ICIC91751778296</t>
-  </si>
-  <si>
-    <t>335577019503892748</t>
-  </si>
-  <si>
-    <t>ICIC87460835686</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
@@ -683,30 +659,6 @@
     <t>sendotpforpin</t>
   </si>
   <si>
-    <t>9482627617</t>
-  </si>
-  <si>
-    <t>Kamini</t>
-  </si>
-  <si>
-    <t>SharadNawal94544@example.net</t>
-  </si>
-  <si>
-    <t>1977-08-29</t>
-  </si>
-  <si>
-    <t>361277001584967</t>
-  </si>
-  <si>
-    <t>6a7307c242c75a93</t>
-  </si>
-  <si>
-    <t>795536404177299</t>
-  </si>
-  <si>
-    <t>IDEP168788189623LOIX</t>
-  </si>
-  <si>
     <t>pin_hash</t>
   </si>
   <si>
@@ -725,712 +677,778 @@
     <t>M4HF7O3UUDT09Z27F4JRCMMJQ8SMNKGK</t>
   </si>
   <si>
-    <t>7509155774</t>
-  </si>
-  <si>
-    <t>Vimala</t>
-  </si>
-  <si>
-    <t>GhanshyamSolanki58466@example.net</t>
-  </si>
-  <si>
-    <t>1988-02-23</t>
-  </si>
-  <si>
-    <t>966857162073378</t>
-  </si>
-  <si>
-    <t>ed45cee61a43a15f</t>
-  </si>
-  <si>
-    <t>452145140422425</t>
-  </si>
-  <si>
-    <t>IDEP81768143354914C5</t>
-  </si>
-  <si>
-    <t>4206579</t>
-  </si>
-  <si>
-    <t>9467402294</t>
-  </si>
-  <si>
-    <t>Leela</t>
-  </si>
-  <si>
-    <t>MarloDey67164@example.net</t>
-  </si>
-  <si>
-    <t>1995-06-19</t>
-  </si>
-  <si>
-    <t>780107654644284</t>
-  </si>
-  <si>
-    <t>febe4114c5455875</t>
-  </si>
-  <si>
-    <t>266907827267571</t>
-  </si>
-  <si>
-    <t>IDEP8716838592952GPL</t>
-  </si>
-  <si>
-    <t>4206591.0</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>111</t>
+    <t>IDEP6781888666921W5R</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>BNPL6718882848262174</t>
+  </si>
+  <si>
+    <t>59999343820</t>
+  </si>
+  <si>
+    <t>FARPGD</t>
+  </si>
+  <si>
+    <t>335577018975825701</t>
+  </si>
+  <si>
+    <t>ICIC86151479743</t>
+  </si>
+  <si>
+    <t>7447172058</t>
+  </si>
+  <si>
+    <t>Ragini</t>
+  </si>
+  <si>
+    <t>MukulPrabhu64026@example.net</t>
+  </si>
+  <si>
+    <t>1971-06-11</t>
+  </si>
+  <si>
+    <t>289042607419995</t>
+  </si>
+  <si>
+    <t>ed7250a8a1f973c2</t>
+  </si>
+  <si>
+    <t>119383945450581</t>
+  </si>
+  <si>
+    <t>335577017447172058</t>
+  </si>
+  <si>
+    <t>ICIC83215104117</t>
+  </si>
+  <si>
+    <t>alphabetsinafield_400</t>
+  </si>
+  <si>
+    <t>abcghi</t>
+  </si>
+  <si>
+    <t>8608173488</t>
+  </si>
+  <si>
+    <t>Aarushi</t>
+  </si>
+  <si>
+    <t>UsmanMisra54392@example.net</t>
+  </si>
+  <si>
+    <t>1983-11-16</t>
+  </si>
+  <si>
+    <t>866858779428394</t>
+  </si>
+  <si>
+    <t>7900325755ec5812</t>
+  </si>
+  <si>
+    <t>640932925812844</t>
+  </si>
+  <si>
+    <t>IDEP716837738393IXWC</t>
+  </si>
+  <si>
+    <t>4206659</t>
+  </si>
+  <si>
+    <t>8557982443</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>QadimRamesh74197@example.net</t>
+  </si>
+  <si>
+    <t>1970-10-19</t>
+  </si>
+  <si>
+    <t>849264747481155</t>
+  </si>
+  <si>
+    <t>7451a95e2efbc628</t>
+  </si>
+  <si>
+    <t>924542062128610</t>
+  </si>
+  <si>
+    <t>IDEP187639575446EXRH</t>
+  </si>
+  <si>
+    <t>4206959.0</t>
+  </si>
+  <si>
+    <t>9185143323</t>
+  </si>
+  <si>
+    <t>Mridula</t>
+  </si>
+  <si>
+    <t>DavidKunda80989@example.net</t>
+  </si>
+  <si>
+    <t>1972-10-30</t>
+  </si>
+  <si>
+    <t>305128077735364</t>
+  </si>
+  <si>
+    <t>07e8709a4b6f97df</t>
+  </si>
+  <si>
+    <t>389311624489722</t>
+  </si>
+  <si>
+    <t>IDEP678148268992LCVH</t>
+  </si>
+  <si>
+    <t>4206973.0</t>
+  </si>
+  <si>
+    <t>7011836376</t>
+  </si>
+  <si>
+    <t>Lata</t>
+  </si>
+  <si>
+    <t>AmritRattan39205@example.net</t>
+  </si>
+  <si>
+    <t>1970-10-28</t>
+  </si>
+  <si>
+    <t>812995741100795</t>
+  </si>
+  <si>
+    <t>ebb69d8a6106f858</t>
+  </si>
+  <si>
+    <t>919966604838716</t>
+  </si>
+  <si>
+    <t>IDEP768148571512Q97W</t>
+  </si>
+  <si>
+    <t>4206977.0</t>
+  </si>
+  <si>
+    <t>7912588283</t>
+  </si>
+  <si>
+    <t>Nagma</t>
+  </si>
+  <si>
+    <t>ChitranjanSachar59155@example.net</t>
+  </si>
+  <si>
+    <t>1995-01-30</t>
+  </si>
+  <si>
+    <t>326041104240370</t>
+  </si>
+  <si>
+    <t>73684b0366d651f5</t>
+  </si>
+  <si>
+    <t>933930828520379</t>
+  </si>
+  <si>
+    <t>IDEP176841836632CD38</t>
+  </si>
+  <si>
+    <t>4206981.0</t>
+  </si>
+  <si>
+    <t>6423305810</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>BaberJoshi61660@example.net</t>
+  </si>
+  <si>
+    <t>1976-08-20</t>
+  </si>
+  <si>
+    <t>475254362409343</t>
+  </si>
+  <si>
+    <t>06069669e5137986</t>
+  </si>
+  <si>
+    <t>633696560297665</t>
+  </si>
+  <si>
+    <t>IDEP167841312639XIEV</t>
+  </si>
+  <si>
+    <t>4206982.0</t>
+  </si>
+  <si>
+    <t>9846355109</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>NakulSengupta26595@example.net</t>
+  </si>
+  <si>
+    <t>1989-06-26</t>
+  </si>
+  <si>
+    <t>308714192809577</t>
+  </si>
+  <si>
+    <t>3bf85228414a7130</t>
+  </si>
+  <si>
+    <t>779535403256211</t>
+  </si>
+  <si>
+    <t>9066665669</t>
+  </si>
+  <si>
+    <t>Chameli</t>
+  </si>
+  <si>
+    <t>QaboolLall65729@example.net</t>
+  </si>
+  <si>
+    <t>1977-12-31</t>
+  </si>
+  <si>
+    <t>850884107204990</t>
+  </si>
+  <si>
+    <t>d41f958446500972</t>
+  </si>
+  <si>
+    <t>994747425063090</t>
+  </si>
+  <si>
+    <t>7604847411</t>
+  </si>
+  <si>
+    <t>Nalini</t>
+  </si>
+  <si>
+    <t>MotiHarjo16112@example.net</t>
+  </si>
+  <si>
+    <t>1970-10-25</t>
+  </si>
+  <si>
+    <t>465591750134674</t>
+  </si>
+  <si>
+    <t>bdcbe6b47d043359</t>
+  </si>
+  <si>
+    <t>875204110196367</t>
+  </si>
+  <si>
+    <t>6976705356</t>
+  </si>
+  <si>
+    <t>Nupoor</t>
+  </si>
+  <si>
+    <t>DeepMorar37835@example.net</t>
+  </si>
+  <si>
+    <t>1987-07-29</t>
+  </si>
+  <si>
+    <t>368809000551580</t>
+  </si>
+  <si>
+    <t>787ad5562119a412</t>
+  </si>
+  <si>
+    <t>207601018767034</t>
+  </si>
+  <si>
+    <t>7602694716</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>RadheshyamAmble38763@example.net</t>
+  </si>
+  <si>
+    <t>1973-12-02</t>
+  </si>
+  <si>
+    <t>834264660317086</t>
+  </si>
+  <si>
+    <t>97af31adbc4ac2e1</t>
+  </si>
+  <si>
+    <t>697050066640429</t>
+  </si>
+  <si>
+    <t>IDEP7618424818898OLU</t>
+  </si>
+  <si>
+    <t>4206986.0</t>
+  </si>
+  <si>
+    <t>7869374876</t>
+  </si>
+  <si>
+    <t>Sameedha</t>
+  </si>
+  <si>
+    <t>EhsaanMannan53336@example.net</t>
+  </si>
+  <si>
+    <t>1987-02-12</t>
+  </si>
+  <si>
+    <t>899224927853796</t>
+  </si>
+  <si>
+    <t>476ba22f8278a805</t>
+  </si>
+  <si>
+    <t>500361224683806</t>
+  </si>
+  <si>
+    <t>IDEP617842926125SCO6</t>
+  </si>
+  <si>
+    <t>4206997.0</t>
+  </si>
+  <si>
+    <t>6319479669</t>
+  </si>
+  <si>
+    <t>Richa</t>
+  </si>
+  <si>
+    <t>GiaanSheth23967@example.net</t>
+  </si>
+  <si>
+    <t>1974-07-23</t>
+  </si>
+  <si>
+    <t>372553363520352</t>
+  </si>
+  <si>
+    <t>baaddc342ba78efc</t>
+  </si>
+  <si>
+    <t>059320275945683</t>
+  </si>
+  <si>
+    <t>6513227085</t>
+  </si>
+  <si>
+    <t>Charu</t>
+  </si>
+  <si>
+    <t>JobinBal56373@example.net</t>
+  </si>
+  <si>
+    <t>1987-12-03</t>
+  </si>
+  <si>
+    <t>060476833057663</t>
+  </si>
+  <si>
+    <t>af0cd972669ebafb</t>
+  </si>
+  <si>
+    <t>802937666774438</t>
+  </si>
+  <si>
+    <t>7179730040</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>GaneshGolla27462@example.net</t>
+  </si>
+  <si>
+    <t>1983-08-03</t>
+  </si>
+  <si>
+    <t>015406348946254</t>
+  </si>
+  <si>
+    <t>119d4fc4f58d0b0b</t>
+  </si>
+  <si>
+    <t>201704905001842</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>59999646629</t>
-  </si>
-  <si>
-    <t>OLKFIG</t>
-  </si>
-  <si>
-    <t>BNPL7861848795736825</t>
-  </si>
-  <si>
-    <t>59999709860</t>
-  </si>
-  <si>
-    <t>SHLKPF</t>
-  </si>
-  <si>
-    <t>59999163320</t>
-  </si>
-  <si>
-    <t>MIJTIN</t>
-  </si>
-  <si>
-    <t>59999940048</t>
-  </si>
-  <si>
-    <t>BAKCKD</t>
-  </si>
-  <si>
-    <t>59999992537</t>
-  </si>
-  <si>
-    <t>OLDBCG</t>
-  </si>
-  <si>
-    <t>59999687106</t>
-  </si>
-  <si>
-    <t>ARBOBA</t>
-  </si>
-  <si>
-    <t>59999797908</t>
-  </si>
-  <si>
-    <t>IQFRAJ</t>
-  </si>
-  <si>
-    <t>59999253901</t>
-  </si>
-  <si>
-    <t>HEPRCJ</t>
-  </si>
-  <si>
-    <t>59999966808</t>
-  </si>
-  <si>
-    <t>BHFLFS</t>
-  </si>
-  <si>
-    <t>59999849584</t>
-  </si>
-  <si>
-    <t>AKSMBG</t>
-  </si>
-  <si>
-    <t>9063100413</t>
+    <t>7564825696</t>
+  </si>
+  <si>
+    <t>Leelawati</t>
+  </si>
+  <si>
+    <t>SharadSachdeva50243@example.net</t>
+  </si>
+  <si>
+    <t>1973-06-09</t>
+  </si>
+  <si>
+    <t>764109156478179</t>
+  </si>
+  <si>
+    <t>0ece7d2887bc2b6c</t>
+  </si>
+  <si>
+    <t>680898038700039</t>
+  </si>
+  <si>
+    <t>6747308369</t>
+  </si>
+  <si>
+    <t>Jiya</t>
+  </si>
+  <si>
+    <t>AadishDoctor17731@example.net</t>
+  </si>
+  <si>
+    <t>1976-01-08</t>
+  </si>
+  <si>
+    <t>800966770765448</t>
+  </si>
+  <si>
+    <t>252b99e6dc837e46</t>
+  </si>
+  <si>
+    <t>695631235381805</t>
+  </si>
+  <si>
+    <t>IDEP781644493881ABDM</t>
+  </si>
+  <si>
+    <t>4207000.0</t>
+  </si>
+  <si>
+    <t>7782466276</t>
   </si>
   <si>
     <t>Naina</t>
   </si>
   <si>
-    <t>KailashPrashad50245@example.net</t>
-  </si>
-  <si>
-    <t>1987-05-02</t>
-  </si>
-  <si>
-    <t>587799952774899</t>
-  </si>
-  <si>
-    <t>f350ce0310466c35</t>
-  </si>
-  <si>
-    <t>385832830658663</t>
-  </si>
-  <si>
-    <t>335577019063100413</t>
-  </si>
-  <si>
-    <t>ICIC81969764153</t>
-  </si>
-  <si>
-    <t>7714805273</t>
-  </si>
-  <si>
-    <t>NaseerWali52420@example.net</t>
-  </si>
-  <si>
-    <t>1995-06-10</t>
-  </si>
-  <si>
-    <t>688051731781169</t>
-  </si>
-  <si>
-    <t>327eb453c4ac260b</t>
-  </si>
-  <si>
-    <t>686192653110920</t>
-  </si>
-  <si>
-    <t>335577017714805273</t>
-  </si>
-  <si>
-    <t>ICIC94120037047</t>
-  </si>
-  <si>
-    <t>9453898648</t>
-  </si>
-  <si>
-    <t>Bhanupriya</t>
-  </si>
-  <si>
-    <t>SatishHayer30814@example.net</t>
-  </si>
-  <si>
-    <t>1984-06-03</t>
-  </si>
-  <si>
-    <t>382680411581751</t>
-  </si>
-  <si>
-    <t>9ba4de43a3147e8e</t>
-  </si>
-  <si>
-    <t>051083285674689</t>
-  </si>
-  <si>
-    <t>7079530772</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>LakshmiVarughese43573@example.net</t>
-  </si>
-  <si>
-    <t>1984-09-19</t>
-  </si>
-  <si>
-    <t>087961322787572</t>
-  </si>
-  <si>
-    <t>7128a6d15d2fcd38</t>
-  </si>
-  <si>
-    <t>274270600536369</t>
-  </si>
-  <si>
-    <t>IDEP678184831246LZD9</t>
-  </si>
-  <si>
-    <t>4206610.0</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>59999605466</t>
-  </si>
-  <si>
-    <t>PQBDMS</t>
-  </si>
-  <si>
-    <t>BNPL8167858583266218</t>
-  </si>
-  <si>
-    <t>59999800397</t>
-  </si>
-  <si>
-    <t>ONPRCP</t>
-  </si>
-  <si>
-    <t>59999666414</t>
-  </si>
-  <si>
-    <t>MKOGMT</t>
-  </si>
-  <si>
-    <t>59999110031</t>
-  </si>
-  <si>
-    <t>QMFBLT</t>
-  </si>
-  <si>
-    <t>59999187362</t>
-  </si>
-  <si>
-    <t>KRKIQF</t>
-  </si>
-  <si>
-    <t>59999045062</t>
-  </si>
-  <si>
-    <t>UHBRHT</t>
-  </si>
-  <si>
-    <t>59999333026</t>
-  </si>
-  <si>
-    <t>LHSSTQ</t>
-  </si>
-  <si>
-    <t>59999320976</t>
-  </si>
-  <si>
-    <t>EHEGTQ</t>
-  </si>
-  <si>
-    <t>59999113262</t>
-  </si>
-  <si>
-    <t>TAFTFB</t>
-  </si>
-  <si>
-    <t>59999502888</t>
-  </si>
-  <si>
-    <t>STQENR</t>
-  </si>
-  <si>
-    <t>131.0</t>
-  </si>
-  <si>
-    <t>6571840230</t>
-  </si>
-  <si>
-    <t>Hina</t>
-  </si>
-  <si>
-    <t>JamshedTak95664@example.net</t>
-  </si>
-  <si>
-    <t>1977-09-02</t>
-  </si>
-  <si>
-    <t>064268698659345</t>
-  </si>
-  <si>
-    <t>0c4e6d05cd6fdae6</t>
-  </si>
-  <si>
-    <t>866291944251568</t>
-  </si>
-  <si>
-    <t>335577016571840230</t>
-  </si>
-  <si>
-    <t>ICIC85779273644</t>
-  </si>
-  <si>
-    <t>9166422232</t>
-  </si>
-  <si>
-    <t>Uma</t>
-  </si>
-  <si>
-    <t>TusharGara66356@example.net</t>
-  </si>
-  <si>
-    <t>1994-11-05</t>
-  </si>
-  <si>
-    <t>250396216894963</t>
-  </si>
-  <si>
-    <t>ccec9b5bbb5eda1d</t>
-  </si>
-  <si>
-    <t>156467545484530</t>
-  </si>
-  <si>
-    <t>335577019166422232</t>
-  </si>
-  <si>
-    <t>ICIC83413280568</t>
-  </si>
-  <si>
-    <t>9181465073</t>
-  </si>
-  <si>
-    <t>Sunita</t>
-  </si>
-  <si>
-    <t>BirenKaran59674@example.net</t>
-  </si>
-  <si>
-    <t>1994-06-16</t>
-  </si>
-  <si>
-    <t>406309376392713</t>
-  </si>
-  <si>
-    <t>dcb7a96bbdf6e9e5</t>
-  </si>
-  <si>
-    <t>772038244308710</t>
-  </si>
-  <si>
-    <t>IDEP716886114644LVO3</t>
-  </si>
-  <si>
-    <t>4206623.0</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>59999061772</t>
-  </si>
-  <si>
-    <t>OBQSTG</t>
-  </si>
-  <si>
-    <t>BNPL6871863275381732</t>
-  </si>
-  <si>
-    <t>59999622840</t>
-  </si>
-  <si>
-    <t>SIOUCT</t>
-  </si>
-  <si>
-    <t>59999386429</t>
-  </si>
-  <si>
-    <t>IQAGNO</t>
-  </si>
-  <si>
-    <t>59999359034</t>
-  </si>
-  <si>
-    <t>TKMITO</t>
-  </si>
-  <si>
-    <t>59999278888</t>
-  </si>
-  <si>
-    <t>FBFJMJ</t>
-  </si>
-  <si>
-    <t>59999999941</t>
-  </si>
-  <si>
-    <t>BHJFDD</t>
-  </si>
-  <si>
-    <t>59999023089</t>
-  </si>
-  <si>
-    <t>HTHKGR</t>
-  </si>
-  <si>
-    <t>59999527837</t>
-  </si>
-  <si>
-    <t>COEDTK</t>
-  </si>
-  <si>
-    <t>59999339203</t>
-  </si>
-  <si>
-    <t>FDFSTE</t>
-  </si>
-  <si>
-    <t>59999797724</t>
-  </si>
-  <si>
-    <t>BUDFPN</t>
-  </si>
-  <si>
-    <t>175.0</t>
-  </si>
-  <si>
-    <t>8664244934</t>
-  </si>
-  <si>
-    <t>Aabha</t>
-  </si>
-  <si>
-    <t>JamshedRay94622@example.net</t>
-  </si>
-  <si>
-    <t>1995-07-19</t>
-  </si>
-  <si>
-    <t>072303274391623</t>
-  </si>
-  <si>
-    <t>7fba81b70beea2c2</t>
-  </si>
-  <si>
-    <t>141718877109642</t>
-  </si>
-  <si>
-    <t>335577018664244934</t>
-  </si>
-  <si>
-    <t>ICIC96899267918</t>
-  </si>
-  <si>
-    <t>9425699853</t>
-  </si>
-  <si>
-    <t>Manjari</t>
-  </si>
-  <si>
-    <t>IbrahimBhavsar51297@example.net</t>
-  </si>
-  <si>
-    <t>1980-12-20</t>
-  </si>
-  <si>
-    <t>043504696488006</t>
-  </si>
-  <si>
-    <t>c61fd1f8b5e963a7</t>
-  </si>
-  <si>
-    <t>047955679224600</t>
-  </si>
-  <si>
-    <t>335577019425699853</t>
-  </si>
-  <si>
-    <t>ICIC95482492746</t>
-  </si>
-  <si>
-    <t>7576078325</t>
-  </si>
-  <si>
-    <t>Sweta</t>
-  </si>
-  <si>
-    <t>UjwalLodi81935@example.net</t>
-  </si>
-  <si>
-    <t>1973-06-06</t>
-  </si>
-  <si>
-    <t>678552786121716</t>
-  </si>
-  <si>
-    <t>6391a063d4c403a9</t>
-  </si>
-  <si>
-    <t>013831108483127</t>
-  </si>
-  <si>
-    <t>IDEP6781888666921W5R</t>
-  </si>
-  <si>
-    <t>4206641.0</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>59999227817</t>
-  </si>
-  <si>
-    <t>MLRTJO</t>
-  </si>
-  <si>
-    <t>BNPL6718882848262174</t>
-  </si>
-  <si>
-    <t>59999125979</t>
-  </si>
-  <si>
-    <t>GNULRI</t>
-  </si>
-  <si>
-    <t>59999832419</t>
-  </si>
-  <si>
-    <t>LPASQI</t>
-  </si>
-  <si>
-    <t>59999069780</t>
-  </si>
-  <si>
-    <t>JONTKM</t>
-  </si>
-  <si>
-    <t>59999034171</t>
-  </si>
-  <si>
-    <t>OINGPS</t>
-  </si>
-  <si>
-    <t>59999603470</t>
-  </si>
-  <si>
-    <t>JGJQMS</t>
-  </si>
-  <si>
-    <t>59999255222</t>
-  </si>
-  <si>
-    <t>LNNNNI</t>
-  </si>
-  <si>
-    <t>59999893081</t>
-  </si>
-  <si>
-    <t>CMFQLQ</t>
-  </si>
-  <si>
-    <t>59999326869</t>
-  </si>
-  <si>
-    <t>KJJGMM</t>
-  </si>
-  <si>
-    <t>59999343820</t>
-  </si>
-  <si>
-    <t>FARPGD</t>
-  </si>
-  <si>
-    <t>174.0</t>
-  </si>
-  <si>
-    <t>8975825701</t>
-  </si>
-  <si>
-    <t>Chandni</t>
-  </si>
-  <si>
-    <t>VikrantSrinivasan20784@example.net</t>
-  </si>
-  <si>
-    <t>1992-07-08</t>
-  </si>
-  <si>
-    <t>421996399322171</t>
-  </si>
-  <si>
-    <t>1397e076d9661a14</t>
-  </si>
-  <si>
-    <t>417506277140029</t>
-  </si>
-  <si>
-    <t>335577018975825701</t>
-  </si>
-  <si>
-    <t>ICIC86151479743</t>
-  </si>
-  <si>
-    <t>7447172058</t>
-  </si>
-  <si>
-    <t>Ragini</t>
-  </si>
-  <si>
-    <t>MukulPrabhu64026@example.net</t>
-  </si>
-  <si>
-    <t>1971-06-11</t>
-  </si>
-  <si>
-    <t>289042607419995</t>
-  </si>
-  <si>
-    <t>ed7250a8a1f973c2</t>
-  </si>
-  <si>
-    <t>119383945450581</t>
-  </si>
-  <si>
-    <t>335577017447172058</t>
-  </si>
-  <si>
-    <t>ICIC83215104117</t>
+    <t>ShashankJohal63211@example.net</t>
+  </si>
+  <si>
+    <t>1993-12-26</t>
+  </si>
+  <si>
+    <t>554949107902619</t>
+  </si>
+  <si>
+    <t>8e509988e2f890cc</t>
+  </si>
+  <si>
+    <t>380769772891487</t>
+  </si>
+  <si>
+    <t>IDEP187645312888ZI7M</t>
+  </si>
+  <si>
+    <t>4207013.0</t>
+  </si>
+  <si>
+    <t>7966177587</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>KabeerBandi22493@example.net</t>
+  </si>
+  <si>
+    <t>1975-11-07</t>
+  </si>
+  <si>
+    <t>545703864368858</t>
+  </si>
+  <si>
+    <t>acda323920f7162a</t>
+  </si>
+  <si>
+    <t>795322519028317</t>
+  </si>
+  <si>
+    <t>6319524122</t>
+  </si>
+  <si>
+    <t>JamshedModi91383@example.net</t>
+  </si>
+  <si>
+    <t>1994-01-27</t>
+  </si>
+  <si>
+    <t>703140269526566</t>
+  </si>
+  <si>
+    <t>83552b945c53bef2</t>
+  </si>
+  <si>
+    <t>507551084618131</t>
+  </si>
+  <si>
+    <t>IDEP8761459548476NEF</t>
+  </si>
+  <si>
+    <t>4207023.0</t>
+  </si>
+  <si>
+    <t>9310726511</t>
+  </si>
+  <si>
+    <t>WafiqWagle43650@example.net</t>
+  </si>
+  <si>
+    <t>1992-10-06</t>
+  </si>
+  <si>
+    <t>083852535685246</t>
+  </si>
+  <si>
+    <t>4d8bb61ac5494130</t>
+  </si>
+  <si>
+    <t>062548880990372</t>
+  </si>
+  <si>
+    <t>IDEP816746469348JZYT</t>
+  </si>
+  <si>
+    <t>4207031.0</t>
+  </si>
+  <si>
+    <t>7531220064</t>
+  </si>
+  <si>
+    <t>Chitra</t>
+  </si>
+  <si>
+    <t>PravinGupta19460@example.net</t>
+  </si>
+  <si>
+    <t>1972-08-06</t>
+  </si>
+  <si>
+    <t>201435525011438</t>
+  </si>
+  <si>
+    <t>a109206ad6559088</t>
+  </si>
+  <si>
+    <t>221189625380963</t>
+  </si>
+  <si>
+    <t>IDEP768146889923YNXE</t>
+  </si>
+  <si>
+    <t>4207037.0</t>
+  </si>
+  <si>
+    <t>9163894291</t>
+  </si>
+  <si>
+    <t>Aishwarya</t>
+  </si>
+  <si>
+    <t>AbhinavPuri12731@example.net</t>
+  </si>
+  <si>
+    <t>1989-07-24</t>
+  </si>
+  <si>
+    <t>149229200192133</t>
+  </si>
+  <si>
+    <t>eac03d1bbc6cd074</t>
+  </si>
+  <si>
+    <t>888947932155475</t>
+  </si>
+  <si>
+    <t>IDEP768148858972UH24</t>
+  </si>
+  <si>
+    <t>4207040.0</t>
+  </si>
+  <si>
+    <t>6794581890</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>AnilHora91953@example.net</t>
+  </si>
+  <si>
+    <t>1993-05-24</t>
+  </si>
+  <si>
+    <t>215421367734455</t>
+  </si>
+  <si>
+    <t>8424c123d2cd001f</t>
+  </si>
+  <si>
+    <t>137785139628830</t>
+  </si>
+  <si>
+    <t>IDEP871648262774K4F3</t>
+  </si>
+  <si>
+    <t>4207052.0</t>
+  </si>
+  <si>
+    <t>7537245112</t>
+  </si>
+  <si>
+    <t>Veena</t>
+  </si>
+  <si>
+    <t>SubhashKade30331@example.net</t>
+  </si>
+  <si>
+    <t>1972-08-17</t>
+  </si>
+  <si>
+    <t>216461727862140</t>
+  </si>
+  <si>
+    <t>62870a2d17215900</t>
+  </si>
+  <si>
+    <t>130692482309496</t>
+  </si>
+  <si>
+    <t>IDEP687148718677YQVP</t>
+  </si>
+  <si>
+    <t>4207053.0</t>
+  </si>
+  <si>
+    <t>8572660827</t>
+  </si>
+  <si>
+    <t>Bimla</t>
+  </si>
+  <si>
+    <t>AzharPradhan55168@example.net</t>
+  </si>
+  <si>
+    <t>1971-08-27</t>
+  </si>
+  <si>
+    <t>028776073803739</t>
+  </si>
+  <si>
+    <t>bc9d6c4c76fb1ee2</t>
+  </si>
+  <si>
+    <t>552285110760427</t>
+  </si>
+  <si>
+    <t>IDEP178648863843RQ41</t>
+  </si>
+  <si>
+    <t>4207056.0</t>
+  </si>
+  <si>
+    <t>6313026049</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>SurajNarula11946@example.net</t>
+  </si>
+  <si>
+    <t>1994-05-13</t>
+  </si>
+  <si>
+    <t>429484225765659</t>
+  </si>
+  <si>
+    <t>fe1217a4f16ffef3</t>
+  </si>
+  <si>
+    <t>658676547253247</t>
+  </si>
+  <si>
+    <t>6832788946</t>
+  </si>
+  <si>
+    <t>Kanika</t>
+  </si>
+  <si>
+    <t>SidInani55731@example.net</t>
+  </si>
+  <si>
+    <t>1988-12-09</t>
+  </si>
+  <si>
+    <t>141909426738680</t>
+  </si>
+  <si>
+    <t>546dd28f3529e1d4</t>
+  </si>
+  <si>
+    <t>186900069827910</t>
+  </si>
+  <si>
+    <t>IDEP768149831873BHRT</t>
+  </si>
+  <si>
+    <t>4207059.0</t>
+  </si>
+  <si>
+    <t>7571931318</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>LalitDate77187@example.net</t>
+  </si>
+  <si>
+    <t>1977-10-21</t>
+  </si>
+  <si>
+    <t>227204211219956</t>
+  </si>
+  <si>
+    <t>0b7d2b70ea8633d0</t>
+  </si>
+  <si>
+    <t>677620125052420</t>
+  </si>
+  <si>
+    <t>IDEP618758499651Q4J6</t>
+  </si>
+  <si>
+    <t>4207061.0</t>
   </si>
 </sst>
 </file>
@@ -1889,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1921,7 +1939,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1955,6 +1973,17 @@
       </c>
       <c r="C5" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1993,7 +2022,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>213</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -2024,15 +2053,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2090,16 +2119,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2202,7 +2231,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>216</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -2214,7 +2243,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2222,8 +2251,8 @@
       <c r="I2" t="s">
         <v>187</v>
       </c>
-      <c r="J2" t="n">
-        <v>134.0</v>
+      <c r="J2">
+        <v>134</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2314,13 +2343,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -2666,7 +2695,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>225</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -2678,7 +2707,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>462</v>
+        <v>226</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2686,8 +2715,8 @@
       <c r="I2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J2" t="n">
-        <v>134.0</v>
+      <c r="J2">
+        <v>134</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -2813,10 +2842,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -2828,7 +2857,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -2837,10 +2866,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4206659.0</v>
+        <v>4207078.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -2983,7 +3012,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3000,7 +3029,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3017,7 +3046,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3034,7 +3063,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3051,7 +3080,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3120,7 +3149,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -3350,7 +3379,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -3454,7 +3483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F237FC-48B5-4E3E-9FA6-9E9855A28D75}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3469,33 +3498,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C2" s="14">
         <v>888888</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3594,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -3722,7 +3751,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -3736,7 +3765,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
@@ -3861,22 +3890,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>443</v>
+        <v>215</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="882">
   <si>
     <t>TestCases</t>
   </si>
@@ -1449,6 +1449,1245 @@
   </si>
   <si>
     <t>4207061.0</t>
+  </si>
+  <si>
+    <t>8472004051</t>
+  </si>
+  <si>
+    <t>Vimala</t>
+  </si>
+  <si>
+    <t>MohitYohannan48538@example.net</t>
+  </si>
+  <si>
+    <t>1982-09-19</t>
+  </si>
+  <si>
+    <t>787538110385554</t>
+  </si>
+  <si>
+    <t>5684c2f32fca4951</t>
+  </si>
+  <si>
+    <t>411335934417067</t>
+  </si>
+  <si>
+    <t>IDEP817623858864HO64</t>
+  </si>
+  <si>
+    <t>4207078.0</t>
+  </si>
+  <si>
+    <t>7394947895</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>EddieJaggi77736@example.net</t>
+  </si>
+  <si>
+    <t>1988-02-14</t>
+  </si>
+  <si>
+    <t>819891532699298</t>
+  </si>
+  <si>
+    <t>4c649ce7f22c46e5</t>
+  </si>
+  <si>
+    <t>222596977794865</t>
+  </si>
+  <si>
+    <t>IDEP786123646113J5AZ</t>
+  </si>
+  <si>
+    <t>4207289.0</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>59999382715</t>
+  </si>
+  <si>
+    <t>SORJTF</t>
+  </si>
+  <si>
+    <t>BNPL7186239533535491</t>
+  </si>
+  <si>
+    <t>59999350490</t>
+  </si>
+  <si>
+    <t>OIITBJ</t>
+  </si>
+  <si>
+    <t>59999301495</t>
+  </si>
+  <si>
+    <t>AOOEFS</t>
+  </si>
+  <si>
+    <t>59999344957</t>
+  </si>
+  <si>
+    <t>AEKBLE</t>
+  </si>
+  <si>
+    <t>59999989393</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>59999810793</t>
+  </si>
+  <si>
+    <t>SFNNIJ</t>
+  </si>
+  <si>
+    <t>59999115513</t>
+  </si>
+  <si>
+    <t>ARGNKU</t>
+  </si>
+  <si>
+    <t>59999478798</t>
+  </si>
+  <si>
+    <t>IJKSBA</t>
+  </si>
+  <si>
+    <t>59999017190</t>
+  </si>
+  <si>
+    <t>SEPNTD</t>
+  </si>
+  <si>
+    <t>59999567306</t>
+  </si>
+  <si>
+    <t>FCTHSH</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>8936186356</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>MustafaVig79904@example.net</t>
+  </si>
+  <si>
+    <t>1992-06-21</t>
+  </si>
+  <si>
+    <t>037579072264377</t>
+  </si>
+  <si>
+    <t>8374d2b1fc1535c5</t>
+  </si>
+  <si>
+    <t>895446577662854</t>
+  </si>
+  <si>
+    <t>335577018936186356</t>
+  </si>
+  <si>
+    <t>ICIC95365377116</t>
+  </si>
+  <si>
+    <t>9871126383</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>TusharPadmanabhan97069@example.net</t>
+  </si>
+  <si>
+    <t>1986-02-07</t>
+  </si>
+  <si>
+    <t>970984160549193</t>
+  </si>
+  <si>
+    <t>91abd567e0ad4e42</t>
+  </si>
+  <si>
+    <t>750178818446318</t>
+  </si>
+  <si>
+    <t>335577019871126383</t>
+  </si>
+  <si>
+    <t>ICIC80159677609</t>
+  </si>
+  <si>
+    <t>6364279743</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>QabeelBarman46831@example.net</t>
+  </si>
+  <si>
+    <t>1995-04-24</t>
+  </si>
+  <si>
+    <t>001368712809276</t>
+  </si>
+  <si>
+    <t>3387d1653fe77a87</t>
+  </si>
+  <si>
+    <t>582301710637370</t>
+  </si>
+  <si>
+    <t>IDEP167826896558ZY2T</t>
+  </si>
+  <si>
+    <t>4207299.0</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>59999535292</t>
+  </si>
+  <si>
+    <t>UPDOGD</t>
+  </si>
+  <si>
+    <t>59999843797</t>
+  </si>
+  <si>
+    <t>GOIKTL</t>
+  </si>
+  <si>
+    <t>59999127084</t>
+  </si>
+  <si>
+    <t>OPLIBD</t>
+  </si>
+  <si>
+    <t>59999215185</t>
+  </si>
+  <si>
+    <t>EIKGQC</t>
+  </si>
+  <si>
+    <t>59999097565</t>
+  </si>
+  <si>
+    <t>UQOCEI</t>
+  </si>
+  <si>
+    <t>59999983413</t>
+  </si>
+  <si>
+    <t>RUCBJN</t>
+  </si>
+  <si>
+    <t>59999215575</t>
+  </si>
+  <si>
+    <t>NFBKFO</t>
+  </si>
+  <si>
+    <t>59999473235</t>
+  </si>
+  <si>
+    <t>FSHMDD</t>
+  </si>
+  <si>
+    <t>59999824916</t>
+  </si>
+  <si>
+    <t>RCBKOQ</t>
+  </si>
+  <si>
+    <t>59999230611</t>
+  </si>
+  <si>
+    <t>PQDPEH</t>
+  </si>
+  <si>
+    <t>9873907224</t>
+  </si>
+  <si>
+    <t>ArjunSengupta43352@example.net</t>
+  </si>
+  <si>
+    <t>1986-08-22</t>
+  </si>
+  <si>
+    <t>142586985855045</t>
+  </si>
+  <si>
+    <t>fb908a5ac539f7c1</t>
+  </si>
+  <si>
+    <t>270359530823130</t>
+  </si>
+  <si>
+    <t>335577019873907224</t>
+  </si>
+  <si>
+    <t>ICIC99217908983</t>
+  </si>
+  <si>
+    <t>7888239969</t>
+  </si>
+  <si>
+    <t>Alpa</t>
+  </si>
+  <si>
+    <t>ViratNagi45267@example.net</t>
+  </si>
+  <si>
+    <t>1972-01-27</t>
+  </si>
+  <si>
+    <t>477116823860737</t>
+  </si>
+  <si>
+    <t>a8bb5b5ed3ab525e</t>
+  </si>
+  <si>
+    <t>786213940897100</t>
+  </si>
+  <si>
+    <t>335577017888239969</t>
+  </si>
+  <si>
+    <t>ICIC93300924130</t>
+  </si>
+  <si>
+    <t>7811710986</t>
+  </si>
+  <si>
+    <t>Uma</t>
+  </si>
+  <si>
+    <t>AadishSetty76285@example.net</t>
+  </si>
+  <si>
+    <t>1987-11-12</t>
+  </si>
+  <si>
+    <t>124804950189809</t>
+  </si>
+  <si>
+    <t>786acd9ec905a038</t>
+  </si>
+  <si>
+    <t>421897407914191</t>
+  </si>
+  <si>
+    <t>IDEP867126571297VD87</t>
+  </si>
+  <si>
+    <t>4207322.0</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>59999745788</t>
+  </si>
+  <si>
+    <t>NLMAHB</t>
+  </si>
+  <si>
+    <t>59999485941</t>
+  </si>
+  <si>
+    <t>ASEEFK</t>
+  </si>
+  <si>
+    <t>59999218365</t>
+  </si>
+  <si>
+    <t>LHJDHB</t>
+  </si>
+  <si>
+    <t>59999068923</t>
+  </si>
+  <si>
+    <t>JDUIIB</t>
+  </si>
+  <si>
+    <t>59999960107</t>
+  </si>
+  <si>
+    <t>KQPAQC</t>
+  </si>
+  <si>
+    <t>59999862170</t>
+  </si>
+  <si>
+    <t>BLRGSO</t>
+  </si>
+  <si>
+    <t>59999220586</t>
+  </si>
+  <si>
+    <t>GQIFTA</t>
+  </si>
+  <si>
+    <t>59999209457</t>
+  </si>
+  <si>
+    <t>JRFDAS</t>
+  </si>
+  <si>
+    <t>59999775422</t>
+  </si>
+  <si>
+    <t>MUSHJA</t>
+  </si>
+  <si>
+    <t>59999860279</t>
+  </si>
+  <si>
+    <t>IKFEPN</t>
+  </si>
+  <si>
+    <t>9536867604</t>
+  </si>
+  <si>
+    <t>PravinSwamy26508@example.net</t>
+  </si>
+  <si>
+    <t>1987-03-15</t>
+  </si>
+  <si>
+    <t>650360440233683</t>
+  </si>
+  <si>
+    <t>466fc1f5d0ed9973</t>
+  </si>
+  <si>
+    <t>756287430308774</t>
+  </si>
+  <si>
+    <t>335577019536867604</t>
+  </si>
+  <si>
+    <t>ICIC90512716441</t>
+  </si>
+  <si>
+    <t>8237966882</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>QabeelKumer82639@example.net</t>
+  </si>
+  <si>
+    <t>1987-02-09</t>
+  </si>
+  <si>
+    <t>631766721625526</t>
+  </si>
+  <si>
+    <t>b001cc017e26ba77</t>
+  </si>
+  <si>
+    <t>152108500288292</t>
+  </si>
+  <si>
+    <t>335577018237966882</t>
+  </si>
+  <si>
+    <t>ICIC81596458533</t>
+  </si>
+  <si>
+    <t>6076959320</t>
+  </si>
+  <si>
+    <t>YadunandanGole26973@example.net</t>
+  </si>
+  <si>
+    <t>1993-03-16</t>
+  </si>
+  <si>
+    <t>502097474187035</t>
+  </si>
+  <si>
+    <t>c190653dd0b06105</t>
+  </si>
+  <si>
+    <t>099205301566847</t>
+  </si>
+  <si>
+    <t>IDEP876127152144F7UZ</t>
+  </si>
+  <si>
+    <t>4207328.0</t>
+  </si>
+  <si>
+    <t>9713631431</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>BahadurSule88439@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-21</t>
+  </si>
+  <si>
+    <t>925530661723880</t>
+  </si>
+  <si>
+    <t>eaffbf751c7bd375</t>
+  </si>
+  <si>
+    <t>412148463489921</t>
+  </si>
+  <si>
+    <t>IDEP6178272582355FPD</t>
+  </si>
+  <si>
+    <t>4207336.0</t>
+  </si>
+  <si>
+    <t>8331211939</t>
+  </si>
+  <si>
+    <t>Upasana</t>
+  </si>
+  <si>
+    <t>TanaySani10617@example.net</t>
+  </si>
+  <si>
+    <t>1995-05-04</t>
+  </si>
+  <si>
+    <t>470912544924274</t>
+  </si>
+  <si>
+    <t>46d1983c1e0f4741</t>
+  </si>
+  <si>
+    <t>195620563763952</t>
+  </si>
+  <si>
+    <t>6211438231</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>AlbertThakkar89831@example.net</t>
+  </si>
+  <si>
+    <t>1989-04-19</t>
+  </si>
+  <si>
+    <t>118004084008086</t>
+  </si>
+  <si>
+    <t>260ee582fe22a07e</t>
+  </si>
+  <si>
+    <t>305687042626826</t>
+  </si>
+  <si>
+    <t>IDEP671827591389Q7F8</t>
+  </si>
+  <si>
+    <t>4207338.0</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>59999160640</t>
+  </si>
+  <si>
+    <t>LPRFPP</t>
+  </si>
+  <si>
+    <t>59999786674</t>
+  </si>
+  <si>
+    <t>BBKKHJ</t>
+  </si>
+  <si>
+    <t>59999668670</t>
+  </si>
+  <si>
+    <t>BGUSSG</t>
+  </si>
+  <si>
+    <t>59999541543</t>
+  </si>
+  <si>
+    <t>AKASTH</t>
+  </si>
+  <si>
+    <t>59999322225</t>
+  </si>
+  <si>
+    <t>KIEHKU</t>
+  </si>
+  <si>
+    <t>59999468533</t>
+  </si>
+  <si>
+    <t>BNIFIT</t>
+  </si>
+  <si>
+    <t>59999550108</t>
+  </si>
+  <si>
+    <t>GDFGCP</t>
+  </si>
+  <si>
+    <t>59999058156</t>
+  </si>
+  <si>
+    <t>FAFPMU</t>
+  </si>
+  <si>
+    <t>59999588465</t>
+  </si>
+  <si>
+    <t>QMJQHT</t>
+  </si>
+  <si>
+    <t>59999523140</t>
+  </si>
+  <si>
+    <t>KRPIPI</t>
+  </si>
+  <si>
+    <t>6331729021</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>RamBhat13220@example.net</t>
+  </si>
+  <si>
+    <t>676631040639911</t>
+  </si>
+  <si>
+    <t>c9e921d662baa0b1</t>
+  </si>
+  <si>
+    <t>269616173583625</t>
+  </si>
+  <si>
+    <t>335577016331729021</t>
+  </si>
+  <si>
+    <t>ICIC92733033827</t>
+  </si>
+  <si>
+    <t>7577434044</t>
+  </si>
+  <si>
+    <t>QabeelBir93121@example.net</t>
+  </si>
+  <si>
+    <t>1991-05-01</t>
+  </si>
+  <si>
+    <t>499284418231179</t>
+  </si>
+  <si>
+    <t>f540c046445c53f8</t>
+  </si>
+  <si>
+    <t>998725812920888</t>
+  </si>
+  <si>
+    <t>335577017577434044</t>
+  </si>
+  <si>
+    <t>ICIC94558566852</t>
+  </si>
+  <si>
+    <t>9835147778</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>KalpitKarpe14096@example.net</t>
+  </si>
+  <si>
+    <t>1972-04-04</t>
+  </si>
+  <si>
+    <t>391260310577744</t>
+  </si>
+  <si>
+    <t>19962a8658cfdeb7</t>
+  </si>
+  <si>
+    <t>593787815518571</t>
+  </si>
+  <si>
+    <t>IDEP871628222844J5GU</t>
+  </si>
+  <si>
+    <t>4207341.0</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>59999436651</t>
+  </si>
+  <si>
+    <t>PBNPFB</t>
+  </si>
+  <si>
+    <t>59999552182</t>
+  </si>
+  <si>
+    <t>PJPSCE</t>
+  </si>
+  <si>
+    <t>59999104382</t>
+  </si>
+  <si>
+    <t>GHNGIL</t>
+  </si>
+  <si>
+    <t>59999146672</t>
+  </si>
+  <si>
+    <t>CMUKGE</t>
+  </si>
+  <si>
+    <t>59999144756</t>
+  </si>
+  <si>
+    <t>BLNDHJ</t>
+  </si>
+  <si>
+    <t>59999919025</t>
+  </si>
+  <si>
+    <t>TOHCPD</t>
+  </si>
+  <si>
+    <t>59999136307</t>
+  </si>
+  <si>
+    <t>THPKDG</t>
+  </si>
+  <si>
+    <t>59999038081</t>
+  </si>
+  <si>
+    <t>ANTSTK</t>
+  </si>
+  <si>
+    <t>59999341699</t>
+  </si>
+  <si>
+    <t>HUSMFR</t>
+  </si>
+  <si>
+    <t>59999125517</t>
+  </si>
+  <si>
+    <t>UGHSLQ</t>
+  </si>
+  <si>
+    <t>6199579923</t>
+  </si>
+  <si>
+    <t>Lalita</t>
+  </si>
+  <si>
+    <t>NitinSaraf82569@example.net</t>
+  </si>
+  <si>
+    <t>1983-12-28</t>
+  </si>
+  <si>
+    <t>233436333757602</t>
+  </si>
+  <si>
+    <t>ad901726afa88292</t>
+  </si>
+  <si>
+    <t>518961494713629</t>
+  </si>
+  <si>
+    <t>335577016199579923</t>
+  </si>
+  <si>
+    <t>ICIC82275101079</t>
+  </si>
+  <si>
+    <t>7534173792</t>
+  </si>
+  <si>
+    <t>Runjhun</t>
+  </si>
+  <si>
+    <t>MukulGrewal71892@example.net</t>
+  </si>
+  <si>
+    <t>1992-12-01</t>
+  </si>
+  <si>
+    <t>938668827772147</t>
+  </si>
+  <si>
+    <t>ad2d5bf46f99afd6</t>
+  </si>
+  <si>
+    <t>375800085174852</t>
+  </si>
+  <si>
+    <t>335577017534173792</t>
+  </si>
+  <si>
+    <t>ICIC81258834884</t>
+  </si>
+  <si>
+    <t>8125879637</t>
+  </si>
+  <si>
+    <t>Diya</t>
+  </si>
+  <si>
+    <t>SomnathGopal94821@example.net</t>
+  </si>
+  <si>
+    <t>1989-02-04</t>
+  </si>
+  <si>
+    <t>097179952630487</t>
+  </si>
+  <si>
+    <t>2127daad8ec71eb9</t>
+  </si>
+  <si>
+    <t>744160138538791</t>
+  </si>
+  <si>
+    <t>IDEP8761385189874HS7</t>
+  </si>
+  <si>
+    <t>4207351.0</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>59999780553</t>
+  </si>
+  <si>
+    <t>NASOEU</t>
+  </si>
+  <si>
+    <t>59999411645</t>
+  </si>
+  <si>
+    <t>DDEOIQ</t>
+  </si>
+  <si>
+    <t>59999056826</t>
+  </si>
+  <si>
+    <t>BIJGCE</t>
+  </si>
+  <si>
+    <t>59999747437</t>
+  </si>
+  <si>
+    <t>MUBPRA</t>
+  </si>
+  <si>
+    <t>59999538640</t>
+  </si>
+  <si>
+    <t>ITGTDS</t>
+  </si>
+  <si>
+    <t>59999131749</t>
+  </si>
+  <si>
+    <t>FHGTUA</t>
+  </si>
+  <si>
+    <t>59999733918</t>
+  </si>
+  <si>
+    <t>QQOPRD</t>
+  </si>
+  <si>
+    <t>59999174285</t>
+  </si>
+  <si>
+    <t>RRKDQK</t>
+  </si>
+  <si>
+    <t>59999589591</t>
+  </si>
+  <si>
+    <t>FACDJT</t>
+  </si>
+  <si>
+    <t>59999414551</t>
+  </si>
+  <si>
+    <t>SPQICH</t>
+  </si>
+  <si>
+    <t>6796659296</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>UmarSamuel44279@example.net</t>
+  </si>
+  <si>
+    <t>1977-01-21</t>
+  </si>
+  <si>
+    <t>305977836867235</t>
+  </si>
+  <si>
+    <t>d7fe1b24a7de65c5</t>
+  </si>
+  <si>
+    <t>393915288551488</t>
+  </si>
+  <si>
+    <t>335577016796659296</t>
+  </si>
+  <si>
+    <t>ICIC92040924843</t>
+  </si>
+  <si>
+    <t>9405835309</t>
+  </si>
+  <si>
+    <t>Namita</t>
+  </si>
+  <si>
+    <t>EliasJani79092@example.net</t>
+  </si>
+  <si>
+    <t>1994-12-10</t>
+  </si>
+  <si>
+    <t>960258322590896</t>
+  </si>
+  <si>
+    <t>4b31781f17508cc4</t>
+  </si>
+  <si>
+    <t>985033807125489</t>
+  </si>
+  <si>
+    <t>335577019405835309</t>
+  </si>
+  <si>
+    <t>ICIC85483268721</t>
+  </si>
+  <si>
+    <t>6806548558</t>
+  </si>
+  <si>
+    <t>Kasturba</t>
+  </si>
+  <si>
+    <t>SatishYadav83222@example.net</t>
+  </si>
+  <si>
+    <t>1995-09-01</t>
+  </si>
+  <si>
+    <t>168220277362341</t>
+  </si>
+  <si>
+    <t>819a2ad908b05ca9</t>
+  </si>
+  <si>
+    <t>404276074323237</t>
+  </si>
+  <si>
+    <t>7452643763</t>
+  </si>
+  <si>
+    <t>Supriya</t>
+  </si>
+  <si>
+    <t>PranabNagy63816@example.net</t>
+  </si>
+  <si>
+    <t>1976-04-04</t>
+  </si>
+  <si>
+    <t>189736308368093</t>
+  </si>
+  <si>
+    <t>0297741a7d84a8fc</t>
+  </si>
+  <si>
+    <t>861363538257684</t>
+  </si>
+  <si>
+    <t>9059450354</t>
+  </si>
+  <si>
+    <t>NaseerGanesh11061@example.net</t>
+  </si>
+  <si>
+    <t>1973-12-24</t>
+  </si>
+  <si>
+    <t>279296829654100</t>
+  </si>
+  <si>
+    <t>839c62a37fbac723</t>
+  </si>
+  <si>
+    <t>446860479228560</t>
+  </si>
+  <si>
+    <t>IDEP168735823328CUWH</t>
+  </si>
+  <si>
+    <t>4207366.0</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>59999044463</t>
+  </si>
+  <si>
+    <t>PUDDUL</t>
+  </si>
+  <si>
+    <t>BNPL7681353688815297</t>
+  </si>
+  <si>
+    <t>59999444206</t>
+  </si>
+  <si>
+    <t>CDINUJ</t>
+  </si>
+  <si>
+    <t>59999762450</t>
+  </si>
+  <si>
+    <t>BONCCT</t>
+  </si>
+  <si>
+    <t>59999717271</t>
+  </si>
+  <si>
+    <t>MBQNJA</t>
+  </si>
+  <si>
+    <t>59999936060</t>
+  </si>
+  <si>
+    <t>GBCFHM</t>
+  </si>
+  <si>
+    <t>59999893459</t>
+  </si>
+  <si>
+    <t>FQTHKK</t>
+  </si>
+  <si>
+    <t>59999496542</t>
+  </si>
+  <si>
+    <t>OAABFL</t>
+  </si>
+  <si>
+    <t>59999695674</t>
+  </si>
+  <si>
+    <t>UEPQRP</t>
+  </si>
+  <si>
+    <t>59999680826</t>
+  </si>
+  <si>
+    <t>GRLMRQ</t>
+  </si>
+  <si>
+    <t>59999153022</t>
+  </si>
+  <si>
+    <t>AGSNJN</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>7388221876</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>SushantRanganathan11363@example.net</t>
+  </si>
+  <si>
+    <t>1990-03-19</t>
+  </si>
+  <si>
+    <t>552959388075151</t>
+  </si>
+  <si>
+    <t>6f50df91f4a5315e</t>
+  </si>
+  <si>
+    <t>516356988151646</t>
+  </si>
+  <si>
+    <t>335577017388221876</t>
+  </si>
+  <si>
+    <t>ICIC91731499401</t>
+  </si>
+  <si>
+    <t>9220500193</t>
+  </si>
+  <si>
+    <t>ViratSampath19450@example.net</t>
+  </si>
+  <si>
+    <t>1994-09-26</t>
+  </si>
+  <si>
+    <t>357679159956291</t>
+  </si>
+  <si>
+    <t>e599517555a3256f</t>
+  </si>
+  <si>
+    <t>647744937994665</t>
+  </si>
+  <si>
+    <t>335577019220500193</t>
+  </si>
+  <si>
+    <t>ICIC87137079107</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>460</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2022,7 +3261,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>845</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -2119,16 +3358,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>878</v>
       </c>
       <c r="C2" t="s">
-        <v>466</v>
+        <v>879</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>464</v>
+        <v>877</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2231,7 +3470,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>872</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -2243,7 +3482,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>873</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2251,8 +3490,8 @@
       <c r="I2" t="s">
         <v>187</v>
       </c>
-      <c r="J2">
-        <v>134</v>
+      <c r="J2" t="n">
+        <v>172.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2346,10 +3585,10 @@
         <v>461</v>
       </c>
       <c r="F2" t="s">
-        <v>462</v>
+        <v>875</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>463</v>
+        <v>876</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -2695,7 +3934,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>880</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -2707,7 +3946,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>881</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2715,8 +3954,8 @@
       <c r="I2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J2">
-        <v>134</v>
+      <c r="J2" t="n">
+        <v>172.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -2842,10 +4081,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>460</v>
+        <v>874</v>
       </c>
       <c r="E2" t="s">
-        <v>462</v>
+        <v>875</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -2857,7 +4096,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>464</v>
+        <v>877</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -2866,10 +4105,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>467</v>
+        <v>837</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4207078.0</v>
+        <v>4207403.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -3012,7 +4251,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>460</v>
+        <v>874</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3029,7 +4268,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>460</v>
+        <v>874</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3046,7 +4285,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>460</v>
+        <v>874</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3063,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>460</v>
+        <v>874</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3080,7 +4319,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>460</v>
+        <v>874</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3149,7 +4388,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>464</v>
+        <v>877</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -3379,7 +4618,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>464</v>
+        <v>877</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -3751,7 +4990,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>672</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -3765,7 +5004,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>672</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
@@ -3890,22 +5129,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>837</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>672</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>862</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>863</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="1126">
   <si>
     <t>TestCases</t>
   </si>
@@ -2688,6 +2688,738 @@
   </si>
   <si>
     <t>ICIC87137079107</t>
+  </si>
+  <si>
+    <t>7071423842</t>
+  </si>
+  <si>
+    <t>SirishRaghavan53321@example.net</t>
+  </si>
+  <si>
+    <t>1988-04-06</t>
+  </si>
+  <si>
+    <t>737506884374881</t>
+  </si>
+  <si>
+    <t>cec916ebc409c79e</t>
+  </si>
+  <si>
+    <t>052479515637422</t>
+  </si>
+  <si>
+    <t>IDEP6817963327715GM6</t>
+  </si>
+  <si>
+    <t>4207403.0</t>
+  </si>
+  <si>
+    <t>7905546599</t>
+  </si>
+  <si>
+    <t>Anjana</t>
+  </si>
+  <si>
+    <t>AtulSachdeva82309@example.net</t>
+  </si>
+  <si>
+    <t>1972-07-17</t>
+  </si>
+  <si>
+    <t>203615593471097</t>
+  </si>
+  <si>
+    <t>6a84fb76919b91ce</t>
+  </si>
+  <si>
+    <t>325974435196484</t>
+  </si>
+  <si>
+    <t>IDEP6781964159546X8F</t>
+  </si>
+  <si>
+    <t>4207451.0</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>59999856496</t>
+  </si>
+  <si>
+    <t>HEEISG</t>
+  </si>
+  <si>
+    <t>59999198436</t>
+  </si>
+  <si>
+    <t>RCLRGB</t>
+  </si>
+  <si>
+    <t>59999408659</t>
+  </si>
+  <si>
+    <t>UARMAS</t>
+  </si>
+  <si>
+    <t>59999231487</t>
+  </si>
+  <si>
+    <t>LBQDUG</t>
+  </si>
+  <si>
+    <t>59999603360</t>
+  </si>
+  <si>
+    <t>IASMGE</t>
+  </si>
+  <si>
+    <t>59999551164</t>
+  </si>
+  <si>
+    <t>JPGPBB</t>
+  </si>
+  <si>
+    <t>59999169371</t>
+  </si>
+  <si>
+    <t>HKHTIQ</t>
+  </si>
+  <si>
+    <t>59999993292</t>
+  </si>
+  <si>
+    <t>CTOFIK</t>
+  </si>
+  <si>
+    <t>8890244213</t>
+  </si>
+  <si>
+    <t>AbbasNagy30469@example.net</t>
+  </si>
+  <si>
+    <t>1979-12-11</t>
+  </si>
+  <si>
+    <t>283192007258364</t>
+  </si>
+  <si>
+    <t>9445d35a6ef84851</t>
+  </si>
+  <si>
+    <t>413297861334913</t>
+  </si>
+  <si>
+    <t>335577018890244213</t>
+  </si>
+  <si>
+    <t>ICIC98139547672</t>
+  </si>
+  <si>
+    <t>6065023831</t>
+  </si>
+  <si>
+    <t>Urmila</t>
+  </si>
+  <si>
+    <t>AjaySharaf34578@example.net</t>
+  </si>
+  <si>
+    <t>1978-11-24</t>
+  </si>
+  <si>
+    <t>597619483237570</t>
+  </si>
+  <si>
+    <t>592fa944e7c26358</t>
+  </si>
+  <si>
+    <t>326829116510552</t>
+  </si>
+  <si>
+    <t>335577016065023831</t>
+  </si>
+  <si>
+    <t>ICIC90020276818</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>59999935504</t>
+  </si>
+  <si>
+    <t>HLKITQ</t>
+  </si>
+  <si>
+    <t>59999845020</t>
+  </si>
+  <si>
+    <t>QGIURR</t>
+  </si>
+  <si>
+    <t>59999085658</t>
+  </si>
+  <si>
+    <t>KPTJTT</t>
+  </si>
+  <si>
+    <t>59999154967</t>
+  </si>
+  <si>
+    <t>BUKKEL</t>
+  </si>
+  <si>
+    <t>59999867597</t>
+  </si>
+  <si>
+    <t>PNGDSO</t>
+  </si>
+  <si>
+    <t>59999231786</t>
+  </si>
+  <si>
+    <t>TLSUCJ</t>
+  </si>
+  <si>
+    <t>59999530446</t>
+  </si>
+  <si>
+    <t>BQQTDN</t>
+  </si>
+  <si>
+    <t>59999574316</t>
+  </si>
+  <si>
+    <t>EMKTRA</t>
+  </si>
+  <si>
+    <t>59999367758</t>
+  </si>
+  <si>
+    <t>KFMUMD</t>
+  </si>
+  <si>
+    <t>59999625918</t>
+  </si>
+  <si>
+    <t>NQHDRL</t>
+  </si>
+  <si>
+    <t>6976062859</t>
+  </si>
+  <si>
+    <t>MowgliMenon98866@example.net</t>
+  </si>
+  <si>
+    <t>1985-03-06</t>
+  </si>
+  <si>
+    <t>399689694078956</t>
+  </si>
+  <si>
+    <t>eb3749574e36a306</t>
+  </si>
+  <si>
+    <t>282114421576362</t>
+  </si>
+  <si>
+    <t>335577016976062859</t>
+  </si>
+  <si>
+    <t>ICIC96127799164</t>
+  </si>
+  <si>
+    <t>7984081767</t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>JagdishDas81626@example.net</t>
+  </si>
+  <si>
+    <t>1979-02-21</t>
+  </si>
+  <si>
+    <t>596519016126764</t>
+  </si>
+  <si>
+    <t>b1990a2710325b9b</t>
+  </si>
+  <si>
+    <t>317202814788733</t>
+  </si>
+  <si>
+    <t>335577017984081767</t>
+  </si>
+  <si>
+    <t>ICIC84011748559</t>
+  </si>
+  <si>
+    <t>7370574635</t>
+  </si>
+  <si>
+    <t>Urvashi</t>
+  </si>
+  <si>
+    <t>RaghavanBawa22138@example.net</t>
+  </si>
+  <si>
+    <t>1979-10-27</t>
+  </si>
+  <si>
+    <t>331469374084165</t>
+  </si>
+  <si>
+    <t>d93c71149d1dc7f3</t>
+  </si>
+  <si>
+    <t>695919151972164</t>
+  </si>
+  <si>
+    <t>IDEP867196727312SN3L</t>
+  </si>
+  <si>
+    <t>4207452.0</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>59999789428</t>
+  </si>
+  <si>
+    <t>SMEDEL</t>
+  </si>
+  <si>
+    <t>BNPL6781978482974789</t>
+  </si>
+  <si>
+    <t>59999461370</t>
+  </si>
+  <si>
+    <t>UCJFDM</t>
+  </si>
+  <si>
+    <t>59999484685</t>
+  </si>
+  <si>
+    <t>PORSRD</t>
+  </si>
+  <si>
+    <t>59999517743</t>
+  </si>
+  <si>
+    <t>COALIM</t>
+  </si>
+  <si>
+    <t>59999223883</t>
+  </si>
+  <si>
+    <t>MBEAAL</t>
+  </si>
+  <si>
+    <t>59999783859</t>
+  </si>
+  <si>
+    <t>HBAELQ</t>
+  </si>
+  <si>
+    <t>59999412020</t>
+  </si>
+  <si>
+    <t>QMBEQS</t>
+  </si>
+  <si>
+    <t>59999781914</t>
+  </si>
+  <si>
+    <t>NLEFIN</t>
+  </si>
+  <si>
+    <t>59999784658</t>
+  </si>
+  <si>
+    <t>SBBMHL</t>
+  </si>
+  <si>
+    <t>59999832921</t>
+  </si>
+  <si>
+    <t>KPMKLP</t>
+  </si>
+  <si>
+    <t>172.0</t>
+  </si>
+  <si>
+    <t>9727608417</t>
+  </si>
+  <si>
+    <t>Sameera</t>
+  </si>
+  <si>
+    <t>ManishLachman56579@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-01</t>
+  </si>
+  <si>
+    <t>214620986981808</t>
+  </si>
+  <si>
+    <t>8f5fcd4215a4e166</t>
+  </si>
+  <si>
+    <t>813611826866346</t>
+  </si>
+  <si>
+    <t>335577019727608417</t>
+  </si>
+  <si>
+    <t>ICIC96452161669</t>
+  </si>
+  <si>
+    <t>6025922534</t>
+  </si>
+  <si>
+    <t>MiteshChada63806@example.net</t>
+  </si>
+  <si>
+    <t>1984-04-09</t>
+  </si>
+  <si>
+    <t>100026235306838</t>
+  </si>
+  <si>
+    <t>64765aa1614252a4</t>
+  </si>
+  <si>
+    <t>040551077449597</t>
+  </si>
+  <si>
+    <t>335577016025922534</t>
+  </si>
+  <si>
+    <t>ICIC82534039534</t>
+  </si>
+  <si>
+    <t>6858588583</t>
+  </si>
+  <si>
+    <t>JavedChaudry60611@example.net</t>
+  </si>
+  <si>
+    <t>1994-07-03</t>
+  </si>
+  <si>
+    <t>367606689156249</t>
+  </si>
+  <si>
+    <t>de8e331157a1f314</t>
+  </si>
+  <si>
+    <t>525484748967447</t>
+  </si>
+  <si>
+    <t>IDEP781697168434ZNPS</t>
+  </si>
+  <si>
+    <t>4207456.0</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>59999880952</t>
+  </si>
+  <si>
+    <t>PPCKED</t>
+  </si>
+  <si>
+    <t>BNPL8716974861991329</t>
+  </si>
+  <si>
+    <t>59999383754</t>
+  </si>
+  <si>
+    <t>QNPFSH</t>
+  </si>
+  <si>
+    <t>59999393027</t>
+  </si>
+  <si>
+    <t>FRAJHU</t>
+  </si>
+  <si>
+    <t>59999243804</t>
+  </si>
+  <si>
+    <t>JHMRPD</t>
+  </si>
+  <si>
+    <t>59999832301</t>
+  </si>
+  <si>
+    <t>KLHQPE</t>
+  </si>
+  <si>
+    <t>59999815932</t>
+  </si>
+  <si>
+    <t>IOOBGP</t>
+  </si>
+  <si>
+    <t>59999579983</t>
+  </si>
+  <si>
+    <t>NCHHRC</t>
+  </si>
+  <si>
+    <t>59999777044</t>
+  </si>
+  <si>
+    <t>OIEPGS</t>
+  </si>
+  <si>
+    <t>59999090483</t>
+  </si>
+  <si>
+    <t>PERTMR</t>
+  </si>
+  <si>
+    <t>59999144876</t>
+  </si>
+  <si>
+    <t>MJKBFC</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>8735466188</t>
+  </si>
+  <si>
+    <t>GauranshBorra22868@example.net</t>
+  </si>
+  <si>
+    <t>1982-02-20</t>
+  </si>
+  <si>
+    <t>675972944574858</t>
+  </si>
+  <si>
+    <t>007527dcb617af3a</t>
+  </si>
+  <si>
+    <t>624121996001939</t>
+  </si>
+  <si>
+    <t>335577018735466188</t>
+  </si>
+  <si>
+    <t>ICIC96945444391</t>
+  </si>
+  <si>
+    <t>8943503557</t>
+  </si>
+  <si>
+    <t>VenkatPalla42189@example.net</t>
+  </si>
+  <si>
+    <t>1981-03-10</t>
+  </si>
+  <si>
+    <t>131164359802077</t>
+  </si>
+  <si>
+    <t>d8545cb7f8235d19</t>
+  </si>
+  <si>
+    <t>125180662984798</t>
+  </si>
+  <si>
+    <t>335577018943503557</t>
+  </si>
+  <si>
+    <t>ICIC99775223671</t>
+  </si>
+  <si>
+    <t>9762120450</t>
+  </si>
+  <si>
+    <t>Nutan</t>
+  </si>
+  <si>
+    <t>BalajiLala63226@example.net</t>
+  </si>
+  <si>
+    <t>1979-01-28</t>
+  </si>
+  <si>
+    <t>205730386186659</t>
+  </si>
+  <si>
+    <t>4f41b0956fe5a7a7</t>
+  </si>
+  <si>
+    <t>159720615677921</t>
+  </si>
+  <si>
+    <t>IDEP176897727212KABH</t>
+  </si>
+  <si>
+    <t>4207460.0</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>59999282533</t>
+  </si>
+  <si>
+    <t>NUPLSK</t>
+  </si>
+  <si>
+    <t>BNPL7861988487856512</t>
+  </si>
+  <si>
+    <t>59999363344</t>
+  </si>
+  <si>
+    <t>ATJUNU</t>
+  </si>
+  <si>
+    <t>59999363854</t>
+  </si>
+  <si>
+    <t>ULIHMA</t>
+  </si>
+  <si>
+    <t>59999001976</t>
+  </si>
+  <si>
+    <t>LILROP</t>
+  </si>
+  <si>
+    <t>59999563245</t>
+  </si>
+  <si>
+    <t>DMDBAB</t>
+  </si>
+  <si>
+    <t>59999727946</t>
+  </si>
+  <si>
+    <t>ERCURJ</t>
+  </si>
+  <si>
+    <t>59999795205</t>
+  </si>
+  <si>
+    <t>IRQATD</t>
+  </si>
+  <si>
+    <t>59999739896</t>
+  </si>
+  <si>
+    <t>SPAGFU</t>
+  </si>
+  <si>
+    <t>59999130945</t>
+  </si>
+  <si>
+    <t>NTJQIH</t>
+  </si>
+  <si>
+    <t>59999688936</t>
+  </si>
+  <si>
+    <t>NMCUQP</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>8829200188</t>
+  </si>
+  <si>
+    <t>Rakhi</t>
+  </si>
+  <si>
+    <t>HetanNair88016@example.net</t>
+  </si>
+  <si>
+    <t>1986-11-13</t>
+  </si>
+  <si>
+    <t>939575836318995</t>
+  </si>
+  <si>
+    <t>380abbe4c0a9d705</t>
+  </si>
+  <si>
+    <t>394788601625514</t>
+  </si>
+  <si>
+    <t>335577018829200188</t>
+  </si>
+  <si>
+    <t>ICIC98054813489</t>
+  </si>
+  <si>
+    <t>9798395363</t>
+  </si>
+  <si>
+    <t>Nandini</t>
+  </si>
+  <si>
+    <t>KamleshCheema53993@example.net</t>
+  </si>
+  <si>
+    <t>1981-06-18</t>
+  </si>
+  <si>
+    <t>700510202999992</t>
+  </si>
+  <si>
+    <t>f08e65a5cb846e6f</t>
+  </si>
+  <si>
+    <t>332842844699359</t>
+  </si>
+  <si>
+    <t>335577019798395363</t>
+  </si>
+  <si>
+    <t>ICIC93511158828</t>
   </si>
 </sst>
 </file>
@@ -3178,7 +3910,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>874</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3261,7 +3993,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>845</v>
+        <v>1088</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -3358,16 +4090,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>878</v>
+        <v>1122</v>
       </c>
       <c r="C2" t="s">
-        <v>879</v>
+        <v>1123</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>877</v>
+        <v>1121</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3470,7 +4202,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>872</v>
+        <v>1115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -3482,7 +4214,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>873</v>
+        <v>1116</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3491,7 +4223,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>172.0</v>
+        <v>111.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3582,13 +4314,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>461</v>
+        <v>1118</v>
       </c>
       <c r="F2" t="s">
-        <v>875</v>
+        <v>1119</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>876</v>
+        <v>1120</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -3934,7 +4666,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>880</v>
+        <v>1124</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -3946,7 +4678,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>881</v>
+        <v>1125</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3955,7 +4687,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>172.0</v>
+        <v>111.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4081,10 +4813,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>874</v>
+        <v>1117</v>
       </c>
       <c r="E2" t="s">
-        <v>875</v>
+        <v>1119</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -4096,7 +4828,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>877</v>
+        <v>1121</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -4105,10 +4837,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>837</v>
+        <v>1082</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4207403.0</v>
+        <v>4207463.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -4251,7 +4983,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>874</v>
+        <v>1117</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4268,7 +5000,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>874</v>
+        <v>1117</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4285,7 +5017,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>874</v>
+        <v>1117</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4302,7 +5034,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>874</v>
+        <v>1117</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4319,7 +5051,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>874</v>
+        <v>1117</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4388,7 +5120,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>877</v>
+        <v>1121</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4618,7 +5350,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>877</v>
+        <v>1121</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -4833,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>1118</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -4990,7 +5722,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -5004,7 +5736,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
@@ -5129,22 +5861,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>837</v>
+        <v>1082</v>
       </c>
       <c r="C2" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>862</v>
+        <v>1105</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>863</v>
+        <v>1106</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="1185">
   <si>
     <t>TestCases</t>
   </si>
@@ -3420,6 +3420,183 @@
   </si>
   <si>
     <t>ICIC93511158828</t>
+  </si>
+  <si>
+    <t>7524336741</t>
+  </si>
+  <si>
+    <t>Navami</t>
+  </si>
+  <si>
+    <t>ChandIyer62312@example.net</t>
+  </si>
+  <si>
+    <t>1973-10-23</t>
+  </si>
+  <si>
+    <t>321659118589915</t>
+  </si>
+  <si>
+    <t>936392b52e6a636b</t>
+  </si>
+  <si>
+    <t>105434392028903</t>
+  </si>
+  <si>
+    <t>7392324307</t>
+  </si>
+  <si>
+    <t>Astha</t>
+  </si>
+  <si>
+    <t>SiddharthNayak23289@example.net</t>
+  </si>
+  <si>
+    <t>1995-10-27</t>
+  </si>
+  <si>
+    <t>789373229419138</t>
+  </si>
+  <si>
+    <t>2265d2223f8b7100</t>
+  </si>
+  <si>
+    <t>361537492149467</t>
+  </si>
+  <si>
+    <t>IDEP817698384949IOTQ</t>
+  </si>
+  <si>
+    <t>4207463.0</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>59999709814</t>
+  </si>
+  <si>
+    <t>FARIBL</t>
+  </si>
+  <si>
+    <t>BNPL7681985726437239</t>
+  </si>
+  <si>
+    <t>59999934367</t>
+  </si>
+  <si>
+    <t>PLPUIA</t>
+  </si>
+  <si>
+    <t>59999980244</t>
+  </si>
+  <si>
+    <t>ECSQER</t>
+  </si>
+  <si>
+    <t>59999097112</t>
+  </si>
+  <si>
+    <t>FHCKEB</t>
+  </si>
+  <si>
+    <t>59999007143</t>
+  </si>
+  <si>
+    <t>RCFSFG</t>
+  </si>
+  <si>
+    <t>59999767373</t>
+  </si>
+  <si>
+    <t>FEALJI</t>
+  </si>
+  <si>
+    <t>59999365635</t>
+  </si>
+  <si>
+    <t>BHAJIJ</t>
+  </si>
+  <si>
+    <t>59999898168</t>
+  </si>
+  <si>
+    <t>KDSFUN</t>
+  </si>
+  <si>
+    <t>59999730756</t>
+  </si>
+  <si>
+    <t>IBUOTE</t>
+  </si>
+  <si>
+    <t>59999654447</t>
+  </si>
+  <si>
+    <t>HGEDBE</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>7267036993</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>TaahidChacko49227@example.net</t>
+  </si>
+  <si>
+    <t>1975-05-09</t>
+  </si>
+  <si>
+    <t>911984442011741</t>
+  </si>
+  <si>
+    <t>3d193143eaccf35b</t>
+  </si>
+  <si>
+    <t>595250206684005</t>
+  </si>
+  <si>
+    <t>335577017267036993</t>
+  </si>
+  <si>
+    <t>ICIC96986426802</t>
+  </si>
+  <si>
+    <t>8936680674</t>
+  </si>
+  <si>
+    <t>Shanti</t>
+  </si>
+  <si>
+    <t>CharandeepNanda73521@example.net</t>
+  </si>
+  <si>
+    <t>1986-01-16</t>
+  </si>
+  <si>
+    <t>547428296127247</t>
+  </si>
+  <si>
+    <t>77092c587fd565dd</t>
+  </si>
+  <si>
+    <t>097705082979640</t>
+  </si>
+  <si>
+    <t>335577018936680674</t>
+  </si>
+  <si>
+    <t>ICIC85306128504</t>
   </si>
 </sst>
 </file>
@@ -3910,7 +4087,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1117</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3993,7 +4170,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1088</v>
+        <v>1147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -4090,16 +4267,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1122</v>
+        <v>1181</v>
       </c>
       <c r="C2" t="s">
-        <v>1123</v>
+        <v>1182</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1121</v>
+        <v>1180</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4202,7 +4379,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1115</v>
+        <v>1174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4214,7 +4391,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>1116</v>
+        <v>1175</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4223,7 +4400,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>111.0</v>
+        <v>93.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4314,13 +4491,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>1118</v>
+        <v>1177</v>
       </c>
       <c r="F2" t="s">
-        <v>1119</v>
+        <v>1178</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1120</v>
+        <v>1179</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -4666,7 +4843,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1124</v>
+        <v>1183</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4678,7 +4855,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>1125</v>
+        <v>1184</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4687,7 +4864,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>111.0</v>
+        <v>93.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4813,10 +4990,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1117</v>
+        <v>1176</v>
       </c>
       <c r="E2" t="s">
-        <v>1119</v>
+        <v>1178</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -4828,7 +5005,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1121</v>
+        <v>1180</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -4837,10 +5014,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1082</v>
+        <v>1140</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4207463.0</v>
+        <v>4207481.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -4983,7 +5160,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1117</v>
+        <v>1176</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5000,7 +5177,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1117</v>
+        <v>1176</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5017,7 +5194,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1117</v>
+        <v>1176</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5034,7 +5211,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1117</v>
+        <v>1176</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5051,7 +5228,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1117</v>
+        <v>1176</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5120,7 +5297,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1121</v>
+        <v>1180</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5350,7 +5527,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>1121</v>
+        <v>1180</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -5565,7 +5742,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1118</v>
+        <v>1177</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -5722,7 +5899,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>774</v>
+        <v>1144</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -5736,7 +5913,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>774</v>
+        <v>1144</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
@@ -5861,22 +6038,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>1082</v>
+        <v>1140</v>
       </c>
       <c r="C2" t="s">
-        <v>774</v>
+        <v>1144</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>1105</v>
+        <v>1164</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>1106</v>
+        <v>1165</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1237">
   <si>
     <t>TestCases</t>
   </si>
@@ -3597,6 +3597,162 @@
   </si>
   <si>
     <t>ICIC85306128504</t>
+  </si>
+  <si>
+    <t>8796724152</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>HarpreetVyas34854@example.net</t>
+  </si>
+  <si>
+    <t>1974-09-09</t>
+  </si>
+  <si>
+    <t>084585133814094</t>
+  </si>
+  <si>
+    <t>cb8783933ea92519</t>
+  </si>
+  <si>
+    <t>625868590084864</t>
+  </si>
+  <si>
+    <t>IDEP6781987889816AXZ</t>
+  </si>
+  <si>
+    <t>4207481.0</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>59999795454</t>
+  </si>
+  <si>
+    <t>DKRHPH</t>
+  </si>
+  <si>
+    <t>BNPL8617989629544752</t>
+  </si>
+  <si>
+    <t>59999705707</t>
+  </si>
+  <si>
+    <t>FEEPFH</t>
+  </si>
+  <si>
+    <t>59999553383</t>
+  </si>
+  <si>
+    <t>ESIPLD</t>
+  </si>
+  <si>
+    <t>59999052879</t>
+  </si>
+  <si>
+    <t>NFCSFE</t>
+  </si>
+  <si>
+    <t>59999592849</t>
+  </si>
+  <si>
+    <t>MDSBBM</t>
+  </si>
+  <si>
+    <t>59999434910</t>
+  </si>
+  <si>
+    <t>SADFEK</t>
+  </si>
+  <si>
+    <t>59999967238</t>
+  </si>
+  <si>
+    <t>ARKSTF</t>
+  </si>
+  <si>
+    <t>59999574982</t>
+  </si>
+  <si>
+    <t>PJSDKK</t>
+  </si>
+  <si>
+    <t>59999738238</t>
+  </si>
+  <si>
+    <t>JNNQMT</t>
+  </si>
+  <si>
+    <t>59999346716</t>
+  </si>
+  <si>
+    <t>ITLAOO</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>9350119318</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>SuryaUppal13375@example.net</t>
+  </si>
+  <si>
+    <t>1994-08-31</t>
+  </si>
+  <si>
+    <t>830828633197454</t>
+  </si>
+  <si>
+    <t>74e35cc45a974fff</t>
+  </si>
+  <si>
+    <t>784139760946721</t>
+  </si>
+  <si>
+    <t>335577019350119318</t>
+  </si>
+  <si>
+    <t>ICIC83761226276</t>
+  </si>
+  <si>
+    <t>7646552156</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>DineshGopal10427@example.net</t>
+  </si>
+  <si>
+    <t>1981-01-22</t>
+  </si>
+  <si>
+    <t>508206670975069</t>
+  </si>
+  <si>
+    <t>2989b407eec8ff5a</t>
+  </si>
+  <si>
+    <t>048688394841775</t>
+  </si>
+  <si>
+    <t>335577017646552156</t>
+  </si>
+  <si>
+    <t>ICIC91256996713</t>
   </si>
 </sst>
 </file>
@@ -4087,7 +4243,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1176</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4170,7 +4326,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1147</v>
+        <v>1199</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -4267,16 +4423,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1181</v>
+        <v>1233</v>
       </c>
       <c r="C2" t="s">
-        <v>1182</v>
+        <v>1234</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1180</v>
+        <v>1232</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4379,7 +4535,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1174</v>
+        <v>1226</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4391,7 +4547,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>1175</v>
+        <v>1227</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4400,7 +4556,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>93.0</v>
+        <v>183.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4491,13 +4647,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>1177</v>
+        <v>1229</v>
       </c>
       <c r="F2" t="s">
-        <v>1178</v>
+        <v>1230</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1179</v>
+        <v>1231</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -4843,7 +4999,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1183</v>
+        <v>1235</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4855,7 +5011,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>1184</v>
+        <v>1236</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4864,7 +5020,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>93.0</v>
+        <v>183.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4990,10 +5146,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1176</v>
+        <v>1228</v>
       </c>
       <c r="E2" t="s">
-        <v>1178</v>
+        <v>1230</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -5005,7 +5161,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1180</v>
+        <v>1232</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -5014,10 +5170,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1140</v>
+        <v>1192</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4207481.0</v>
+        <v>4207486.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -5160,7 +5316,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1176</v>
+        <v>1228</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5177,7 +5333,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1176</v>
+        <v>1228</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5194,7 +5350,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1176</v>
+        <v>1228</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5211,7 +5367,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1176</v>
+        <v>1228</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5228,7 +5384,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1176</v>
+        <v>1228</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5297,7 +5453,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1180</v>
+        <v>1232</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5527,7 +5683,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>1180</v>
+        <v>1232</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -5742,7 +5898,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1177</v>
+        <v>1229</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -5899,7 +6055,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>1144</v>
+        <v>1035</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -5913,7 +6069,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>1144</v>
+        <v>1035</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
@@ -6038,22 +6194,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>1140</v>
+        <v>1192</v>
       </c>
       <c r="C2" t="s">
-        <v>1144</v>
+        <v>1035</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>1164</v>
+        <v>1216</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>1165</v>
+        <v>1217</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1289">
   <si>
     <t>TestCases</t>
   </si>
@@ -3753,6 +3753,162 @@
   </si>
   <si>
     <t>ICIC91256996713</t>
+  </si>
+  <si>
+    <t>9515442625</t>
+  </si>
+  <si>
+    <t>Amrita</t>
+  </si>
+  <si>
+    <t>JatinDayal40858@example.net</t>
+  </si>
+  <si>
+    <t>1995-01-27</t>
+  </si>
+  <si>
+    <t>051447091035361</t>
+  </si>
+  <si>
+    <t>490f4720bfbe5b40</t>
+  </si>
+  <si>
+    <t>579709945787114</t>
+  </si>
+  <si>
+    <t>IDEP6871997654152MT1</t>
+  </si>
+  <si>
+    <t>4207486.0</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>59999363427</t>
+  </si>
+  <si>
+    <t>HPFINB</t>
+  </si>
+  <si>
+    <t>BNPL7116888926571246</t>
+  </si>
+  <si>
+    <t>59999357824</t>
+  </si>
+  <si>
+    <t>DCHAPI</t>
+  </si>
+  <si>
+    <t>59999092058</t>
+  </si>
+  <si>
+    <t>KGFJSB</t>
+  </si>
+  <si>
+    <t>59999789255</t>
+  </si>
+  <si>
+    <t>AKTPDL</t>
+  </si>
+  <si>
+    <t>59999781504</t>
+  </si>
+  <si>
+    <t>BMPSEQ</t>
+  </si>
+  <si>
+    <t>59999943282</t>
+  </si>
+  <si>
+    <t>PGGMNB</t>
+  </si>
+  <si>
+    <t>59999139802</t>
+  </si>
+  <si>
+    <t>JKICTJ</t>
+  </si>
+  <si>
+    <t>59999888900</t>
+  </si>
+  <si>
+    <t>LPSGKK</t>
+  </si>
+  <si>
+    <t>59999383544</t>
+  </si>
+  <si>
+    <t>KHUFKB</t>
+  </si>
+  <si>
+    <t>59999307165</t>
+  </si>
+  <si>
+    <t>RNAUBU</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>6737749381</t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>HrishikeshChohan66013@example.net</t>
+  </si>
+  <si>
+    <t>1977-06-14</t>
+  </si>
+  <si>
+    <t>841801934967799</t>
+  </si>
+  <si>
+    <t>67a3eeca6c520715</t>
+  </si>
+  <si>
+    <t>128367129156832</t>
+  </si>
+  <si>
+    <t>335577016737749381</t>
+  </si>
+  <si>
+    <t>ICIC93908138616</t>
+  </si>
+  <si>
+    <t>7703479161</t>
+  </si>
+  <si>
+    <t>Nishita</t>
+  </si>
+  <si>
+    <t>HimeshRai40039@example.net</t>
+  </si>
+  <si>
+    <t>1974-07-18</t>
+  </si>
+  <si>
+    <t>945894523689713</t>
+  </si>
+  <si>
+    <t>d2122e08e7bca930</t>
+  </si>
+  <si>
+    <t>579133540038866</t>
+  </si>
+  <si>
+    <t>335577017703479161</t>
+  </si>
+  <si>
+    <t>ICIC94598911011</t>
   </si>
 </sst>
 </file>
@@ -4243,7 +4399,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1228</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4326,7 +4482,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1199</v>
+        <v>1251</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -4423,16 +4579,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1233</v>
+        <v>1285</v>
       </c>
       <c r="C2" t="s">
-        <v>1234</v>
+        <v>1286</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1232</v>
+        <v>1284</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4535,7 +4691,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1226</v>
+        <v>1278</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4547,7 +4703,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>1227</v>
+        <v>1279</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4556,7 +4712,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>183.0</v>
+        <v>177.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4647,13 +4803,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>1229</v>
+        <v>1281</v>
       </c>
       <c r="F2" t="s">
-        <v>1230</v>
+        <v>1282</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1231</v>
+        <v>1283</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -4999,7 +5155,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1235</v>
+        <v>1287</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -5011,7 +5167,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>1236</v>
+        <v>1288</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5020,7 +5176,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>183.0</v>
+        <v>177.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5146,10 +5302,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1228</v>
+        <v>1280</v>
       </c>
       <c r="E2" t="s">
-        <v>1230</v>
+        <v>1282</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -5161,7 +5317,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1232</v>
+        <v>1284</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -5170,10 +5326,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1192</v>
+        <v>1244</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4207486.0</v>
+        <v>4207496.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -5316,7 +5472,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1228</v>
+        <v>1280</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5333,7 +5489,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1228</v>
+        <v>1280</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5350,7 +5506,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1228</v>
+        <v>1280</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5367,7 +5523,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1228</v>
+        <v>1280</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5384,7 +5540,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1228</v>
+        <v>1280</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5453,7 +5609,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1232</v>
+        <v>1284</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5683,7 +5839,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>1232</v>
+        <v>1284</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -5898,7 +6054,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1229</v>
+        <v>1281</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -6055,7 +6211,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>1035</v>
+        <v>1248</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -6069,7 +6225,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>1035</v>
+        <v>1248</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
@@ -6194,22 +6350,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>1192</v>
+        <v>1244</v>
       </c>
       <c r="C2" t="s">
-        <v>1035</v>
+        <v>1248</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>1216</v>
+        <v>1268</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>1217</v>
+        <v>1269</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="1348">
   <si>
     <t>TestCases</t>
   </si>
@@ -3909,6 +3909,183 @@
   </si>
   <si>
     <t>ICIC94598911011</t>
+  </si>
+  <si>
+    <t>7549192779</t>
+  </si>
+  <si>
+    <t>Kasturi</t>
+  </si>
+  <si>
+    <t>ShashankSekhon68071@example.net</t>
+  </si>
+  <si>
+    <t>1995-02-24</t>
+  </si>
+  <si>
+    <t>599145229900824</t>
+  </si>
+  <si>
+    <t>a26ddfb274dd6a43</t>
+  </si>
+  <si>
+    <t>449454086655550</t>
+  </si>
+  <si>
+    <t>IDEP176183281949CHGF</t>
+  </si>
+  <si>
+    <t>4207496.0</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>59999020856</t>
+  </si>
+  <si>
+    <t>EAKLOM</t>
+  </si>
+  <si>
+    <t>BNPL1617835273564937</t>
+  </si>
+  <si>
+    <t>59999789413</t>
+  </si>
+  <si>
+    <t>QDCQOH</t>
+  </si>
+  <si>
+    <t>59999128217</t>
+  </si>
+  <si>
+    <t>SLQJGD</t>
+  </si>
+  <si>
+    <t>59999301737</t>
+  </si>
+  <si>
+    <t>KDNTCO</t>
+  </si>
+  <si>
+    <t>59999068737</t>
+  </si>
+  <si>
+    <t>NBLKSH</t>
+  </si>
+  <si>
+    <t>59999351076</t>
+  </si>
+  <si>
+    <t>QGUUBF</t>
+  </si>
+  <si>
+    <t>59999355053</t>
+  </si>
+  <si>
+    <t>GCAGQN</t>
+  </si>
+  <si>
+    <t>59999971318</t>
+  </si>
+  <si>
+    <t>OQSURB</t>
+  </si>
+  <si>
+    <t>59999344617</t>
+  </si>
+  <si>
+    <t>BFLASR</t>
+  </si>
+  <si>
+    <t>59999302541</t>
+  </si>
+  <si>
+    <t>NIQJRD</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>6232142035</t>
+  </si>
+  <si>
+    <t>HarpreetMohan85926@example.net</t>
+  </si>
+  <si>
+    <t>1980-07-31</t>
+  </si>
+  <si>
+    <t>178251280644951</t>
+  </si>
+  <si>
+    <t>12719261dcde7730</t>
+  </si>
+  <si>
+    <t>605898576524751</t>
+  </si>
+  <si>
+    <t>335577016232142035</t>
+  </si>
+  <si>
+    <t>ICIC96742608285</t>
+  </si>
+  <si>
+    <t>7162548929</t>
+  </si>
+  <si>
+    <t>Babita</t>
+  </si>
+  <si>
+    <t>SushantAmble78839@example.net</t>
+  </si>
+  <si>
+    <t>1991-04-22</t>
+  </si>
+  <si>
+    <t>218735712719276</t>
+  </si>
+  <si>
+    <t>1743303c4427c0b6</t>
+  </si>
+  <si>
+    <t>430152893950757</t>
+  </si>
+  <si>
+    <t>335577017162548929</t>
+  </si>
+  <si>
+    <t>ICIC97428252991</t>
+  </si>
+  <si>
+    <t>8291781447</t>
+  </si>
+  <si>
+    <t>MiteshSaran87685@example.net</t>
+  </si>
+  <si>
+    <t>1994-12-15</t>
+  </si>
+  <si>
+    <t>479566052329036</t>
+  </si>
+  <si>
+    <t>d207bfcde2d70bae</t>
+  </si>
+  <si>
+    <t>337732251385045</t>
   </si>
 </sst>
 </file>
@@ -4399,7 +4576,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1280</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4482,7 +4659,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>1251</v>
+        <v>1305</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -4579,16 +4756,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1285</v>
+        <v>1346</v>
       </c>
       <c r="C2" t="s">
-        <v>1286</v>
+        <v>1347</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1284</v>
+        <v>1345</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4691,7 +4868,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1278</v>
+        <v>1331</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -4703,7 +4880,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>1279</v>
+        <v>1332</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4712,7 +4889,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0</v>
+        <v>112.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4803,13 +4980,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>1281</v>
+        <v>321</v>
       </c>
       <c r="F2" t="s">
-        <v>1282</v>
+        <v>1343</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1283</v>
+        <v>1344</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -5155,7 +5332,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1287</v>
+        <v>1340</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -5167,7 +5344,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>1288</v>
+        <v>1341</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5176,7 +5353,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0</v>
+        <v>112.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5302,10 +5479,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1280</v>
+        <v>1342</v>
       </c>
       <c r="E2" t="s">
-        <v>1282</v>
+        <v>1343</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -5317,7 +5494,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1284</v>
+        <v>1345</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -5326,10 +5503,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1244</v>
+        <v>1296</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4207496.0</v>
+        <v>4207532.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -5472,7 +5649,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1280</v>
+        <v>1342</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5489,7 +5666,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1280</v>
+        <v>1342</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5506,7 +5683,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1280</v>
+        <v>1342</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5523,7 +5700,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1280</v>
+        <v>1342</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5540,7 +5717,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1280</v>
+        <v>1342</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5609,7 +5786,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1284</v>
+        <v>1345</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5839,7 +6016,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>1284</v>
+        <v>1345</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -6054,7 +6231,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1281</v>
+        <v>321</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -6211,7 +6388,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>1248</v>
+        <v>1302</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -6225,7 +6402,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>1248</v>
+        <v>1302</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
@@ -6350,22 +6527,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>1244</v>
+        <v>1296</v>
       </c>
       <c r="C2" t="s">
-        <v>1248</v>
+        <v>1302</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>1268</v>
+        <v>1322</v>
       </c>
       <c r="F2" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>1269</v>
+        <v>1323</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="1357">
   <si>
     <t>TestCases</t>
   </si>
@@ -4086,6 +4086,33 @@
   </si>
   <si>
     <t>337732251385045</t>
+  </si>
+  <si>
+    <t>9001168795</t>
+  </si>
+  <si>
+    <t>Isha</t>
+  </si>
+  <si>
+    <t>ArvindHanda68772@example.net</t>
+  </si>
+  <si>
+    <t>1979-03-09</t>
+  </si>
+  <si>
+    <t>855884040488606</t>
+  </si>
+  <si>
+    <t>4332098f729ed62c</t>
+  </si>
+  <si>
+    <t>221556530846355</t>
+  </si>
+  <si>
+    <t>IDEP11678478196785EG</t>
+  </si>
+  <si>
+    <t>4207532.0</t>
   </si>
 </sst>
 </file>
@@ -4576,7 +4603,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4756,16 +4783,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
       <c r="C2" t="s">
-        <v>1347</v>
+        <v>1354</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4980,13 +5007,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>1349</v>
       </c>
       <c r="F2" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1344</v>
+        <v>1351</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -5479,10 +5506,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="E2" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -5494,7 +5521,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -5503,10 +5530,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1296</v>
+        <v>1355</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4207532.0</v>
+        <v>4207547.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -5649,7 +5676,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5666,7 +5693,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5683,7 +5710,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5700,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5717,7 +5744,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5786,7 +5813,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6016,7 +6043,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -6231,7 +6258,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>1349</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -6527,7 +6554,7 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>1296</v>
+        <v>1355</v>
       </c>
       <c r="C2" t="s">
         <v>1302</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91912CDF-7587-4F67-BDFB-DC30C1B57CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C717821-A1FD-4E1B-A2F1-1E9488815983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="SetResetPin" sheetId="18" r:id="rId5"/>
     <sheet name="UpdateUserStatus" sheetId="9" r:id="rId6"/>
     <sheet name="AddAddress" sheetId="10" r:id="rId7"/>
-    <sheet name="PaymentOption" sheetId="11" r:id="rId8"/>
-    <sheet name="Txn_Initiate" sheetId="12" r:id="rId9"/>
-    <sheet name="Txn_Complete" sheetId="13" r:id="rId10"/>
-    <sheet name="SendOTPForPin" sheetId="17" r:id="rId11"/>
-    <sheet name="Current_Spend" sheetId="14" r:id="rId12"/>
-    <sheet name="Validate" sheetId="15" r:id="rId13"/>
-    <sheet name=" UpdateUser" sheetId="5" r:id="rId14"/>
-    <sheet name="Notify" sheetId="16" r:id="rId15"/>
-    <sheet name="RegisterUser" sheetId="6" r:id="rId16"/>
-    <sheet name="Mock_User" sheetId="3" r:id="rId17"/>
-    <sheet name="Get_Details_VPN" sheetId="4" r:id="rId18"/>
+    <sheet name="LTBC1" sheetId="19" r:id="rId8"/>
+    <sheet name="PaymentOption" sheetId="11" r:id="rId9"/>
+    <sheet name="Txn_Initiate" sheetId="12" r:id="rId10"/>
+    <sheet name="Txn_Complete" sheetId="13" r:id="rId11"/>
+    <sheet name="SendOTPForPin" sheetId="17" r:id="rId12"/>
+    <sheet name="Current_Spend" sheetId="14" r:id="rId13"/>
+    <sheet name="Validate" sheetId="15" r:id="rId14"/>
+    <sheet name=" UpdateUser" sheetId="5" r:id="rId15"/>
+    <sheet name="Notify" sheetId="16" r:id="rId16"/>
+    <sheet name="RegisterUser" sheetId="6" r:id="rId17"/>
+    <sheet name="Mock_User" sheetId="3" r:id="rId18"/>
+    <sheet name="Get_Details_VPN" sheetId="4" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="389">
   <si>
     <t>TestCases</t>
   </si>
@@ -683,54 +684,6 @@
     <t>abcghi</t>
   </si>
   <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>IDEP6117886674282SCB</t>
-  </si>
-  <si>
-    <t>BNPL6117889651367354</t>
-  </si>
-  <si>
-    <t>59999427070</t>
-  </si>
-  <si>
-    <t>NNRBUH</t>
-  </si>
-  <si>
-    <t>335577018915074478</t>
-  </si>
-  <si>
-    <t>ICIC82233204551</t>
-  </si>
-  <si>
-    <t>6298897835</t>
-  </si>
-  <si>
-    <t>Drishti</t>
-  </si>
-  <si>
-    <t>RadheParmer29076@example.net</t>
-  </si>
-  <si>
-    <t>1979-04-13</t>
-  </si>
-  <si>
-    <t>935380796934079</t>
-  </si>
-  <si>
-    <t>67f9ed1e3d8a4ce0</t>
-  </si>
-  <si>
-    <t>506482998271398</t>
-  </si>
-  <si>
-    <t>335577016298897835</t>
-  </si>
-  <si>
-    <t>ICIC96605937717</t>
-  </si>
-  <si>
     <t>line1fieldisempty</t>
   </si>
   <si>
@@ -755,358 +708,508 @@
     <t>productnamefieldisempty</t>
   </si>
   <si>
-    <t>9855882128</t>
-  </si>
-  <si>
-    <t>Madhavi</t>
-  </si>
-  <si>
-    <t>RadheshyamSur60966@example.net</t>
-  </si>
-  <si>
-    <t>1973-09-03</t>
-  </si>
-  <si>
-    <t>674805774994732</t>
-  </si>
-  <si>
-    <t>1b198bbceb944fcf</t>
-  </si>
-  <si>
-    <t>002289993200671</t>
-  </si>
-  <si>
-    <t>IDEP71611743867267OB</t>
-  </si>
-  <si>
-    <t>4207575</t>
-  </si>
-  <si>
-    <t>9309236232</t>
-  </si>
-  <si>
-    <t>Hema</t>
-  </si>
-  <si>
-    <t>PeterGobin13580@example.net</t>
-  </si>
-  <si>
-    <t>1975-10-14</t>
-  </si>
-  <si>
-    <t>335916554449937</t>
-  </si>
-  <si>
-    <t>c481d1279c212cda</t>
-  </si>
-  <si>
-    <t>650286002109096</t>
-  </si>
-  <si>
-    <t>IDEP761117883394PWHY</t>
-  </si>
-  <si>
-    <t>4207677.0</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>199</t>
+    <t>ltbc1</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>cibil_user_name</t>
+  </si>
+  <si>
+    <t>is_only_thin_cibil_loan_accounts</t>
+  </si>
+  <si>
+    <t>K3sKqgjdMfFET4s0Me7WwmpuJLLKr0wyWl6SyqviOQE</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ANON716188994866YRZU</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>BNPL1671898784771627</t>
+  </si>
+  <si>
+    <t>59999629305</t>
+  </si>
+  <si>
+    <t>SPSMCU</t>
+  </si>
+  <si>
+    <t>335577017555629449</t>
+  </si>
+  <si>
+    <t>ICIC88652887850</t>
+  </si>
+  <si>
+    <t>9898863287</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>KalyanCherian32621@example.net</t>
+  </si>
+  <si>
+    <t>1988-10-31</t>
+  </si>
+  <si>
+    <t>022025129779279</t>
+  </si>
+  <si>
+    <t>aa6fc32d7dbd54eb</t>
+  </si>
+  <si>
+    <t>940663667810632</t>
+  </si>
+  <si>
+    <t>335577019898863287</t>
+  </si>
+  <si>
+    <t>ICIC96567393193</t>
+  </si>
+  <si>
+    <t>IDEP611789914395Z1YB</t>
+  </si>
+  <si>
+    <t>ghdsd</t>
+  </si>
+  <si>
+    <t>8107623267</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>HimeshBhat25047@example.net</t>
+  </si>
+  <si>
+    <t>1978-10-22</t>
+  </si>
+  <si>
+    <t>101629525905877</t>
+  </si>
+  <si>
+    <t>e046c05a00c05c78</t>
+  </si>
+  <si>
+    <t>670660634885404</t>
+  </si>
+  <si>
+    <t>IDEP117698428687GE1X</t>
+  </si>
+  <si>
+    <t>4208351</t>
+  </si>
+  <si>
+    <t>sunil Chatla</t>
+  </si>
+  <si>
+    <t>4208357.0</t>
+  </si>
+  <si>
+    <t>7860613802</t>
+  </si>
+  <si>
+    <t>Leelawati</t>
+  </si>
+  <si>
+    <t>RashidSwamy19461@example.net</t>
+  </si>
+  <si>
+    <t>1981-06-23</t>
+  </si>
+  <si>
+    <t>625119281169600</t>
+  </si>
+  <si>
+    <t>f5040324f8e95ad7</t>
+  </si>
+  <si>
+    <t>683342429227358</t>
+  </si>
+  <si>
+    <t>IDEP161798861479ZFLP</t>
+  </si>
+  <si>
+    <t>4208361.0</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>161</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>59999430887</t>
-  </si>
-  <si>
-    <t>JDOMDU</t>
-  </si>
-  <si>
-    <t>BNPL7611181139182643</t>
-  </si>
-  <si>
-    <t>59999436170</t>
-  </si>
-  <si>
-    <t>SUPJRJ</t>
-  </si>
-  <si>
-    <t>59999991935</t>
-  </si>
-  <si>
-    <t>AGIEMO</t>
-  </si>
-  <si>
-    <t>59999092542</t>
-  </si>
-  <si>
-    <t>AMKKUT</t>
-  </si>
-  <si>
-    <t>59999650299</t>
-  </si>
-  <si>
-    <t>ANTNNG</t>
-  </si>
-  <si>
-    <t>59999226134</t>
-  </si>
-  <si>
-    <t>ASPUUQ</t>
-  </si>
-  <si>
-    <t>59999551766</t>
-  </si>
-  <si>
-    <t>PMIQML</t>
-  </si>
-  <si>
-    <t>59999837724</t>
-  </si>
-  <si>
-    <t>OEDJRQ</t>
-  </si>
-  <si>
-    <t>59999802786</t>
-  </si>
-  <si>
-    <t>BMEGJP</t>
-  </si>
-  <si>
-    <t>59999588242</t>
-  </si>
-  <si>
-    <t>RGICLG</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>9015093312</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>NareshBera76587@example.net</t>
-  </si>
-  <si>
-    <t>1975-08-12</t>
-  </si>
-  <si>
-    <t>099785640778245</t>
-  </si>
-  <si>
-    <t>2c36e42fde2d3dbe</t>
-  </si>
-  <si>
-    <t>854895129927240</t>
-  </si>
-  <si>
-    <t>335577019015093312</t>
-  </si>
-  <si>
-    <t>ICIC93047969715</t>
-  </si>
-  <si>
-    <t>6828979564</t>
-  </si>
-  <si>
-    <t>Seema</t>
-  </si>
-  <si>
-    <t>SrinivasanSarna84328@example.net</t>
-  </si>
-  <si>
-    <t>1995-11-21</t>
-  </si>
-  <si>
-    <t>523460308083884</t>
-  </si>
-  <si>
-    <t>155b6797f88f7bd9</t>
-  </si>
-  <si>
-    <t>876463891986730</t>
-  </si>
-  <si>
-    <t>335577016828979564</t>
-  </si>
-  <si>
-    <t>ICIC89063958053</t>
-  </si>
-  <si>
-    <t>9897799479</t>
-  </si>
-  <si>
-    <t>Mukti</t>
-  </si>
-  <si>
-    <t>YogeshGandhi35228@example.net</t>
-  </si>
-  <si>
-    <t>1983-07-10</t>
-  </si>
-  <si>
-    <t>281801784186273</t>
-  </si>
-  <si>
-    <t>392b4728ad6fe4ad</t>
-  </si>
-  <si>
-    <t>972826537850234</t>
-  </si>
-  <si>
-    <t>IDEP16171949125693M2</t>
-  </si>
-  <si>
-    <t>4207681.0</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>59999971620</t>
-  </si>
-  <si>
-    <t>CMKOFP</t>
-  </si>
-  <si>
-    <t>BNPL1176198314165327</t>
-  </si>
-  <si>
-    <t>59999439568</t>
-  </si>
-  <si>
-    <t>CITLMD</t>
-  </si>
-  <si>
-    <t>59999143581</t>
-  </si>
-  <si>
-    <t>TTGIMC</t>
-  </si>
-  <si>
-    <t>59999870796</t>
-  </si>
-  <si>
-    <t>QBOKPF</t>
-  </si>
-  <si>
-    <t>59999016159</t>
-  </si>
-  <si>
-    <t>UFAKUJ</t>
-  </si>
-  <si>
-    <t>59999041416</t>
-  </si>
-  <si>
-    <t>ERKIIT</t>
-  </si>
-  <si>
-    <t>59999757377</t>
-  </si>
-  <si>
-    <t>AFCAEE</t>
-  </si>
-  <si>
-    <t>59999550155</t>
-  </si>
-  <si>
-    <t>CDTMKP</t>
-  </si>
-  <si>
-    <t>59999175109</t>
-  </si>
-  <si>
-    <t>EAGCPI</t>
-  </si>
-  <si>
-    <t>59999809073</t>
-  </si>
-  <si>
-    <t>GTBNSB</t>
-  </si>
-  <si>
-    <t>170.0</t>
-  </si>
-  <si>
-    <t>7593169483</t>
-  </si>
-  <si>
-    <t>Munni</t>
-  </si>
-  <si>
-    <t>HrishikeshMangal12248@example.net</t>
-  </si>
-  <si>
-    <t>1974-11-03</t>
-  </si>
-  <si>
-    <t>125487751413831</t>
-  </si>
-  <si>
-    <t>7bca0a4f224b3111</t>
-  </si>
-  <si>
-    <t>267791187908274</t>
-  </si>
-  <si>
-    <t>335577017593169483</t>
-  </si>
-  <si>
-    <t>ICIC92137428196</t>
-  </si>
-  <si>
-    <t>6390368036</t>
-  </si>
-  <si>
-    <t>FaisalPatla60069@example.net</t>
-  </si>
-  <si>
-    <t>1993-10-25</t>
-  </si>
-  <si>
-    <t>688766877147129</t>
-  </si>
-  <si>
-    <t>3e169fd3860b09ad</t>
-  </si>
-  <si>
-    <t>263217487215255</t>
-  </si>
-  <si>
-    <t>335577016390368036</t>
-  </si>
-  <si>
-    <t>ICIC87244448207</t>
+    <t>155</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>59999344307</t>
+  </si>
+  <si>
+    <t>KPORHS</t>
+  </si>
+  <si>
+    <t>BNPL1671912885866753</t>
+  </si>
+  <si>
+    <t>59999223213</t>
+  </si>
+  <si>
+    <t>JIMECQ</t>
+  </si>
+  <si>
+    <t>59999918419</t>
+  </si>
+  <si>
+    <t>AMLJLT</t>
+  </si>
+  <si>
+    <t>59999660984</t>
+  </si>
+  <si>
+    <t>RULOSU</t>
+  </si>
+  <si>
+    <t>59999181674</t>
+  </si>
+  <si>
+    <t>JRLJKQ</t>
+  </si>
+  <si>
+    <t>59999866841</t>
+  </si>
+  <si>
+    <t>QNUJBD</t>
+  </si>
+  <si>
+    <t>59999816311</t>
+  </si>
+  <si>
+    <t>MEHBSO</t>
+  </si>
+  <si>
+    <t>59999507071</t>
+  </si>
+  <si>
+    <t>TEHLON</t>
+  </si>
+  <si>
+    <t>59999449125</t>
+  </si>
+  <si>
+    <t>LETDNE</t>
+  </si>
+  <si>
+    <t>59999019349</t>
+  </si>
+  <si>
+    <t>RBRETL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7057878320</t>
+  </si>
+  <si>
+    <t>Nagma</t>
+  </si>
+  <si>
+    <t>JackPant11087@example.net</t>
+  </si>
+  <si>
+    <t>1989-01-24</t>
+  </si>
+  <si>
+    <t>269469110194738</t>
+  </si>
+  <si>
+    <t>732acedb94d45f0e</t>
+  </si>
+  <si>
+    <t>132092187447436</t>
+  </si>
+  <si>
+    <t>335577017057878320</t>
+  </si>
+  <si>
+    <t>ICIC87405083573</t>
+  </si>
+  <si>
+    <t>8647043528</t>
+  </si>
+  <si>
+    <t>Tanuja</t>
+  </si>
+  <si>
+    <t>TusharBhatti26624@example.net</t>
+  </si>
+  <si>
+    <t>1991-09-30</t>
+  </si>
+  <si>
+    <t>097545142868312</t>
+  </si>
+  <si>
+    <t>8ff30205e7922c9c</t>
+  </si>
+  <si>
+    <t>905722736118766</t>
+  </si>
+  <si>
+    <t>335577018647043528</t>
+  </si>
+  <si>
+    <t>ICIC92540704983</t>
+  </si>
+  <si>
+    <t>IDEP176191258546ET1D</t>
+  </si>
+  <si>
+    <t>8012413677</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>KirtiShetty54652@example.net</t>
+  </si>
+  <si>
+    <t>1971-01-26</t>
+  </si>
+  <si>
+    <t>340167631366784</t>
+  </si>
+  <si>
+    <t>2afd67eac16ef983</t>
+  </si>
+  <si>
+    <t>311215571212727</t>
+  </si>
+  <si>
+    <t>IDEP1167923612889QSW</t>
+  </si>
+  <si>
+    <t>4208365.0</t>
+  </si>
+  <si>
+    <t>4208373.0</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>59999536022</t>
+  </si>
+  <si>
+    <t>UADMNU</t>
+  </si>
+  <si>
+    <t>BNPL7611926889389465</t>
+  </si>
+  <si>
+    <t>59999494796</t>
+  </si>
+  <si>
+    <t>FJJLSU</t>
+  </si>
+  <si>
+    <t>59999779543</t>
+  </si>
+  <si>
+    <t>JAFTCG</t>
+  </si>
+  <si>
+    <t>59999715232</t>
+  </si>
+  <si>
+    <t>AOOSRU</t>
+  </si>
+  <si>
+    <t>59999731247</t>
+  </si>
+  <si>
+    <t>CQGHRO</t>
+  </si>
+  <si>
+    <t>59999674785</t>
+  </si>
+  <si>
+    <t>RRIATQ</t>
+  </si>
+  <si>
+    <t>59999881553</t>
+  </si>
+  <si>
+    <t>DRFCNF</t>
+  </si>
+  <si>
+    <t>59999141069</t>
+  </si>
+  <si>
+    <t>BKQHJU</t>
+  </si>
+  <si>
+    <t>59999003514</t>
+  </si>
+  <si>
+    <t>HRAOFB</t>
+  </si>
+  <si>
+    <t>59999127451</t>
+  </si>
+  <si>
+    <t>NECIJS</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>8475412522</t>
+  </si>
+  <si>
+    <t>Meghana</t>
+  </si>
+  <si>
+    <t>RajDhillon22043@example.net</t>
+  </si>
+  <si>
+    <t>1979-04-02</t>
+  </si>
+  <si>
+    <t>328020053011923</t>
+  </si>
+  <si>
+    <t>60a5f1a1b7b58081</t>
+  </si>
+  <si>
+    <t>381528553477943</t>
+  </si>
+  <si>
+    <t>335577018475412522</t>
+  </si>
+  <si>
+    <t>ICIC94036930985</t>
+  </si>
+  <si>
+    <t>7744365090</t>
+  </si>
+  <si>
+    <t>Chhaya</t>
+  </si>
+  <si>
+    <t>JavedChatterjee79677@example.net</t>
+  </si>
+  <si>
+    <t>1979-07-22</t>
+  </si>
+  <si>
+    <t>136202976991710</t>
+  </si>
+  <si>
+    <t>be667236a16b2cd8</t>
+  </si>
+  <si>
+    <t>315279119777084</t>
+  </si>
+  <si>
+    <t>335577017744365090</t>
+  </si>
+  <si>
+    <t>ICIC84745533905</t>
+  </si>
+  <si>
+    <t>IDEP117692732883QMEZ</t>
+  </si>
+  <si>
+    <t>8240081500</t>
+  </si>
+  <si>
+    <t>Upasana</t>
+  </si>
+  <si>
+    <t>MarloChand49281@example.net</t>
+  </si>
+  <si>
+    <t>1976-06-05</t>
+  </si>
+  <si>
+    <t>673020190265789</t>
+  </si>
+  <si>
+    <t>deca6f7281c33e94</t>
+  </si>
+  <si>
+    <t>851272322864146</t>
+  </si>
+  <si>
+    <t>IDEP716193499313JWU2</t>
+  </si>
+  <si>
+    <t>4208375.0</t>
+  </si>
+  <si>
+    <t>4208381.0</t>
+  </si>
+  <si>
+    <t>9360181607</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>ArvindMukherjee18097@example.net</t>
+  </si>
+  <si>
+    <t>1986-03-25</t>
+  </si>
+  <si>
+    <t>447946256545687</t>
+  </si>
+  <si>
+    <t>fd58bb3c9b5f4e67</t>
+  </si>
+  <si>
+    <t>145948124361490</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1650,6 +1753,384 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="36.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I2" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I3" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I4" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I5" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I6" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBFB319-EEC9-4B0A-9646-A2BEB5F06804}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1680,7 +2161,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -1692,7 +2173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AB3BCF-7CA8-4E9F-8746-89936B0C7C41}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1728,7 +2209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559361BD-BA9C-428F-A47C-66FD7CDE2997}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1777,16 +2258,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -1804,7 +2285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF395B7-127D-43DF-A3A9-58CE0AD107A0}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1889,7 +2370,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -1901,7 +2382,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -1910,7 +2391,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>179.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -1937,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D2E70B-D019-44E2-9FA6-52E79B5BD052}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -2001,13 +2482,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -2257,7 +2738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE394D9-F6FB-4CB0-8101-E4CFBD3A565D}">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -2353,7 +2834,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -2365,7 +2846,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2374,7 +2855,7 @@
         <v>187</v>
       </c>
       <c r="J2" t="n">
-        <v>179.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -2415,7 +2896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -2500,10 +2981,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -2515,7 +2996,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -2524,10 +3005,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4207701.0</v>
+        <v>4208381.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -2545,7 +3026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C068361-DA74-4530-AEC9-BEAC6CED0DA5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2586,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E23167-7707-4CEB-9B82-F2BDAD66188F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2670,7 +3151,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2687,7 +3168,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -2704,7 +3185,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2721,7 +3202,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2738,7 +3219,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -2807,7 +3288,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -3037,7 +3518,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -3252,7 +3733,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -3286,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1840DB2-9B24-4842-931C-3D913F6414D3}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3368,7 +3849,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>118</v>
@@ -3401,7 +3882,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>118</v>
@@ -3434,7 +3915,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>118</v>
@@ -3467,7 +3948,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>118</v>
@@ -3500,7 +3981,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>118</v>
@@ -3533,7 +4014,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>118</v>
@@ -3557,7 +4038,7 @@
         <v>123</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
@@ -3566,7 +4047,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>118</v>
@@ -3604,6 +4085,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFEA8F-3046-4C00-8F54-156307B176BD}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.54296875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2">
+        <v>303</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C49B488-B7A9-4ADF-9017-DAB7ABD94CBB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3640,7 +4183,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -3654,7 +4197,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
@@ -3714,384 +4257,6 @@
       </c>
       <c r="D7" s="8" t="s">
         <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="39.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="36.1796875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I2" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I3" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I4" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I5" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I6" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I8" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="516">
   <si>
     <t>TestCases</t>
   </si>
@@ -1210,6 +1210,387 @@
   </si>
   <si>
     <t>145948124361490</t>
+  </si>
+  <si>
+    <t>8704156532</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>PeterLoyal85757@example.net</t>
+  </si>
+  <si>
+    <t>1982-05-07</t>
+  </si>
+  <si>
+    <t>804320717045918</t>
+  </si>
+  <si>
+    <t>0c1db4b59432eaaa</t>
+  </si>
+  <si>
+    <t>359733047098101</t>
+  </si>
+  <si>
+    <t>IDEP611727757123AH14</t>
+  </si>
+  <si>
+    <t>6918178765</t>
+  </si>
+  <si>
+    <t>Anshu</t>
+  </si>
+  <si>
+    <t>NawabLachman30572@example.net</t>
+  </si>
+  <si>
+    <t>1977-10-20</t>
+  </si>
+  <si>
+    <t>746021877895826</t>
+  </si>
+  <si>
+    <t>db5a8a9cb554b1ba</t>
+  </si>
+  <si>
+    <t>893675608877329</t>
+  </si>
+  <si>
+    <t>IDEP617127916816D431</t>
+  </si>
+  <si>
+    <t>4208551.0</t>
+  </si>
+  <si>
+    <t>7371321529</t>
+  </si>
+  <si>
+    <t>Astha</t>
+  </si>
+  <si>
+    <t>KailashKapoor16375@example.net</t>
+  </si>
+  <si>
+    <t>1994-03-02</t>
+  </si>
+  <si>
+    <t>364932810068860</t>
+  </si>
+  <si>
+    <t>b4a670c1043612e4</t>
+  </si>
+  <si>
+    <t>505263766250355</t>
+  </si>
+  <si>
+    <t>IDEP7116279994999QKN</t>
+  </si>
+  <si>
+    <t>4208553.0</t>
+  </si>
+  <si>
+    <t>9285379621</t>
+  </si>
+  <si>
+    <t>Esha</t>
+  </si>
+  <si>
+    <t>WafaKara29535@example.net</t>
+  </si>
+  <si>
+    <t>1984-07-01</t>
+  </si>
+  <si>
+    <t>622164784380091</t>
+  </si>
+  <si>
+    <t>38f38b2c986906ff</t>
+  </si>
+  <si>
+    <t>902944383143631</t>
+  </si>
+  <si>
+    <t>IDEP6117284432171F9Q</t>
+  </si>
+  <si>
+    <t>4208556.0</t>
+  </si>
+  <si>
+    <t>8249999811</t>
+  </si>
+  <si>
+    <t>Sunita</t>
+  </si>
+  <si>
+    <t>IqbalRavi23279@example.net</t>
+  </si>
+  <si>
+    <t>1991-07-07</t>
+  </si>
+  <si>
+    <t>206573279544744</t>
+  </si>
+  <si>
+    <t>c09ae2edaced8aea</t>
+  </si>
+  <si>
+    <t>052823191928631</t>
+  </si>
+  <si>
+    <t>IDEP671129426814SCDH</t>
+  </si>
+  <si>
+    <t>4208561.0</t>
+  </si>
+  <si>
+    <t>8003619640</t>
+  </si>
+  <si>
+    <t>Riddhi</t>
+  </si>
+  <si>
+    <t>UjwalRaj78285@example.net</t>
+  </si>
+  <si>
+    <t>1977-05-04</t>
+  </si>
+  <si>
+    <t>348631176393182</t>
+  </si>
+  <si>
+    <t>8eb518a14aa9ac21</t>
+  </si>
+  <si>
+    <t>980670936551690</t>
+  </si>
+  <si>
+    <t>IDEP671129671985RQ5K</t>
+  </si>
+  <si>
+    <t>4208572.0</t>
+  </si>
+  <si>
+    <t>6402301990</t>
+  </si>
+  <si>
+    <t>Anshula</t>
+  </si>
+  <si>
+    <t>AnandManda57395@example.net</t>
+  </si>
+  <si>
+    <t>1977-02-06</t>
+  </si>
+  <si>
+    <t>317089748771988</t>
+  </si>
+  <si>
+    <t>ee4c81cc751a5f95</t>
+  </si>
+  <si>
+    <t>284392753338100</t>
+  </si>
+  <si>
+    <t>IDEP716138883186BIQ2</t>
+  </si>
+  <si>
+    <t>4208577.0</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>59999671806</t>
+  </si>
+  <si>
+    <t>RDCPTR</t>
+  </si>
+  <si>
+    <t>BNPL1761384334176347</t>
+  </si>
+  <si>
+    <t>59999770608</t>
+  </si>
+  <si>
+    <t>SLEIMU</t>
+  </si>
+  <si>
+    <t>59999845512</t>
+  </si>
+  <si>
+    <t>HHUBKH</t>
+  </si>
+  <si>
+    <t>59999379310</t>
+  </si>
+  <si>
+    <t>NGPEMQ</t>
+  </si>
+  <si>
+    <t>59999250029</t>
+  </si>
+  <si>
+    <t>TPCPPQ</t>
+  </si>
+  <si>
+    <t>59999102776</t>
+  </si>
+  <si>
+    <t>OAJULA</t>
+  </si>
+  <si>
+    <t>59999582581</t>
+  </si>
+  <si>
+    <t>GFNNQO</t>
+  </si>
+  <si>
+    <t>59999503311</t>
+  </si>
+  <si>
+    <t>NGBNQG</t>
+  </si>
+  <si>
+    <t>59999520224</t>
+  </si>
+  <si>
+    <t>JQBLNR</t>
+  </si>
+  <si>
+    <t>59999673776</t>
+  </si>
+  <si>
+    <t>KGDRIQ</t>
+  </si>
+  <si>
+    <t>8143821925</t>
+  </si>
+  <si>
+    <t>Aarushi</t>
+  </si>
+  <si>
+    <t>ArjunGola58442@example.net</t>
+  </si>
+  <si>
+    <t>1974-06-03</t>
+  </si>
+  <si>
+    <t>299050336787945</t>
+  </si>
+  <si>
+    <t>5791bfd2e8d9e379</t>
+  </si>
+  <si>
+    <t>840557013199511</t>
+  </si>
+  <si>
+    <t>335577018143821925</t>
+  </si>
+  <si>
+    <t>ICIC99825375411</t>
+  </si>
+  <si>
+    <t>9845038779</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>AbdulSomani62295@example.net</t>
+  </si>
+  <si>
+    <t>1980-12-21</t>
+  </si>
+  <si>
+    <t>938091890537828</t>
+  </si>
+  <si>
+    <t>40722a76e790434c</t>
+  </si>
+  <si>
+    <t>165033116164247</t>
+  </si>
+  <si>
+    <t>335577019845038779</t>
+  </si>
+  <si>
+    <t>ICIC84482316209</t>
+  </si>
+  <si>
+    <t>7338545038</t>
+  </si>
+  <si>
+    <t>Devika</t>
+  </si>
+  <si>
+    <t>AbhinavRatti88908@example.net</t>
+  </si>
+  <si>
+    <t>1995-02-08</t>
+  </si>
+  <si>
+    <t>906924276777824</t>
+  </si>
+  <si>
+    <t>a73f51b8fecba384</t>
+  </si>
+  <si>
+    <t>865035289237968</t>
+  </si>
+  <si>
+    <t>7444398773</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>SirishMadan98644@example.net</t>
+  </si>
+  <si>
+    <t>1974-02-22</t>
+  </si>
+  <si>
+    <t>568478078786995</t>
+  </si>
+  <si>
+    <t>5fd480e3a520c57a</t>
+  </si>
+  <si>
+    <t>430100328884760</t>
+  </si>
+  <si>
+    <t>9975238382</t>
+  </si>
+  <si>
+    <t>Kasturi</t>
+  </si>
+  <si>
+    <t>SubhashVala78347@example.net</t>
+  </si>
+  <si>
+    <t>1990-09-18</t>
+  </si>
+  <si>
+    <t>153796597149044</t>
+  </si>
+  <si>
+    <t>c3268816aa67e32b</t>
+  </si>
+  <si>
+    <t>967786096575548</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1809,22 +2190,22 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
       <c r="D2" t="s">
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="F2" t="s">
         <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>351</v>
+        <v>476</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2161,7 +2542,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>458</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -2258,16 +2639,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>514</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2370,7 +2751,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>360</v>
+        <v>484</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -2382,7 +2763,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>361</v>
+        <v>485</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2482,13 +2863,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>383</v>
+        <v>510</v>
       </c>
       <c r="F2" t="s">
-        <v>384</v>
+        <v>511</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>385</v>
+        <v>512</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -2834,7 +3215,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>493</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -2846,7 +3227,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>370</v>
+        <v>494</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2981,10 +3362,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>511</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -2996,7 +3377,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -3005,10 +3386,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4208381.0</v>
+        <v>4208585.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -3151,7 +3532,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3168,7 +3549,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3185,7 +3566,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3202,7 +3583,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3219,7 +3600,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3288,7 +3669,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -3518,7 +3899,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -3733,7 +4114,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>383</v>
+        <v>510</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -4125,7 +4506,7 @@
         <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4183,7 +4564,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -4197,7 +4578,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C717821-A1FD-4E1B-A2F1-1E9488815983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91912CDF-7587-4F67-BDFB-DC30C1B57CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,17 @@
     <sheet name="SetResetPin" sheetId="18" r:id="rId5"/>
     <sheet name="UpdateUserStatus" sheetId="9" r:id="rId6"/>
     <sheet name="AddAddress" sheetId="10" r:id="rId7"/>
-    <sheet name="LTBC1" sheetId="19" r:id="rId8"/>
-    <sheet name="PaymentOption" sheetId="11" r:id="rId9"/>
-    <sheet name="Txn_Initiate" sheetId="12" r:id="rId10"/>
-    <sheet name="Txn_Complete" sheetId="13" r:id="rId11"/>
-    <sheet name="SendOTPForPin" sheetId="17" r:id="rId12"/>
-    <sheet name="Current_Spend" sheetId="14" r:id="rId13"/>
-    <sheet name="Validate" sheetId="15" r:id="rId14"/>
-    <sheet name=" UpdateUser" sheetId="5" r:id="rId15"/>
-    <sheet name="Notify" sheetId="16" r:id="rId16"/>
-    <sheet name="RegisterUser" sheetId="6" r:id="rId17"/>
-    <sheet name="Mock_User" sheetId="3" r:id="rId18"/>
-    <sheet name="Get_Details_VPN" sheetId="4" r:id="rId19"/>
+    <sheet name="PaymentOption" sheetId="11" r:id="rId8"/>
+    <sheet name="Txn_Initiate" sheetId="12" r:id="rId9"/>
+    <sheet name="Txn_Complete" sheetId="13" r:id="rId10"/>
+    <sheet name="SendOTPForPin" sheetId="17" r:id="rId11"/>
+    <sheet name="Current_Spend" sheetId="14" r:id="rId12"/>
+    <sheet name="Validate" sheetId="15" r:id="rId13"/>
+    <sheet name=" UpdateUser" sheetId="5" r:id="rId14"/>
+    <sheet name="Notify" sheetId="16" r:id="rId15"/>
+    <sheet name="RegisterUser" sheetId="6" r:id="rId16"/>
+    <sheet name="Mock_User" sheetId="3" r:id="rId17"/>
+    <sheet name="Get_Details_VPN" sheetId="4" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="348">
   <si>
     <t>TestCases</t>
   </si>
@@ -684,6 +683,54 @@
     <t>abcghi</t>
   </si>
   <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>IDEP6117886674282SCB</t>
+  </si>
+  <si>
+    <t>BNPL6117889651367354</t>
+  </si>
+  <si>
+    <t>59999427070</t>
+  </si>
+  <si>
+    <t>NNRBUH</t>
+  </si>
+  <si>
+    <t>335577018915074478</t>
+  </si>
+  <si>
+    <t>ICIC82233204551</t>
+  </si>
+  <si>
+    <t>6298897835</t>
+  </si>
+  <si>
+    <t>Drishti</t>
+  </si>
+  <si>
+    <t>RadheParmer29076@example.net</t>
+  </si>
+  <si>
+    <t>1979-04-13</t>
+  </si>
+  <si>
+    <t>935380796934079</t>
+  </si>
+  <si>
+    <t>67f9ed1e3d8a4ce0</t>
+  </si>
+  <si>
+    <t>506482998271398</t>
+  </si>
+  <si>
+    <t>335577016298897835</t>
+  </si>
+  <si>
+    <t>ICIC96605937717</t>
+  </si>
+  <si>
     <t>line1fieldisempty</t>
   </si>
   <si>
@@ -708,889 +755,337 @@
     <t>productnamefieldisempty</t>
   </si>
   <si>
-    <t>ltbc1</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>cibil_user_name</t>
-  </si>
-  <si>
-    <t>is_only_thin_cibil_loan_accounts</t>
-  </si>
-  <si>
-    <t>K3sKqgjdMfFET4s0Me7WwmpuJLLKr0wyWl6SyqviOQE</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>ANON716188994866YRZU</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>BNPL1671898784771627</t>
-  </si>
-  <si>
-    <t>59999629305</t>
-  </si>
-  <si>
-    <t>SPSMCU</t>
-  </si>
-  <si>
-    <t>335577017555629449</t>
-  </si>
-  <si>
-    <t>ICIC88652887850</t>
-  </si>
-  <si>
-    <t>9898863287</t>
-  </si>
-  <si>
-    <t>Pushpa</t>
-  </si>
-  <si>
-    <t>KalyanCherian32621@example.net</t>
-  </si>
-  <si>
-    <t>1988-10-31</t>
-  </si>
-  <si>
-    <t>022025129779279</t>
-  </si>
-  <si>
-    <t>aa6fc32d7dbd54eb</t>
-  </si>
-  <si>
-    <t>940663667810632</t>
-  </si>
-  <si>
-    <t>335577019898863287</t>
-  </si>
-  <si>
-    <t>ICIC96567393193</t>
-  </si>
-  <si>
-    <t>IDEP611789914395Z1YB</t>
-  </si>
-  <si>
-    <t>ghdsd</t>
-  </si>
-  <si>
-    <t>8107623267</t>
-  </si>
-  <si>
-    <t>Madhu</t>
-  </si>
-  <si>
-    <t>HimeshBhat25047@example.net</t>
-  </si>
-  <si>
-    <t>1978-10-22</t>
-  </si>
-  <si>
-    <t>101629525905877</t>
-  </si>
-  <si>
-    <t>e046c05a00c05c78</t>
-  </si>
-  <si>
-    <t>670660634885404</t>
-  </si>
-  <si>
-    <t>IDEP117698428687GE1X</t>
-  </si>
-  <si>
-    <t>4208351</t>
-  </si>
-  <si>
-    <t>sunil Chatla</t>
-  </si>
-  <si>
-    <t>4208357.0</t>
-  </si>
-  <si>
-    <t>7860613802</t>
-  </si>
-  <si>
-    <t>Leelawati</t>
-  </si>
-  <si>
-    <t>RashidSwamy19461@example.net</t>
-  </si>
-  <si>
-    <t>1981-06-23</t>
-  </si>
-  <si>
-    <t>625119281169600</t>
-  </si>
-  <si>
-    <t>f5040324f8e95ad7</t>
-  </si>
-  <si>
-    <t>683342429227358</t>
-  </si>
-  <si>
-    <t>IDEP161798861479ZFLP</t>
-  </si>
-  <si>
-    <t>4208361.0</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>59999344307</t>
-  </si>
-  <si>
-    <t>KPORHS</t>
-  </si>
-  <si>
-    <t>BNPL1671912885866753</t>
-  </si>
-  <si>
-    <t>59999223213</t>
-  </si>
-  <si>
-    <t>JIMECQ</t>
-  </si>
-  <si>
-    <t>59999918419</t>
-  </si>
-  <si>
-    <t>AMLJLT</t>
-  </si>
-  <si>
-    <t>59999660984</t>
-  </si>
-  <si>
-    <t>RULOSU</t>
-  </si>
-  <si>
-    <t>59999181674</t>
-  </si>
-  <si>
-    <t>JRLJKQ</t>
-  </si>
-  <si>
-    <t>59999866841</t>
-  </si>
-  <si>
-    <t>QNUJBD</t>
-  </si>
-  <si>
-    <t>59999816311</t>
-  </si>
-  <si>
-    <t>MEHBSO</t>
-  </si>
-  <si>
-    <t>59999507071</t>
-  </si>
-  <si>
-    <t>TEHLON</t>
-  </si>
-  <si>
-    <t>59999449125</t>
-  </si>
-  <si>
-    <t>LETDNE</t>
-  </si>
-  <si>
-    <t>59999019349</t>
-  </si>
-  <si>
-    <t>RBRETL</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7057878320</t>
-  </si>
-  <si>
-    <t>Nagma</t>
-  </si>
-  <si>
-    <t>JackPant11087@example.net</t>
-  </si>
-  <si>
-    <t>1989-01-24</t>
-  </si>
-  <si>
-    <t>269469110194738</t>
-  </si>
-  <si>
-    <t>732acedb94d45f0e</t>
-  </si>
-  <si>
-    <t>132092187447436</t>
-  </si>
-  <si>
-    <t>335577017057878320</t>
-  </si>
-  <si>
-    <t>ICIC87405083573</t>
-  </si>
-  <si>
-    <t>8647043528</t>
-  </si>
-  <si>
-    <t>Tanuja</t>
-  </si>
-  <si>
-    <t>TusharBhatti26624@example.net</t>
-  </si>
-  <si>
-    <t>1991-09-30</t>
-  </si>
-  <si>
-    <t>097545142868312</t>
-  </si>
-  <si>
-    <t>8ff30205e7922c9c</t>
-  </si>
-  <si>
-    <t>905722736118766</t>
-  </si>
-  <si>
-    <t>335577018647043528</t>
-  </si>
-  <si>
-    <t>ICIC92540704983</t>
-  </si>
-  <si>
-    <t>IDEP176191258546ET1D</t>
-  </si>
-  <si>
-    <t>8012413677</t>
-  </si>
-  <si>
-    <t>Aditi</t>
-  </si>
-  <si>
-    <t>KirtiShetty54652@example.net</t>
-  </si>
-  <si>
-    <t>1971-01-26</t>
-  </si>
-  <si>
-    <t>340167631366784</t>
-  </si>
-  <si>
-    <t>2afd67eac16ef983</t>
-  </si>
-  <si>
-    <t>311215571212727</t>
-  </si>
-  <si>
-    <t>IDEP1167923612889QSW</t>
-  </si>
-  <si>
-    <t>4208365.0</t>
-  </si>
-  <si>
-    <t>4208373.0</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>59999536022</t>
-  </si>
-  <si>
-    <t>UADMNU</t>
-  </si>
-  <si>
-    <t>BNPL7611926889389465</t>
-  </si>
-  <si>
-    <t>59999494796</t>
-  </si>
-  <si>
-    <t>FJJLSU</t>
-  </si>
-  <si>
-    <t>59999779543</t>
-  </si>
-  <si>
-    <t>JAFTCG</t>
-  </si>
-  <si>
-    <t>59999715232</t>
-  </si>
-  <si>
-    <t>AOOSRU</t>
-  </si>
-  <si>
-    <t>59999731247</t>
-  </si>
-  <si>
-    <t>CQGHRO</t>
-  </si>
-  <si>
-    <t>59999674785</t>
-  </si>
-  <si>
-    <t>RRIATQ</t>
-  </si>
-  <si>
-    <t>59999881553</t>
-  </si>
-  <si>
-    <t>DRFCNF</t>
-  </si>
-  <si>
-    <t>59999141069</t>
-  </si>
-  <si>
-    <t>BKQHJU</t>
-  </si>
-  <si>
-    <t>59999003514</t>
-  </si>
-  <si>
-    <t>HRAOFB</t>
-  </si>
-  <si>
-    <t>59999127451</t>
-  </si>
-  <si>
-    <t>NECIJS</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>8475412522</t>
-  </si>
-  <si>
-    <t>Meghana</t>
-  </si>
-  <si>
-    <t>RajDhillon22043@example.net</t>
-  </si>
-  <si>
-    <t>1979-04-02</t>
-  </si>
-  <si>
-    <t>328020053011923</t>
-  </si>
-  <si>
-    <t>60a5f1a1b7b58081</t>
-  </si>
-  <si>
-    <t>381528553477943</t>
-  </si>
-  <si>
-    <t>335577018475412522</t>
-  </si>
-  <si>
-    <t>ICIC94036930985</t>
-  </si>
-  <si>
-    <t>7744365090</t>
-  </si>
-  <si>
-    <t>Chhaya</t>
-  </si>
-  <si>
-    <t>JavedChatterjee79677@example.net</t>
-  </si>
-  <si>
-    <t>1979-07-22</t>
-  </si>
-  <si>
-    <t>136202976991710</t>
-  </si>
-  <si>
-    <t>be667236a16b2cd8</t>
-  </si>
-  <si>
-    <t>315279119777084</t>
-  </si>
-  <si>
-    <t>335577017744365090</t>
-  </si>
-  <si>
-    <t>ICIC84745533905</t>
-  </si>
-  <si>
-    <t>IDEP117692732883QMEZ</t>
-  </si>
-  <si>
-    <t>8240081500</t>
+    <t>6005971574</t>
+  </si>
+  <si>
+    <t>Parminder</t>
+  </si>
+  <si>
+    <t>JohnManne28234@example.net</t>
+  </si>
+  <si>
+    <t>1992-05-14</t>
+  </si>
+  <si>
+    <t>958340117493157</t>
+  </si>
+  <si>
+    <t>3b1424d522b95deb</t>
+  </si>
+  <si>
+    <t>797247257570212</t>
+  </si>
+  <si>
+    <t>7766139389</t>
   </si>
   <si>
     <t>Upasana</t>
   </si>
   <si>
-    <t>MarloChand49281@example.net</t>
-  </si>
-  <si>
-    <t>1976-06-05</t>
-  </si>
-  <si>
-    <t>673020190265789</t>
-  </si>
-  <si>
-    <t>deca6f7281c33e94</t>
-  </si>
-  <si>
-    <t>851272322864146</t>
-  </si>
-  <si>
-    <t>IDEP716193499313JWU2</t>
-  </si>
-  <si>
-    <t>4208375.0</t>
-  </si>
-  <si>
-    <t>4208381.0</t>
-  </si>
-  <si>
-    <t>9360181607</t>
-  </si>
-  <si>
-    <t>Priyanka</t>
-  </si>
-  <si>
-    <t>ArvindMukherjee18097@example.net</t>
-  </si>
-  <si>
-    <t>1986-03-25</t>
-  </si>
-  <si>
-    <t>447946256545687</t>
-  </si>
-  <si>
-    <t>fd58bb3c9b5f4e67</t>
-  </si>
-  <si>
-    <t>145948124361490</t>
-  </si>
-  <si>
-    <t>8704156532</t>
+    <t>AnilArya29741@example.net</t>
+  </si>
+  <si>
+    <t>1971-10-15</t>
+  </si>
+  <si>
+    <t>144725346449852</t>
+  </si>
+  <si>
+    <t>5923b10bd1012b46</t>
+  </si>
+  <si>
+    <t>664363163008260</t>
+  </si>
+  <si>
+    <t>8238138574</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>MustafaNori55412@example.net</t>
+  </si>
+  <si>
+    <t>1975-07-18</t>
+  </si>
+  <si>
+    <t>378209099440019</t>
+  </si>
+  <si>
+    <t>5ce29155910adfda</t>
+  </si>
+  <si>
+    <t>892668466982340</t>
+  </si>
+  <si>
+    <t>7433227928</t>
+  </si>
+  <si>
+    <t>Sapna</t>
+  </si>
+  <si>
+    <t>HarbhajanToor53685@example.net</t>
+  </si>
+  <si>
+    <t>1971-06-30</t>
+  </si>
+  <si>
+    <t>896579571950724</t>
+  </si>
+  <si>
+    <t>82fc761a51ac8dd4</t>
+  </si>
+  <si>
+    <t>667014108755641</t>
+  </si>
+  <si>
+    <t>9668021893</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>WafiqBhatnagar89312@example.net</t>
+  </si>
+  <si>
+    <t>1980-02-04</t>
+  </si>
+  <si>
+    <t>824952835289568</t>
+  </si>
+  <si>
+    <t>4e7a29c78778986e</t>
+  </si>
+  <si>
+    <t>931200009004961</t>
+  </si>
+  <si>
+    <t>6141210217</t>
+  </si>
+  <si>
+    <t>Vimala</t>
+  </si>
+  <si>
+    <t>SushantJani75223@example.net</t>
+  </si>
+  <si>
+    <t>1976-01-07</t>
+  </si>
+  <si>
+    <t>194466522501336</t>
+  </si>
+  <si>
+    <t>aa0864aa2f1a9912</t>
+  </si>
+  <si>
+    <t>294792141143831</t>
+  </si>
+  <si>
+    <t>8456523800</t>
+  </si>
+  <si>
+    <t>Rosey</t>
+  </si>
+  <si>
+    <t>CharandeepGarg63125@example.net</t>
+  </si>
+  <si>
+    <t>1986-05-15</t>
+  </si>
+  <si>
+    <t>570772700506227</t>
+  </si>
+  <si>
+    <t>09a194f42f2ff021</t>
+  </si>
+  <si>
+    <t>189664793026911</t>
+  </si>
+  <si>
+    <t>6266349242</t>
+  </si>
+  <si>
+    <t>Kanika</t>
+  </si>
+  <si>
+    <t>KoushtubhSavant70042@example.net</t>
+  </si>
+  <si>
+    <t>1976-03-22</t>
+  </si>
+  <si>
+    <t>964220340812633</t>
+  </si>
+  <si>
+    <t>b76452ef0f01cb12</t>
+  </si>
+  <si>
+    <t>303801649191942</t>
+  </si>
+  <si>
+    <t>8587638069</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>YashHarjo31128@example.net</t>
+  </si>
+  <si>
+    <t>1992-03-10</t>
+  </si>
+  <si>
+    <t>267960576712940</t>
+  </si>
+  <si>
+    <t>13dbd859d5b21cce</t>
+  </si>
+  <si>
+    <t>763057805215990</t>
+  </si>
+  <si>
+    <t>9754796265</t>
+  </si>
+  <si>
+    <t>Aayushi</t>
+  </si>
+  <si>
+    <t>RamBala95846@example.net</t>
+  </si>
+  <si>
+    <t>1984-09-06</t>
+  </si>
+  <si>
+    <t>207061007740858</t>
+  </si>
+  <si>
+    <t>f58478ecd8ab2e7f</t>
+  </si>
+  <si>
+    <t>442569287925614</t>
+  </si>
+  <si>
+    <t>6448011701</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>HimeshSetty89292@example.net</t>
+  </si>
+  <si>
+    <t>1982-07-11</t>
+  </si>
+  <si>
+    <t>160702734544494</t>
+  </si>
+  <si>
+    <t>87bdf7232b25f3c5</t>
+  </si>
+  <si>
+    <t>496469579306802</t>
+  </si>
+  <si>
+    <t>9898257608</t>
+  </si>
+  <si>
+    <t>Richa</t>
+  </si>
+  <si>
+    <t>MohanlalBalay16433@example.net</t>
+  </si>
+  <si>
+    <t>1981-05-23</t>
+  </si>
+  <si>
+    <t>013894520384570</t>
+  </si>
+  <si>
+    <t>c7f0428394b68b0c</t>
+  </si>
+  <si>
+    <t>577733960313517</t>
+  </si>
+  <si>
+    <t>9077445648</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>NavalAhluwalia73037@example.net</t>
+  </si>
+  <si>
+    <t>1977-04-14</t>
+  </si>
+  <si>
+    <t>850211560112553</t>
+  </si>
+  <si>
+    <t>4bcaabce7f9e532d</t>
+  </si>
+  <si>
+    <t>914698358834725</t>
+  </si>
+  <si>
+    <t>9986252385</t>
+  </si>
+  <si>
+    <t>Afreen</t>
+  </si>
+  <si>
+    <t>MotiVerma43798@example.net</t>
+  </si>
+  <si>
+    <t>1981-10-06</t>
+  </si>
+  <si>
+    <t>479438238503266</t>
+  </si>
+  <si>
+    <t>0ab9fc76486fb213</t>
+  </si>
+  <si>
+    <t>798573863558344</t>
+  </si>
+  <si>
+    <t>6853828984</t>
+  </si>
+  <si>
+    <t>IshatBadal30064@example.net</t>
+  </si>
+  <si>
+    <t>1977-11-23</t>
+  </si>
+  <si>
+    <t>510807000618711</t>
+  </si>
+  <si>
+    <t>98d859841a954e5d</t>
+  </si>
+  <si>
+    <t>434352820966290</t>
+  </si>
+  <si>
+    <t>6735777645</t>
   </si>
   <si>
     <t>Krishna</t>
   </si>
   <si>
-    <t>PeterLoyal85757@example.net</t>
-  </si>
-  <si>
-    <t>1982-05-07</t>
-  </si>
-  <si>
-    <t>804320717045918</t>
-  </si>
-  <si>
-    <t>0c1db4b59432eaaa</t>
-  </si>
-  <si>
-    <t>359733047098101</t>
-  </si>
-  <si>
-    <t>IDEP611727757123AH14</t>
-  </si>
-  <si>
-    <t>6918178765</t>
-  </si>
-  <si>
-    <t>Anshu</t>
-  </si>
-  <si>
-    <t>NawabLachman30572@example.net</t>
-  </si>
-  <si>
-    <t>1977-10-20</t>
-  </si>
-  <si>
-    <t>746021877895826</t>
-  </si>
-  <si>
-    <t>db5a8a9cb554b1ba</t>
-  </si>
-  <si>
-    <t>893675608877329</t>
-  </si>
-  <si>
-    <t>IDEP617127916816D431</t>
-  </si>
-  <si>
-    <t>4208551.0</t>
-  </si>
-  <si>
-    <t>7371321529</t>
-  </si>
-  <si>
-    <t>Astha</t>
-  </si>
-  <si>
-    <t>KailashKapoor16375@example.net</t>
-  </si>
-  <si>
-    <t>1994-03-02</t>
-  </si>
-  <si>
-    <t>364932810068860</t>
-  </si>
-  <si>
-    <t>b4a670c1043612e4</t>
-  </si>
-  <si>
-    <t>505263766250355</t>
-  </si>
-  <si>
-    <t>IDEP7116279994999QKN</t>
-  </si>
-  <si>
-    <t>4208553.0</t>
-  </si>
-  <si>
-    <t>9285379621</t>
-  </si>
-  <si>
-    <t>Esha</t>
-  </si>
-  <si>
-    <t>WafaKara29535@example.net</t>
-  </si>
-  <si>
-    <t>1984-07-01</t>
-  </si>
-  <si>
-    <t>622164784380091</t>
-  </si>
-  <si>
-    <t>38f38b2c986906ff</t>
-  </si>
-  <si>
-    <t>902944383143631</t>
-  </si>
-  <si>
-    <t>IDEP6117284432171F9Q</t>
-  </si>
-  <si>
-    <t>4208556.0</t>
-  </si>
-  <si>
-    <t>8249999811</t>
-  </si>
-  <si>
-    <t>Sunita</t>
-  </si>
-  <si>
-    <t>IqbalRavi23279@example.net</t>
-  </si>
-  <si>
-    <t>1991-07-07</t>
-  </si>
-  <si>
-    <t>206573279544744</t>
-  </si>
-  <si>
-    <t>c09ae2edaced8aea</t>
-  </si>
-  <si>
-    <t>052823191928631</t>
-  </si>
-  <si>
-    <t>IDEP671129426814SCDH</t>
-  </si>
-  <si>
-    <t>4208561.0</t>
-  </si>
-  <si>
-    <t>8003619640</t>
-  </si>
-  <si>
-    <t>Riddhi</t>
-  </si>
-  <si>
-    <t>UjwalRaj78285@example.net</t>
-  </si>
-  <si>
-    <t>1977-05-04</t>
-  </si>
-  <si>
-    <t>348631176393182</t>
-  </si>
-  <si>
-    <t>8eb518a14aa9ac21</t>
-  </si>
-  <si>
-    <t>980670936551690</t>
-  </si>
-  <si>
-    <t>IDEP671129671985RQ5K</t>
-  </si>
-  <si>
-    <t>4208572.0</t>
-  </si>
-  <si>
-    <t>6402301990</t>
-  </si>
-  <si>
-    <t>Anshula</t>
-  </si>
-  <si>
-    <t>AnandManda57395@example.net</t>
-  </si>
-  <si>
-    <t>1977-02-06</t>
-  </si>
-  <si>
-    <t>317089748771988</t>
-  </si>
-  <si>
-    <t>ee4c81cc751a5f95</t>
-  </si>
-  <si>
-    <t>284392753338100</t>
-  </si>
-  <si>
-    <t>IDEP716138883186BIQ2</t>
-  </si>
-  <si>
-    <t>4208577.0</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>59999671806</t>
-  </si>
-  <si>
-    <t>RDCPTR</t>
-  </si>
-  <si>
-    <t>BNPL1761384334176347</t>
-  </si>
-  <si>
-    <t>59999770608</t>
-  </si>
-  <si>
-    <t>SLEIMU</t>
-  </si>
-  <si>
-    <t>59999845512</t>
-  </si>
-  <si>
-    <t>HHUBKH</t>
-  </si>
-  <si>
-    <t>59999379310</t>
-  </si>
-  <si>
-    <t>NGPEMQ</t>
-  </si>
-  <si>
-    <t>59999250029</t>
-  </si>
-  <si>
-    <t>TPCPPQ</t>
-  </si>
-  <si>
-    <t>59999102776</t>
-  </si>
-  <si>
-    <t>OAJULA</t>
-  </si>
-  <si>
-    <t>59999582581</t>
-  </si>
-  <si>
-    <t>GFNNQO</t>
-  </si>
-  <si>
-    <t>59999503311</t>
-  </si>
-  <si>
-    <t>NGBNQG</t>
-  </si>
-  <si>
-    <t>59999520224</t>
-  </si>
-  <si>
-    <t>JQBLNR</t>
-  </si>
-  <si>
-    <t>59999673776</t>
-  </si>
-  <si>
-    <t>KGDRIQ</t>
-  </si>
-  <si>
-    <t>8143821925</t>
-  </si>
-  <si>
-    <t>Aarushi</t>
-  </si>
-  <si>
-    <t>ArjunGola58442@example.net</t>
-  </si>
-  <si>
-    <t>1974-06-03</t>
-  </si>
-  <si>
-    <t>299050336787945</t>
-  </si>
-  <si>
-    <t>5791bfd2e8d9e379</t>
-  </si>
-  <si>
-    <t>840557013199511</t>
-  </si>
-  <si>
-    <t>335577018143821925</t>
-  </si>
-  <si>
-    <t>ICIC99825375411</t>
-  </si>
-  <si>
-    <t>9845038779</t>
-  </si>
-  <si>
-    <t>Yamini</t>
-  </si>
-  <si>
-    <t>AbdulSomani62295@example.net</t>
-  </si>
-  <si>
-    <t>1980-12-21</t>
-  </si>
-  <si>
-    <t>938091890537828</t>
-  </si>
-  <si>
-    <t>40722a76e790434c</t>
-  </si>
-  <si>
-    <t>165033116164247</t>
-  </si>
-  <si>
-    <t>335577019845038779</t>
-  </si>
-  <si>
-    <t>ICIC84482316209</t>
-  </si>
-  <si>
-    <t>7338545038</t>
-  </si>
-  <si>
-    <t>Devika</t>
-  </si>
-  <si>
-    <t>AbhinavRatti88908@example.net</t>
-  </si>
-  <si>
-    <t>1995-02-08</t>
-  </si>
-  <si>
-    <t>906924276777824</t>
-  </si>
-  <si>
-    <t>a73f51b8fecba384</t>
-  </si>
-  <si>
-    <t>865035289237968</t>
-  </si>
-  <si>
-    <t>7444398773</t>
-  </si>
-  <si>
-    <t>Preshita</t>
-  </si>
-  <si>
-    <t>SirishMadan98644@example.net</t>
-  </si>
-  <si>
-    <t>1974-02-22</t>
-  </si>
-  <si>
-    <t>568478078786995</t>
-  </si>
-  <si>
-    <t>5fd480e3a520c57a</t>
-  </si>
-  <si>
-    <t>430100328884760</t>
-  </si>
-  <si>
-    <t>9975238382</t>
-  </si>
-  <si>
-    <t>Kasturi</t>
-  </si>
-  <si>
-    <t>SubhashVala78347@example.net</t>
-  </si>
-  <si>
-    <t>1990-09-18</t>
-  </si>
-  <si>
-    <t>153796597149044</t>
-  </si>
-  <si>
-    <t>c3268816aa67e32b</t>
-  </si>
-  <si>
-    <t>967786096575548</t>
+    <t>VijayMukhopadhyay87603@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-05</t>
+  </si>
+  <si>
+    <t>458713549655764</t>
+  </si>
+  <si>
+    <t>c2d3f98121e6b79f</t>
+  </si>
+  <si>
+    <t>156851273640928</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2134,384 +1629,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="39.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="36.1796875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H2" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I2" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I3" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I4" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I5" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I6" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I8" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBFB319-EEC9-4B0A-9646-A2BEB5F06804}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2542,7 +1659,7 @@
         <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>167</v>
@@ -2554,7 +1671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AB3BCF-7CA8-4E9F-8746-89936B0C7C41}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2590,7 +1707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559361BD-BA9C-428F-A47C-66FD7CDE2997}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2639,16 +1756,16 @@
         <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
+        <v>345</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2666,7 +1783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF395B7-127D-43DF-A3A9-58CE0AD107A0}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -2751,7 +1868,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>218</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -2763,7 +1880,7 @@
         <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>485</v>
+        <v>219</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2771,8 +1888,8 @@
       <c r="I2" t="s">
         <v>187</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
+      <c r="J2">
+        <v>123</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2799,7 +1916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D2E70B-D019-44E2-9FA6-52E79B5BD052}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -2863,13 +1980,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>510</v>
+        <v>342</v>
       </c>
       <c r="F2" t="s">
-        <v>511</v>
+        <v>343</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>512</v>
+        <v>344</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>31</v>
@@ -3119,7 +2236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE394D9-F6FB-4CB0-8101-E4CFBD3A565D}">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -3215,7 +2332,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
@@ -3227,7 +2344,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>494</v>
+        <v>228</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3235,8 +2352,8 @@
       <c r="I2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.0</v>
+      <c r="J2">
+        <v>123</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3277,7 +2394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -3362,10 +2479,10 @@
         <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>343</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>69</v>
@@ -3377,7 +2494,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>513</v>
+        <v>345</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>72</v>
@@ -3386,10 +2503,10 @@
         <v>73</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>4208585.0</v>
+        <v>214</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4207575</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>74</v>
@@ -3407,7 +2524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C068361-DA74-4530-AEC9-BEAC6CED0DA5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3448,7 +2565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E23167-7707-4CEB-9B82-F2BDAD66188F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3532,7 +2649,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3549,7 +2666,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3566,7 +2683,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3583,7 +2700,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3600,7 +2717,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3669,7 +2786,7 @@
         <v>82</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>513</v>
+        <v>345</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -3899,7 +3016,7 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>513</v>
+        <v>345</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>72</v>
@@ -4114,7 +3231,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>342</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>109</v>
@@ -4148,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1840DB2-9B24-4842-931C-3D913F6414D3}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4230,7 +3347,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>118</v>
@@ -4263,7 +3380,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>118</v>
@@ -4296,7 +3413,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>118</v>
@@ -4329,7 +3446,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>118</v>
@@ -4362,7 +3479,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>118</v>
@@ -4395,7 +3512,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>118</v>
@@ -4419,7 +3536,7 @@
         <v>123</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
@@ -4428,7 +3545,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>118</v>
@@ -4466,68 +3583,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFEA8F-3046-4C00-8F54-156307B176BD}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="28.54296875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C2">
-        <v>303</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C49B488-B7A9-4ADF-9017-DAB7ABD94CBB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -4564,7 +3619,7 @@
         <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>213</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>132</v>
@@ -4578,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>455</v>
+        <v>213</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>132</v>
@@ -4638,6 +3693,384 @@
       </c>
       <c r="D7" s="8" t="s">
         <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="36.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I2" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I3" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I4" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I5" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I6" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91912CDF-7587-4F67-BDFB-DC30C1B57CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D59381B-A1D7-4E71-98D8-BB5B85A156AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="SetResetPin" sheetId="18" r:id="rId5"/>
     <sheet name="UpdateUserStatus" sheetId="9" r:id="rId6"/>
     <sheet name="AddAddress" sheetId="10" r:id="rId7"/>
-    <sheet name="PaymentOption" sheetId="11" r:id="rId8"/>
-    <sheet name="Txn_Initiate" sheetId="12" r:id="rId9"/>
-    <sheet name="Txn_Complete" sheetId="13" r:id="rId10"/>
-    <sheet name="SendOTPForPin" sheetId="17" r:id="rId11"/>
-    <sheet name="Current_Spend" sheetId="14" r:id="rId12"/>
-    <sheet name="Validate" sheetId="15" r:id="rId13"/>
-    <sheet name=" UpdateUser" sheetId="5" r:id="rId14"/>
-    <sheet name="Notify" sheetId="16" r:id="rId15"/>
-    <sheet name="RegisterUser" sheetId="6" r:id="rId16"/>
-    <sheet name="Mock_User" sheetId="3" r:id="rId17"/>
-    <sheet name="Get_Details_VPN" sheetId="4" r:id="rId18"/>
+    <sheet name="RingPolicy" sheetId="19" r:id="rId8"/>
+    <sheet name="PaymentOption" sheetId="11" r:id="rId9"/>
+    <sheet name="Txn_Initiate" sheetId="12" r:id="rId10"/>
+    <sheet name="Txn_Complete" sheetId="13" r:id="rId11"/>
+    <sheet name="SendOTPForPin" sheetId="17" r:id="rId12"/>
+    <sheet name="Current_Spend" sheetId="14" r:id="rId13"/>
+    <sheet name="Validate" sheetId="15" r:id="rId14"/>
+    <sheet name=" UpdateUser" sheetId="5" r:id="rId15"/>
+    <sheet name="Notify" sheetId="16" r:id="rId16"/>
+    <sheet name="RegisterUser" sheetId="6" r:id="rId17"/>
+    <sheet name="Mock_User" sheetId="3" r:id="rId18"/>
+    <sheet name="Get_Details_VPN" sheetId="4" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="411">
   <si>
     <t>TestCases</t>
   </si>
@@ -104,9 +105,6 @@
     <t>vpa</t>
   </si>
   <si>
-    <t>rpy.ipmerchant1234193162@icici</t>
-  </si>
-  <si>
     <t>get_vpn</t>
   </si>
   <si>
@@ -122,9 +120,6 @@
     <t>dob</t>
   </si>
   <si>
-    <t>merchant_reference_number</t>
-  </si>
-  <si>
     <t>is_native_merchant</t>
   </si>
   <si>
@@ -134,12 +129,6 @@
     <t>first_name</t>
   </si>
   <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>MERT665184239889LQ18</t>
-  </si>
-  <si>
     <t>Nagy</t>
   </si>
   <si>
@@ -209,9 +198,6 @@
     <t>sunil</t>
   </si>
   <si>
-    <t>Lavakumar</t>
-  </si>
-  <si>
     <t>Chatla</t>
   </si>
   <si>
@@ -683,54 +669,6 @@
     <t>abcghi</t>
   </si>
   <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>IDEP6117886674282SCB</t>
-  </si>
-  <si>
-    <t>BNPL6117889651367354</t>
-  </si>
-  <si>
-    <t>59999427070</t>
-  </si>
-  <si>
-    <t>NNRBUH</t>
-  </si>
-  <si>
-    <t>335577018915074478</t>
-  </si>
-  <si>
-    <t>ICIC82233204551</t>
-  </si>
-  <si>
-    <t>6298897835</t>
-  </si>
-  <si>
-    <t>Drishti</t>
-  </si>
-  <si>
-    <t>RadheParmer29076@example.net</t>
-  </si>
-  <si>
-    <t>1979-04-13</t>
-  </si>
-  <si>
-    <t>935380796934079</t>
-  </si>
-  <si>
-    <t>67f9ed1e3d8a4ce0</t>
-  </si>
-  <si>
-    <t>506482998271398</t>
-  </si>
-  <si>
-    <t>335577016298897835</t>
-  </si>
-  <si>
-    <t>ICIC96605937717</t>
-  </si>
-  <si>
     <t>line1fieldisempty</t>
   </si>
   <si>
@@ -755,337 +693,589 @@
     <t>productnamefieldisempty</t>
   </si>
   <si>
-    <t>6005971574</t>
-  </si>
-  <si>
-    <t>Parminder</t>
-  </si>
-  <si>
-    <t>JohnManne28234@example.net</t>
-  </si>
-  <si>
-    <t>1992-05-14</t>
-  </si>
-  <si>
-    <t>958340117493157</t>
-  </si>
-  <si>
-    <t>3b1424d522b95deb</t>
-  </si>
-  <si>
-    <t>797247257570212</t>
-  </si>
-  <si>
-    <t>7766139389</t>
-  </si>
-  <si>
-    <t>Upasana</t>
-  </si>
-  <si>
-    <t>AnilArya29741@example.net</t>
-  </si>
-  <si>
-    <t>1971-10-15</t>
-  </si>
-  <si>
-    <t>144725346449852</t>
-  </si>
-  <si>
-    <t>5923b10bd1012b46</t>
-  </si>
-  <si>
-    <t>664363163008260</t>
-  </si>
-  <si>
-    <t>8238138574</t>
+    <t>ANON176161327881KVMF</t>
+  </si>
+  <si>
+    <t>335577016683592284</t>
+  </si>
+  <si>
+    <t>ICIC84458630119</t>
+  </si>
+  <si>
+    <t>335577019641561728</t>
+  </si>
+  <si>
+    <t>ICIC84317337996</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>cibil_user_name</t>
+  </si>
+  <si>
+    <t>is_only_thin_cibil_loan_accounts</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ltbc1</t>
+  </si>
+  <si>
+    <t>K3sKqgjdMfFET4s0Me7WwmpuJLLKr0wyWl6SyqviOQE</t>
+  </si>
+  <si>
+    <t>bc1</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>59999666433</t>
+  </si>
+  <si>
+    <t>RRGSKC</t>
+  </si>
+  <si>
+    <t>has_tnc_accepted</t>
+  </si>
+  <si>
+    <t>has_ckyc_consent_accepted</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>MotiTata89 676@example.net</t>
+  </si>
+  <si>
+    <t>IDEP161748351931EW2K</t>
+  </si>
+  <si>
+    <t>sunil Chatla</t>
+  </si>
+  <si>
+    <t>8007940655</t>
+  </si>
+  <si>
+    <t>Rosey</t>
+  </si>
+  <si>
+    <t>BinodBal31322@example.net</t>
+  </si>
+  <si>
+    <t>1979-06-06</t>
+  </si>
+  <si>
+    <t>855065779484798</t>
+  </si>
+  <si>
+    <t>f66403e3045819cb</t>
+  </si>
+  <si>
+    <t>540746334219347</t>
+  </si>
+  <si>
+    <t>rpy.ipmerchant1234193158@icici</t>
+  </si>
+  <si>
+    <t>8799063128</t>
+  </si>
+  <si>
+    <t>Geetanjali</t>
+  </si>
+  <si>
+    <t>RashidHalder75127@example.net</t>
+  </si>
+  <si>
+    <t>1984-04-09</t>
+  </si>
+  <si>
+    <t>758909269216657</t>
+  </si>
+  <si>
+    <t>e8268a0a24a78546</t>
+  </si>
+  <si>
+    <t>802628183603982</t>
+  </si>
+  <si>
+    <t>6422015482</t>
+  </si>
+  <si>
+    <t>Prabha</t>
+  </si>
+  <si>
+    <t>UdayBalay27853@example.net</t>
+  </si>
+  <si>
+    <t>1970-09-19</t>
+  </si>
+  <si>
+    <t>271044096976055</t>
+  </si>
+  <si>
+    <t>25e8cb148c788808</t>
+  </si>
+  <si>
+    <t>958670103091288</t>
+  </si>
+  <si>
+    <t>7471565323</t>
+  </si>
+  <si>
+    <t>Leelawati</t>
+  </si>
+  <si>
+    <t>AlexGrewal65841@example.net</t>
+  </si>
+  <si>
+    <t>1985-03-08</t>
+  </si>
+  <si>
+    <t>618424834759215</t>
+  </si>
+  <si>
+    <t>c1c3f405637a86b7</t>
+  </si>
+  <si>
+    <t>222756081196676</t>
+  </si>
+  <si>
+    <t>9889302312</t>
+  </si>
+  <si>
+    <t>Tejaswani</t>
+  </si>
+  <si>
+    <t>TanayKhanna69070@example.net</t>
+  </si>
+  <si>
+    <t>1973-06-19</t>
+  </si>
+  <si>
+    <t>310023484841041</t>
+  </si>
+  <si>
+    <t>3536846a82ca590b</t>
+  </si>
+  <si>
+    <t>692252915991277</t>
+  </si>
+  <si>
+    <t>7171363592</t>
+  </si>
+  <si>
+    <t>Nalini</t>
+  </si>
+  <si>
+    <t>KamleshPanchal79246@example.net</t>
+  </si>
+  <si>
+    <t>1994-07-06</t>
+  </si>
+  <si>
+    <t>761609584647652</t>
+  </si>
+  <si>
+    <t>566a06754ffd0a4a</t>
+  </si>
+  <si>
+    <t>270359463756604</t>
+  </si>
+  <si>
+    <t>8086995149</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>QabeelGopal48671@example.net</t>
+  </si>
+  <si>
+    <t>1970-05-16</t>
+  </si>
+  <si>
+    <t>7781475756</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>AkhilVarghese71939@example.net</t>
+  </si>
+  <si>
+    <t>1986-05-11</t>
+  </si>
+  <si>
+    <t>494259808429810</t>
+  </si>
+  <si>
+    <t>5a00ac308a54a7dd</t>
+  </si>
+  <si>
+    <t>030054978349307</t>
+  </si>
+  <si>
+    <t>8705014260</t>
+  </si>
+  <si>
+    <t>Nitika</t>
+  </si>
+  <si>
+    <t>SaiRaval95057@example.net</t>
+  </si>
+  <si>
+    <t>1983-12-21</t>
+  </si>
+  <si>
+    <t>972695387396428</t>
+  </si>
+  <si>
+    <t>ea8d293166fe5870</t>
+  </si>
+  <si>
+    <t>190000058249137</t>
+  </si>
+  <si>
+    <t>9652239959</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>IqbalYogi28377@example.net</t>
+  </si>
+  <si>
+    <t>1990-12-10</t>
+  </si>
+  <si>
+    <t>294971125754868</t>
+  </si>
+  <si>
+    <t>c76cc06a1517e958</t>
+  </si>
+  <si>
+    <t>386735193338782</t>
+  </si>
+  <si>
+    <t>6150942666</t>
+  </si>
+  <si>
+    <t>Anjana</t>
+  </si>
+  <si>
+    <t>UsmanMehrotra20925@example.net</t>
+  </si>
+  <si>
+    <t>1980-05-24</t>
+  </si>
+  <si>
+    <t>342497542915371</t>
+  </si>
+  <si>
+    <t>e25096dcfa12aa22</t>
+  </si>
+  <si>
+    <t>999965780624315</t>
+  </si>
+  <si>
+    <t>9879131227</t>
+  </si>
+  <si>
+    <t>SidBhardwaj23193@example.net</t>
+  </si>
+  <si>
+    <t>1974-04-26</t>
+  </si>
+  <si>
+    <t>746771123114568</t>
+  </si>
+  <si>
+    <t>68a277d69d0022ac</t>
+  </si>
+  <si>
+    <t>995618258038385</t>
+  </si>
+  <si>
+    <t>9058768434</t>
+  </si>
+  <si>
+    <t>Sameera</t>
+  </si>
+  <si>
+    <t>AjeetMatthai11623@example.net</t>
+  </si>
+  <si>
+    <t>1993-01-12</t>
+  </si>
+  <si>
+    <t>665628600917854</t>
+  </si>
+  <si>
+    <t>87deab2e834ec7cb</t>
+  </si>
+  <si>
+    <t>027041166441975</t>
+  </si>
+  <si>
+    <t>9363722683</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>GauranshRaman62633@example.net</t>
+  </si>
+  <si>
+    <t>1994-03-05</t>
+  </si>
+  <si>
+    <t>006230258074621</t>
+  </si>
+  <si>
+    <t>1aedebcb0a25f128</t>
+  </si>
+  <si>
+    <t>040203137881829</t>
+  </si>
+  <si>
+    <t>8072834482</t>
+  </si>
+  <si>
+    <t>Teena</t>
+  </si>
+  <si>
+    <t>HarpreetPurohit85202@example.net</t>
+  </si>
+  <si>
+    <t>1991-12-16</t>
+  </si>
+  <si>
+    <t>559223069365412</t>
+  </si>
+  <si>
+    <t>e519df0963479651</t>
+  </si>
+  <si>
+    <t>561398028855798</t>
+  </si>
+  <si>
+    <t>9244898624</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>BholaMuni66707@example.net</t>
+  </si>
+  <si>
+    <t>1978-01-10</t>
+  </si>
+  <si>
+    <t>534661893885867</t>
+  </si>
+  <si>
+    <t>ca094b17f344554c</t>
+  </si>
+  <si>
+    <t>573218174753496</t>
+  </si>
+  <si>
+    <t>7231008659</t>
+  </si>
+  <si>
+    <t>Jiya</t>
+  </si>
+  <si>
+    <t>ChitranjanParmar43114@example.net</t>
+  </si>
+  <si>
+    <t>1982-03-08</t>
+  </si>
+  <si>
+    <t>686667943996360</t>
+  </si>
+  <si>
+    <t>062c437a8b6f26ac</t>
+  </si>
+  <si>
+    <t>443829261476573</t>
+  </si>
+  <si>
+    <t>IDEP161758566873ALVI</t>
+  </si>
+  <si>
+    <t>4209141</t>
+  </si>
+  <si>
+    <t>9743920398</t>
+  </si>
+  <si>
+    <t>Namita</t>
+  </si>
+  <si>
+    <t>RahimDutt89254@example.net</t>
+  </si>
+  <si>
+    <t>1990-11-14</t>
+  </si>
+  <si>
+    <t>337248245264279</t>
+  </si>
+  <si>
+    <t>e27fce18021afada</t>
+  </si>
+  <si>
+    <t>234352398788748</t>
+  </si>
+  <si>
+    <t>IDEP6117589536724QJ1</t>
+  </si>
+  <si>
+    <t>4209180.0</t>
+  </si>
+  <si>
+    <t>8570039171</t>
   </si>
   <si>
     <t>Neha</t>
   </si>
   <si>
-    <t>MustafaNori55412@example.net</t>
-  </si>
-  <si>
-    <t>1975-07-18</t>
-  </si>
-  <si>
-    <t>378209099440019</t>
-  </si>
-  <si>
-    <t>5ce29155910adfda</t>
-  </si>
-  <si>
-    <t>892668466982340</t>
-  </si>
-  <si>
-    <t>7433227928</t>
+    <t>RupalBasu14077@example.net</t>
+  </si>
+  <si>
+    <t>1974-02-05</t>
+  </si>
+  <si>
+    <t>516177355390504</t>
+  </si>
+  <si>
+    <t>e5e6c0faad8c163f</t>
+  </si>
+  <si>
+    <t>285623843972071</t>
+  </si>
+  <si>
+    <t>IDEP617154292281Y5W8</t>
+  </si>
+  <si>
+    <t>4209181.0</t>
+  </si>
+  <si>
+    <t>4209182.0</t>
+  </si>
+  <si>
+    <t>6528779795</t>
+  </si>
+  <si>
+    <t>Padmini</t>
+  </si>
+  <si>
+    <t>AmritSalvi19224@example.net</t>
+  </si>
+  <si>
+    <t>1994-11-16</t>
+  </si>
+  <si>
+    <t>303839086592024</t>
+  </si>
+  <si>
+    <t>858d2ea33743e49c</t>
+  </si>
+  <si>
+    <t>947798017244257</t>
+  </si>
+  <si>
+    <t>IDEP117656214788Y15Q</t>
+  </si>
+  <si>
+    <t>4209183.0</t>
+  </si>
+  <si>
+    <t>6095469827</t>
   </si>
   <si>
     <t>Sapna</t>
   </si>
   <si>
-    <t>HarbhajanToor53685@example.net</t>
-  </si>
-  <si>
-    <t>1971-06-30</t>
-  </si>
-  <si>
-    <t>896579571950724</t>
-  </si>
-  <si>
-    <t>82fc761a51ac8dd4</t>
-  </si>
-  <si>
-    <t>667014108755641</t>
-  </si>
-  <si>
-    <t>9668021893</t>
-  </si>
-  <si>
-    <t>Riya</t>
-  </si>
-  <si>
-    <t>WafiqBhatnagar89312@example.net</t>
-  </si>
-  <si>
-    <t>1980-02-04</t>
-  </si>
-  <si>
-    <t>824952835289568</t>
-  </si>
-  <si>
-    <t>4e7a29c78778986e</t>
-  </si>
-  <si>
-    <t>931200009004961</t>
-  </si>
-  <si>
-    <t>6141210217</t>
-  </si>
-  <si>
-    <t>Vimala</t>
-  </si>
-  <si>
-    <t>SushantJani75223@example.net</t>
-  </si>
-  <si>
-    <t>1976-01-07</t>
-  </si>
-  <si>
-    <t>194466522501336</t>
-  </si>
-  <si>
-    <t>aa0864aa2f1a9912</t>
-  </si>
-  <si>
-    <t>294792141143831</t>
-  </si>
-  <si>
-    <t>8456523800</t>
-  </si>
-  <si>
-    <t>Rosey</t>
-  </si>
-  <si>
-    <t>CharandeepGarg63125@example.net</t>
-  </si>
-  <si>
-    <t>1986-05-15</t>
-  </si>
-  <si>
-    <t>570772700506227</t>
-  </si>
-  <si>
-    <t>09a194f42f2ff021</t>
-  </si>
-  <si>
-    <t>189664793026911</t>
-  </si>
-  <si>
-    <t>6266349242</t>
-  </si>
-  <si>
-    <t>Kanika</t>
-  </si>
-  <si>
-    <t>KoushtubhSavant70042@example.net</t>
-  </si>
-  <si>
-    <t>1976-03-22</t>
-  </si>
-  <si>
-    <t>964220340812633</t>
-  </si>
-  <si>
-    <t>b76452ef0f01cb12</t>
-  </si>
-  <si>
-    <t>303801649191942</t>
-  </si>
-  <si>
-    <t>8587638069</t>
-  </si>
-  <si>
-    <t>Mukti</t>
-  </si>
-  <si>
-    <t>YashHarjo31128@example.net</t>
-  </si>
-  <si>
-    <t>1992-03-10</t>
-  </si>
-  <si>
-    <t>267960576712940</t>
-  </si>
-  <si>
-    <t>13dbd859d5b21cce</t>
-  </si>
-  <si>
-    <t>763057805215990</t>
-  </si>
-  <si>
-    <t>9754796265</t>
-  </si>
-  <si>
-    <t>Aayushi</t>
-  </si>
-  <si>
-    <t>RamBala95846@example.net</t>
-  </si>
-  <si>
-    <t>1984-09-06</t>
-  </si>
-  <si>
-    <t>207061007740858</t>
-  </si>
-  <si>
-    <t>f58478ecd8ab2e7f</t>
-  </si>
-  <si>
-    <t>442569287925614</t>
-  </si>
-  <si>
-    <t>6448011701</t>
-  </si>
-  <si>
-    <t>Jasmin</t>
-  </si>
-  <si>
-    <t>HimeshSetty89292@example.net</t>
-  </si>
-  <si>
-    <t>1982-07-11</t>
-  </si>
-  <si>
-    <t>160702734544494</t>
-  </si>
-  <si>
-    <t>87bdf7232b25f3c5</t>
-  </si>
-  <si>
-    <t>496469579306802</t>
-  </si>
-  <si>
-    <t>9898257608</t>
-  </si>
-  <si>
-    <t>Richa</t>
-  </si>
-  <si>
-    <t>MohanlalBalay16433@example.net</t>
-  </si>
-  <si>
-    <t>1981-05-23</t>
-  </si>
-  <si>
-    <t>013894520384570</t>
-  </si>
-  <si>
-    <t>c7f0428394b68b0c</t>
-  </si>
-  <si>
-    <t>577733960313517</t>
-  </si>
-  <si>
-    <t>9077445648</t>
-  </si>
-  <si>
-    <t>Preshita</t>
-  </si>
-  <si>
-    <t>NavalAhluwalia73037@example.net</t>
-  </si>
-  <si>
-    <t>1977-04-14</t>
-  </si>
-  <si>
-    <t>850211560112553</t>
-  </si>
-  <si>
-    <t>4bcaabce7f9e532d</t>
-  </si>
-  <si>
-    <t>914698358834725</t>
-  </si>
-  <si>
-    <t>9986252385</t>
-  </si>
-  <si>
-    <t>Afreen</t>
-  </si>
-  <si>
-    <t>MotiVerma43798@example.net</t>
-  </si>
-  <si>
-    <t>1981-10-06</t>
-  </si>
-  <si>
-    <t>479438238503266</t>
-  </si>
-  <si>
-    <t>0ab9fc76486fb213</t>
-  </si>
-  <si>
-    <t>798573863558344</t>
-  </si>
-  <si>
-    <t>6853828984</t>
-  </si>
-  <si>
-    <t>IshatBadal30064@example.net</t>
-  </si>
-  <si>
-    <t>1977-11-23</t>
-  </si>
-  <si>
-    <t>510807000618711</t>
-  </si>
-  <si>
-    <t>98d859841a954e5d</t>
-  </si>
-  <si>
-    <t>434352820966290</t>
-  </si>
-  <si>
-    <t>6735777645</t>
-  </si>
-  <si>
-    <t>Krishna</t>
-  </si>
-  <si>
-    <t>VijayMukhopadhyay87603@example.net</t>
-  </si>
-  <si>
-    <t>1973-03-05</t>
-  </si>
-  <si>
-    <t>458713549655764</t>
-  </si>
-  <si>
-    <t>c2d3f98121e6b79f</t>
-  </si>
-  <si>
-    <t>156851273640928</t>
+    <t>UsmanAtwal19486@example.net</t>
+  </si>
+  <si>
+    <t>1991-06-16</t>
+  </si>
+  <si>
+    <t>161041202999594</t>
+  </si>
+  <si>
+    <t>2b005ea35249c6c4</t>
+  </si>
+  <si>
+    <t>193847057738859</t>
+  </si>
+  <si>
+    <t>9046626053</t>
+  </si>
+  <si>
+    <t>NayanSandhu87909@example.net</t>
+  </si>
+  <si>
+    <t>1986-05-27</t>
+  </si>
+  <si>
+    <t>778919501954128</t>
+  </si>
+  <si>
+    <t>6be1057801a085c6</t>
+  </si>
+  <si>
+    <t>910412944749304</t>
+  </si>
+  <si>
+    <t>9414910481</t>
+  </si>
+  <si>
+    <t>Babita</t>
+  </si>
+  <si>
+    <t>OwaisLuthra59211@example.net</t>
+  </si>
+  <si>
+    <t>1984-03-31</t>
+  </si>
+  <si>
+    <t>304986283965815</t>
+  </si>
+  <si>
+    <t>228ba86f421a5876</t>
+  </si>
+  <si>
+    <t>470240561292569</t>
+  </si>
+  <si>
+    <t>6430261985</t>
+  </si>
+  <si>
+    <t>Aruna</t>
+  </si>
+  <si>
+    <t>SharadBiswas56831@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-06</t>
+  </si>
+  <si>
+    <t>775709685533043</t>
+  </si>
+  <si>
+    <t>ca410c29c55119cc</t>
+  </si>
+  <si>
+    <t>062352525704037</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1263,6 +1453,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1576,12 +1767,12 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1592,7 +1783,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1603,24 +1794,24 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1629,6 +1820,384 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.08984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="36.1796875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I2" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I3" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I4" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I5" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I6" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="2">
+        <v>72.860399999999998</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="2">
+        <v>19.494599999999998</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBFB319-EEC9-4B0A-9646-A2BEB5F06804}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1648,21 +2217,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +2237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AB3BCF-7CA8-4E9F-8746-89936B0C7C41}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1690,15 +2256,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +2273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559361BD-BA9C-428F-A47C-66FD7CDE2997}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1730,22 +2296,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>1</v>
@@ -1753,19 +2319,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -1783,7 +2349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF395B7-127D-43DF-A3A9-58CE0AD107A0}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1815,78 +2381,78 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="L1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="N1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" t="s">
         <v>218</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" t="s">
-        <v>219</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
       </c>
       <c r="I2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J2">
         <v>123</v>
@@ -1895,16 +2461,16 @@
         <v>2541109900110050</v>
       </c>
       <c r="L2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1916,36 +2482,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D2E70B-D019-44E2-9FA6-52E79B5BD052}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="35.26953125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="18.7265625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.90625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.90625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.90625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>22</v>
@@ -1957,286 +2524,317 @@
         <v>24</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
+      <c r="G10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{1371E9D8-7DF8-49C3-908E-FB0F384ACE62}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{3CC06D27-3D54-4EC4-B701-18D4A7AF966B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE394D9-F6FB-4CB0-8101-E4CFBD3A565D}">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -2270,87 +2868,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="L1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>184</v>
-      </c>
       <c r="Q1" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J2">
         <v>123</v>
@@ -2359,22 +2957,22 @@
         <v>4191140005171</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R2" s="2">
         <v>5881300001186</v>
@@ -2385,7 +2983,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2394,11 +2992,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2423,93 +3021,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>4209183.0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" s="2">
-        <v>4207575</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="O2" s="14">
         <v>49</v>
@@ -2524,7 +3122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C068361-DA74-4530-AEC9-BEAC6CED0DA5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2565,12 +3163,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E23167-7707-4CEB-9B82-F2BDAD66188F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2591,10 +3189,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -2649,7 +3247,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2666,7 +3264,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -2683,7 +3281,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -2700,7 +3298,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2717,7 +3315,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -2754,39 +3352,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -2797,19 +3395,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16">
@@ -2818,19 +3416,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F4" s="16">
         <v>18.939800000000002</v>
@@ -2839,17 +3437,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" s="16">
         <v>18.939800000000002</v>
@@ -2860,17 +3458,17 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F6" s="16">
         <v>18.939800000000002</v>
@@ -2881,17 +3479,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F7" s="16">
         <v>18.939800000000002</v>
@@ -2902,41 +3500,41 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="F9" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G9" s="16">
         <v>72.835400000000007</v>
@@ -2972,39 +3570,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2" s="18">
         <v>18.939800000000002</v>
@@ -3013,27 +3611,27 @@
         <v>72.835400000000007</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" s="18">
         <v>18.939800000000002</v>
@@ -3042,27 +3640,27 @@
         <v>72.835400000000007</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="18">
         <v>18.939800000000002</v>
@@ -3071,27 +3669,27 @@
         <v>72.835400000000007</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="18">
         <v>18.939800000000002</v>
@@ -3100,13 +3698,13 @@
         <v>72.835400000000007</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I5" s="18"/>
     </row>
@@ -3135,33 +3733,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C2" s="14">
         <v>888888</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3196,63 +3794,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3265,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1840DB2-9B24-4842-931C-3D913F6414D3}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3282,298 +3880,298 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F2" s="20">
         <v>224123</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F3" s="20">
         <v>224123</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F5" s="20">
         <v>224123</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F6" s="20">
         <v>224123</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F7" s="20">
         <v>224123</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F8" s="20">
         <v>224123</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F9" s="20">
         <v>224123</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3583,6 +4181,88 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F3E5C7-A046-42D4-AD6A-3A3C6FA9F5A7}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="46.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.54296875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3">
+        <v>563</v>
+      </c>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C49B488-B7A9-4ADF-9017-DAB7ABD94CBB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3602,475 +4282,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C5">
         <v>67</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C6">
         <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C7">
         <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="39.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.90625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.08984375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="36.1796875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I2" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I3" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I4" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I5" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I6" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I8" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="2">
-        <v>72.860399999999998</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="2">
-        <v>19.494599999999998</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D59381B-A1D7-4E71-98D8-BB5B85A156AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB765A-1F37-45F8-ACED-098BBBD1FAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,12 @@
     <sheet name="Current_Spend" sheetId="14" r:id="rId13"/>
     <sheet name="Validate" sheetId="15" r:id="rId14"/>
     <sheet name=" UpdateUser" sheetId="5" r:id="rId15"/>
-    <sheet name="Notify" sheetId="16" r:id="rId16"/>
-    <sheet name="RegisterUser" sheetId="6" r:id="rId17"/>
-    <sheet name="Mock_User" sheetId="3" r:id="rId18"/>
-    <sheet name="Get_Details_VPN" sheetId="4" r:id="rId19"/>
+    <sheet name="MerchantQRCode_UpdateUser" sheetId="20" r:id="rId16"/>
+    <sheet name="PromoCode_UpdateUser" sheetId="21" r:id="rId17"/>
+    <sheet name="Notify" sheetId="16" r:id="rId18"/>
+    <sheet name="RegisterUser" sheetId="6" r:id="rId19"/>
+    <sheet name="Mock_User" sheetId="3" r:id="rId20"/>
+    <sheet name="Get_Details_VPN" sheetId="4" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="299">
   <si>
     <t>TestCases</t>
   </si>
@@ -696,18 +698,6 @@
     <t>ANON176161327881KVMF</t>
   </si>
   <si>
-    <t>335577016683592284</t>
-  </si>
-  <si>
-    <t>ICIC84458630119</t>
-  </si>
-  <si>
-    <t>335577019641561728</t>
-  </si>
-  <si>
-    <t>ICIC84317337996</t>
-  </si>
-  <si>
     <t>score</t>
   </si>
   <si>
@@ -729,15 +719,6 @@
     <t>bc1</t>
   </si>
   <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>59999666433</t>
-  </si>
-  <si>
-    <t>RRGSKC</t>
-  </si>
-  <si>
     <t>has_tnc_accepted</t>
   </si>
   <si>
@@ -753,529 +734,214 @@
     <t>MotiTata89 676@example.net</t>
   </si>
   <si>
-    <t>IDEP161748351931EW2K</t>
+    <t>rpy.ipmerchant1234193158@icici</t>
+  </si>
+  <si>
+    <t>bc2</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>l3</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>BNPL1167917788442845</t>
+  </si>
+  <si>
+    <t>59999694630</t>
+  </si>
+  <si>
+    <t>TOKDPN</t>
+  </si>
+  <si>
+    <t>335577018117837061</t>
+  </si>
+  <si>
+    <t>ICIC92310413829</t>
+  </si>
+  <si>
+    <t>335577016761837764</t>
+  </si>
+  <si>
+    <t>ICIC80031092164</t>
+  </si>
+  <si>
+    <t>merchant_reference_number</t>
+  </si>
+  <si>
+    <t>MERT365187966172J62P</t>
+  </si>
+  <si>
+    <t>Aastha</t>
+  </si>
+  <si>
+    <t>YadunandanNawal79319@example.net</t>
+  </si>
+  <si>
+    <t>1976-07-26</t>
+  </si>
+  <si>
+    <t>promo_code_reference_number</t>
+  </si>
+  <si>
+    <t>7869202056</t>
+  </si>
+  <si>
+    <t>Pinky</t>
+  </si>
+  <si>
+    <t>JamshedModi19162@example.net</t>
+  </si>
+  <si>
+    <t>1989-10-21</t>
+  </si>
+  <si>
+    <t>249085235792035</t>
+  </si>
+  <si>
+    <t>e317df31663bd383</t>
+  </si>
+  <si>
+    <t>182604450875793</t>
+  </si>
+  <si>
+    <t>IDEP171673328796Q5UI</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>4210300</t>
   </si>
   <si>
     <t>sunil Chatla</t>
   </si>
   <si>
-    <t>8007940655</t>
-  </si>
-  <si>
-    <t>Rosey</t>
-  </si>
-  <si>
-    <t>BinodBal31322@example.net</t>
-  </si>
-  <si>
-    <t>1979-06-06</t>
-  </si>
-  <si>
-    <t>855065779484798</t>
-  </si>
-  <si>
-    <t>f66403e3045819cb</t>
-  </si>
-  <si>
-    <t>540746334219347</t>
-  </si>
-  <si>
-    <t>rpy.ipmerchant1234193158@icici</t>
-  </si>
-  <si>
-    <t>8799063128</t>
-  </si>
-  <si>
-    <t>Geetanjali</t>
-  </si>
-  <si>
-    <t>RashidHalder75127@example.net</t>
-  </si>
-  <si>
-    <t>1984-04-09</t>
-  </si>
-  <si>
-    <t>758909269216657</t>
-  </si>
-  <si>
-    <t>e8268a0a24a78546</t>
-  </si>
-  <si>
-    <t>802628183603982</t>
-  </si>
-  <si>
-    <t>6422015482</t>
-  </si>
-  <si>
-    <t>Prabha</t>
-  </si>
-  <si>
-    <t>UdayBalay27853@example.net</t>
-  </si>
-  <si>
-    <t>1970-09-19</t>
-  </si>
-  <si>
-    <t>271044096976055</t>
-  </si>
-  <si>
-    <t>25e8cb148c788808</t>
-  </si>
-  <si>
-    <t>958670103091288</t>
-  </si>
-  <si>
-    <t>7471565323</t>
-  </si>
-  <si>
-    <t>Leelawati</t>
-  </si>
-  <si>
-    <t>AlexGrewal65841@example.net</t>
-  </si>
-  <si>
-    <t>1985-03-08</t>
-  </si>
-  <si>
-    <t>618424834759215</t>
-  </si>
-  <si>
-    <t>c1c3f405637a86b7</t>
-  </si>
-  <si>
-    <t>222756081196676</t>
-  </si>
-  <si>
-    <t>9889302312</t>
-  </si>
-  <si>
-    <t>Tejaswani</t>
-  </si>
-  <si>
-    <t>TanayKhanna69070@example.net</t>
-  </si>
-  <si>
-    <t>1973-06-19</t>
-  </si>
-  <si>
-    <t>310023484841041</t>
-  </si>
-  <si>
-    <t>3536846a82ca590b</t>
-  </si>
-  <si>
-    <t>692252915991277</t>
-  </si>
-  <si>
-    <t>7171363592</t>
-  </si>
-  <si>
-    <t>Nalini</t>
-  </si>
-  <si>
-    <t>KamleshPanchal79246@example.net</t>
-  </si>
-  <si>
-    <t>1994-07-06</t>
-  </si>
-  <si>
-    <t>761609584647652</t>
-  </si>
-  <si>
-    <t>566a06754ffd0a4a</t>
-  </si>
-  <si>
-    <t>270359463756604</t>
-  </si>
-  <si>
-    <t>8086995149</t>
-  </si>
-  <si>
-    <t>Pushpa</t>
-  </si>
-  <si>
-    <t>QabeelGopal48671@example.net</t>
-  </si>
-  <si>
-    <t>1970-05-16</t>
-  </si>
-  <si>
-    <t>7781475756</t>
-  </si>
-  <si>
-    <t>Nikita</t>
-  </si>
-  <si>
-    <t>AkhilVarghese71939@example.net</t>
-  </si>
-  <si>
-    <t>1986-05-11</t>
-  </si>
-  <si>
-    <t>494259808429810</t>
-  </si>
-  <si>
-    <t>5a00ac308a54a7dd</t>
-  </si>
-  <si>
-    <t>030054978349307</t>
-  </si>
-  <si>
-    <t>8705014260</t>
-  </si>
-  <si>
-    <t>Nitika</t>
-  </si>
-  <si>
-    <t>SaiRaval95057@example.net</t>
-  </si>
-  <si>
-    <t>1983-12-21</t>
-  </si>
-  <si>
-    <t>972695387396428</t>
-  </si>
-  <si>
-    <t>ea8d293166fe5870</t>
-  </si>
-  <si>
-    <t>190000058249137</t>
-  </si>
-  <si>
-    <t>9652239959</t>
-  </si>
-  <si>
-    <t>Aditi</t>
-  </si>
-  <si>
-    <t>IqbalYogi28377@example.net</t>
-  </si>
-  <si>
-    <t>1990-12-10</t>
-  </si>
-  <si>
-    <t>294971125754868</t>
-  </si>
-  <si>
-    <t>c76cc06a1517e958</t>
-  </si>
-  <si>
-    <t>386735193338782</t>
-  </si>
-  <si>
-    <t>6150942666</t>
-  </si>
-  <si>
-    <t>Anjana</t>
-  </si>
-  <si>
-    <t>UsmanMehrotra20925@example.net</t>
-  </si>
-  <si>
-    <t>1980-05-24</t>
-  </si>
-  <si>
-    <t>342497542915371</t>
-  </si>
-  <si>
-    <t>e25096dcfa12aa22</t>
-  </si>
-  <si>
-    <t>999965780624315</t>
-  </si>
-  <si>
-    <t>9879131227</t>
-  </si>
-  <si>
-    <t>SidBhardwaj23193@example.net</t>
-  </si>
-  <si>
-    <t>1974-04-26</t>
-  </si>
-  <si>
-    <t>746771123114568</t>
-  </si>
-  <si>
-    <t>68a277d69d0022ac</t>
-  </si>
-  <si>
-    <t>995618258038385</t>
-  </si>
-  <si>
-    <t>9058768434</t>
-  </si>
-  <si>
-    <t>Sameera</t>
-  </si>
-  <si>
-    <t>AjeetMatthai11623@example.net</t>
-  </si>
-  <si>
-    <t>1993-01-12</t>
-  </si>
-  <si>
-    <t>665628600917854</t>
-  </si>
-  <si>
-    <t>87deab2e834ec7cb</t>
-  </si>
-  <si>
-    <t>027041166441975</t>
-  </si>
-  <si>
-    <t>9363722683</t>
-  </si>
-  <si>
-    <t>Gowri</t>
-  </si>
-  <si>
-    <t>GauranshRaman62633@example.net</t>
-  </si>
-  <si>
-    <t>1994-03-05</t>
-  </si>
-  <si>
-    <t>006230258074621</t>
-  </si>
-  <si>
-    <t>1aedebcb0a25f128</t>
-  </si>
-  <si>
-    <t>040203137881829</t>
-  </si>
-  <si>
-    <t>8072834482</t>
-  </si>
-  <si>
-    <t>Teena</t>
-  </si>
-  <si>
-    <t>HarpreetPurohit85202@example.net</t>
-  </si>
-  <si>
-    <t>1991-12-16</t>
-  </si>
-  <si>
-    <t>559223069365412</t>
-  </si>
-  <si>
-    <t>e519df0963479651</t>
-  </si>
-  <si>
-    <t>561398028855798</t>
-  </si>
-  <si>
-    <t>9244898624</t>
-  </si>
-  <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t>BholaMuni66707@example.net</t>
-  </si>
-  <si>
-    <t>1978-01-10</t>
-  </si>
-  <si>
-    <t>534661893885867</t>
-  </si>
-  <si>
-    <t>ca094b17f344554c</t>
-  </si>
-  <si>
-    <t>573218174753496</t>
-  </si>
-  <si>
-    <t>7231008659</t>
-  </si>
-  <si>
-    <t>Jiya</t>
-  </si>
-  <si>
-    <t>ChitranjanParmar43114@example.net</t>
-  </si>
-  <si>
-    <t>1982-03-08</t>
-  </si>
-  <si>
-    <t>686667943996360</t>
-  </si>
-  <si>
-    <t>062c437a8b6f26ac</t>
-  </si>
-  <si>
-    <t>443829261476573</t>
-  </si>
-  <si>
-    <t>IDEP161758566873ALVI</t>
-  </si>
-  <si>
-    <t>4209141</t>
-  </si>
-  <si>
-    <t>9743920398</t>
-  </si>
-  <si>
-    <t>Namita</t>
-  </si>
-  <si>
-    <t>RahimDutt89254@example.net</t>
-  </si>
-  <si>
-    <t>1990-11-14</t>
-  </si>
-  <si>
-    <t>337248245264279</t>
-  </si>
-  <si>
-    <t>e27fce18021afada</t>
-  </si>
-  <si>
-    <t>234352398788748</t>
-  </si>
-  <si>
-    <t>IDEP6117589536724QJ1</t>
-  </si>
-  <si>
-    <t>4209180.0</t>
-  </si>
-  <si>
-    <t>8570039171</t>
+    <t>8067361145</t>
+  </si>
+  <si>
+    <t>Shanti</t>
+  </si>
+  <si>
+    <t>AatifPandit19673@example.net</t>
+  </si>
+  <si>
+    <t>1985-08-16</t>
+  </si>
+  <si>
+    <t>568930815830056</t>
+  </si>
+  <si>
+    <t>cc7e94c9633dba0b</t>
+  </si>
+  <si>
+    <t>213707933820865</t>
+  </si>
+  <si>
+    <t>IDEP161774258347NYGW</t>
+  </si>
+  <si>
+    <t>4210300.0</t>
+  </si>
+  <si>
+    <t>4210304.0</t>
+  </si>
+  <si>
+    <t>7408323763</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>BinodLanka83617@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-19</t>
+  </si>
+  <si>
+    <t>570830799612056</t>
+  </si>
+  <si>
+    <t>6a3df4d57220f2e1</t>
+  </si>
+  <si>
+    <t>544614897204260</t>
+  </si>
+  <si>
+    <t>IDEP171676127473YLNC</t>
+  </si>
+  <si>
+    <t>4210313.0</t>
+  </si>
+  <si>
+    <t>6377389380</t>
+  </si>
+  <si>
+    <t>Esha</t>
+  </si>
+  <si>
+    <t>EkbalLad22387@example.net</t>
+  </si>
+  <si>
+    <t>1975-01-14</t>
+  </si>
+  <si>
+    <t>677818821248967</t>
+  </si>
+  <si>
+    <t>605bfc878e773af6</t>
+  </si>
+  <si>
+    <t>031005788022335</t>
+  </si>
+  <si>
+    <t>7598295813</t>
   </si>
   <si>
     <t>Neha</t>
   </si>
   <si>
-    <t>RupalBasu14077@example.net</t>
-  </si>
-  <si>
-    <t>1974-02-05</t>
-  </si>
-  <si>
-    <t>516177355390504</t>
-  </si>
-  <si>
-    <t>e5e6c0faad8c163f</t>
-  </si>
-  <si>
-    <t>285623843972071</t>
-  </si>
-  <si>
-    <t>IDEP617154292281Y5W8</t>
-  </si>
-  <si>
-    <t>4209181.0</t>
-  </si>
-  <si>
-    <t>4209182.0</t>
-  </si>
-  <si>
-    <t>6528779795</t>
-  </si>
-  <si>
-    <t>Padmini</t>
-  </si>
-  <si>
-    <t>AmritSalvi19224@example.net</t>
-  </si>
-  <si>
-    <t>1994-11-16</t>
-  </si>
-  <si>
-    <t>303839086592024</t>
-  </si>
-  <si>
-    <t>858d2ea33743e49c</t>
-  </si>
-  <si>
-    <t>947798017244257</t>
-  </si>
-  <si>
-    <t>IDEP117656214788Y15Q</t>
-  </si>
-  <si>
-    <t>4209183.0</t>
-  </si>
-  <si>
-    <t>6095469827</t>
-  </si>
-  <si>
-    <t>Sapna</t>
-  </si>
-  <si>
-    <t>UsmanAtwal19486@example.net</t>
-  </si>
-  <si>
-    <t>1991-06-16</t>
-  </si>
-  <si>
-    <t>161041202999594</t>
-  </si>
-  <si>
-    <t>2b005ea35249c6c4</t>
-  </si>
-  <si>
-    <t>193847057738859</t>
-  </si>
-  <si>
-    <t>9046626053</t>
-  </si>
-  <si>
-    <t>NayanSandhu87909@example.net</t>
-  </si>
-  <si>
-    <t>1986-05-27</t>
-  </si>
-  <si>
-    <t>778919501954128</t>
-  </si>
-  <si>
-    <t>6be1057801a085c6</t>
-  </si>
-  <si>
-    <t>910412944749304</t>
-  </si>
-  <si>
-    <t>9414910481</t>
-  </si>
-  <si>
-    <t>Babita</t>
-  </si>
-  <si>
-    <t>OwaisLuthra59211@example.net</t>
-  </si>
-  <si>
-    <t>1984-03-31</t>
-  </si>
-  <si>
-    <t>304986283965815</t>
-  </si>
-  <si>
-    <t>228ba86f421a5876</t>
-  </si>
-  <si>
-    <t>470240561292569</t>
-  </si>
-  <si>
-    <t>6430261985</t>
-  </si>
-  <si>
-    <t>Aruna</t>
-  </si>
-  <si>
-    <t>SharadBiswas56831@example.net</t>
-  </si>
-  <si>
-    <t>1990-08-06</t>
-  </si>
-  <si>
-    <t>775709685533043</t>
-  </si>
-  <si>
-    <t>ca410c29c55119cc</t>
-  </si>
-  <si>
-    <t>062352525704037</t>
+    <t>ZaadGulati36862@example.net</t>
+  </si>
+  <si>
+    <t>1973-03-01</t>
+  </si>
+  <si>
+    <t>423790212853944</t>
+  </si>
+  <si>
+    <t>c416c33ac35ea044</t>
+  </si>
+  <si>
+    <t>887478553979564</t>
+  </si>
+  <si>
+    <t>8357074685</t>
+  </si>
+  <si>
+    <t>Kamini</t>
+  </si>
+  <si>
+    <t>EhsaanBrahmbhatt82047@example.net</t>
+  </si>
+  <si>
+    <t>1990-05-12</t>
+  </si>
+  <si>
+    <t>125808595342987</t>
+  </si>
+  <si>
+    <t>9f143a60af4495be</t>
+  </si>
+  <si>
+    <t>783568941753518</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1453,7 +1119,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1767,7 +1432,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1876,22 +1541,22 @@
         <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
         <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2202,7 +1867,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2226,6 +1891,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>162</v>
@@ -2322,16 +1990,16 @@
         <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2434,7 +2102,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>180</v>
@@ -2446,7 +2114,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2455,7 +2123,7 @@
         <v>182</v>
       </c>
       <c r="J2">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2487,7 +2155,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2530,10 +2198,10 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2547,25 +2215,25 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>406</v>
+        <v>293</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2588,16 +2256,16 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2620,16 +2288,16 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2652,16 +2320,16 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2684,16 +2352,16 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2716,16 +2384,16 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2748,16 +2416,16 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2780,16 +2448,16 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2806,22 +2474,22 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2835,6 +2503,748 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.453125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE394D9-F6FB-4CB0-8101-E4CFBD3A565D}">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -2930,7 +3340,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>180</v>
@@ -2942,7 +3352,7 @@
         <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2951,7 +3361,7 @@
         <v>182</v>
       </c>
       <c r="J2">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -2992,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -3077,10 +3487,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3092,7 +3502,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3101,10 +3511,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4209183.0</v>
+        <v>4210313.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3119,89 +3529,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C068361-DA74-4530-AEC9-BEAC6CED0DA5}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.08984375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E23167-7707-4CEB-9B82-F2BDAD66188F}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="15.36328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.81640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.453125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{77DF90E2-2D83-419F-BDEE-5D84C45AB657}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3247,7 +3574,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3264,7 +3591,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3281,7 +3608,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3298,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3315,7 +3642,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3327,6 +3654,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C068361-DA74-4530-AEC9-BEAC6CED0DA5}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.08984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E23167-7707-4CEB-9B82-F2BDAD66188F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.81640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.453125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{77DF90E2-2D83-419F-BDEE-5D84C45AB657}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3384,7 +3794,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -3614,7 +4024,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>408</v>
+        <v>296</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -3829,7 +4239,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4182,10 +4592,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F3E5C7-A046-42D4-AD6A-3A3C6FA9F5A7}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4204,56 +4614,136 @@
         <v>58</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="C2">
         <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>222</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="C3">
         <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>222</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4">
+        <v>645</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5">
+        <v>668</v>
+      </c>
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6">
+        <v>725</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7">
+        <v>800</v>
+      </c>
+      <c r="D7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4789,7 @@
         <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>127</v>
@@ -4313,7 +4803,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>127</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB765A-1F37-45F8-ACED-098BBBD1FAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A96AC89-1164-4772-9372-16F615ACD472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="289">
   <si>
     <t>TestCases</t>
   </si>
@@ -695,9 +695,6 @@
     <t>productnamefieldisempty</t>
   </si>
   <si>
-    <t>ANON176161327881KVMF</t>
-  </si>
-  <si>
     <t>score</t>
   </si>
   <si>
@@ -749,30 +746,6 @@
     <t>l3</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>BNPL1167917788442845</t>
-  </si>
-  <si>
-    <t>59999694630</t>
-  </si>
-  <si>
-    <t>TOKDPN</t>
-  </si>
-  <si>
-    <t>335577018117837061</t>
-  </si>
-  <si>
-    <t>ICIC92310413829</t>
-  </si>
-  <si>
-    <t>335577016761837764</t>
-  </si>
-  <si>
-    <t>ICIC80031092164</t>
-  </si>
-  <si>
     <t>merchant_reference_number</t>
   </si>
   <si>
@@ -791,157 +764,154 @@
     <t>promo_code_reference_number</t>
   </si>
   <si>
-    <t>7869202056</t>
-  </si>
-  <si>
-    <t>Pinky</t>
-  </si>
-  <si>
-    <t>JamshedModi19162@example.net</t>
-  </si>
-  <si>
-    <t>1989-10-21</t>
-  </si>
-  <si>
-    <t>249085235792035</t>
-  </si>
-  <si>
-    <t>e317df31663bd383</t>
-  </si>
-  <si>
-    <t>182604450875793</t>
-  </si>
-  <si>
-    <t>IDEP171673328796Q5UI</t>
-  </si>
-  <si>
-    <t>gd</t>
-  </si>
-  <si>
-    <t>4210300</t>
-  </si>
-  <si>
-    <t>sunil Chatla</t>
-  </si>
-  <si>
-    <t>8067361145</t>
-  </si>
-  <si>
-    <t>Shanti</t>
-  </si>
-  <si>
-    <t>AatifPandit19673@example.net</t>
-  </si>
-  <si>
-    <t>1985-08-16</t>
-  </si>
-  <si>
-    <t>568930815830056</t>
-  </si>
-  <si>
-    <t>cc7e94c9633dba0b</t>
-  </si>
-  <si>
-    <t>213707933820865</t>
-  </si>
-  <si>
-    <t>IDEP161774258347NYGW</t>
-  </si>
-  <si>
-    <t>4210300.0</t>
-  </si>
-  <si>
-    <t>4210304.0</t>
-  </si>
-  <si>
-    <t>7408323763</t>
-  </si>
-  <si>
-    <t>Sheetal</t>
-  </si>
-  <si>
-    <t>BinodLanka83617@example.net</t>
-  </si>
-  <si>
-    <t>1975-09-19</t>
-  </si>
-  <si>
-    <t>570830799612056</t>
-  </si>
-  <si>
-    <t>6a3df4d57220f2e1</t>
-  </si>
-  <si>
-    <t>544614897204260</t>
-  </si>
-  <si>
-    <t>IDEP171676127473YLNC</t>
-  </si>
-  <si>
-    <t>4210313.0</t>
-  </si>
-  <si>
-    <t>6377389380</t>
-  </si>
-  <si>
-    <t>Esha</t>
-  </si>
-  <si>
-    <t>EkbalLad22387@example.net</t>
-  </si>
-  <si>
-    <t>1975-01-14</t>
-  </si>
-  <si>
-    <t>677818821248967</t>
-  </si>
-  <si>
-    <t>605bfc878e773af6</t>
-  </si>
-  <si>
-    <t>031005788022335</t>
-  </si>
-  <si>
-    <t>7598295813</t>
-  </si>
-  <si>
-    <t>Neha</t>
-  </si>
-  <si>
-    <t>ZaadGulati36862@example.net</t>
-  </si>
-  <si>
-    <t>1973-03-01</t>
-  </si>
-  <si>
-    <t>423790212853944</t>
-  </si>
-  <si>
-    <t>c416c33ac35ea044</t>
-  </si>
-  <si>
-    <t>887478553979564</t>
-  </si>
-  <si>
-    <t>8357074685</t>
-  </si>
-  <si>
-    <t>Kamini</t>
-  </si>
-  <si>
-    <t>EhsaanBrahmbhatt82047@example.net</t>
-  </si>
-  <si>
-    <t>1990-05-12</t>
-  </si>
-  <si>
-    <t>125808595342987</t>
-  </si>
-  <si>
-    <t>9f143a60af4495be</t>
-  </si>
-  <si>
-    <t>783568941753518</t>
+    <t>segment1</t>
+  </si>
+  <si>
+    <t>Dayanand Bhaskar Putran</t>
+  </si>
+  <si>
+    <t>segment1otp_200</t>
+  </si>
+  <si>
+    <t>segment1_update_user_200</t>
+  </si>
+  <si>
+    <t>Dayanand</t>
+  </si>
+  <si>
+    <t>Putran</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>59999797520</t>
+  </si>
+  <si>
+    <t>FSDHGB</t>
+  </si>
+  <si>
+    <t>335577018700729893</t>
+  </si>
+  <si>
+    <t>ICIC89051640182</t>
+  </si>
+  <si>
+    <t>335577019614726001</t>
+  </si>
+  <si>
+    <t>ICIC83624276645</t>
+  </si>
+  <si>
+    <t>6183999122</t>
+  </si>
+  <si>
+    <t>Heena</t>
+  </si>
+  <si>
+    <t>JamshedIyengar31889@example.net</t>
+  </si>
+  <si>
+    <t>1981-03-20</t>
+  </si>
+  <si>
+    <t>764684191058392</t>
+  </si>
+  <si>
+    <t>7a611f26b4b421c6</t>
+  </si>
+  <si>
+    <t>482565759270555</t>
+  </si>
+  <si>
+    <t>IDEP761248696357L9G4</t>
+  </si>
+  <si>
+    <t>segment1_auth_200</t>
+  </si>
+  <si>
+    <t>8822058800</t>
+  </si>
+  <si>
+    <t>Neela</t>
+  </si>
+  <si>
+    <t>NaseerChawla79914@example.net</t>
+  </si>
+  <si>
+    <t>1973-01-03</t>
+  </si>
+  <si>
+    <t>910998136047556</t>
+  </si>
+  <si>
+    <t>9d48ec6ff5a9302b</t>
+  </si>
+  <si>
+    <t>682058809588984</t>
+  </si>
+  <si>
+    <t>IDEP162749868863Y79R</t>
+  </si>
+  <si>
+    <t>4211718</t>
+  </si>
+  <si>
+    <t>6678760571</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>RehmanSachdev39420@example.net</t>
+  </si>
+  <si>
+    <t>1995-09-26</t>
+  </si>
+  <si>
+    <t>715924867343870</t>
+  </si>
+  <si>
+    <t>f05a9b94e6867976</t>
+  </si>
+  <si>
+    <t>073360136146743</t>
+  </si>
+  <si>
+    <t>IDEP612749155215JFLO</t>
+  </si>
+  <si>
+    <t>4211722.0</t>
+  </si>
+  <si>
+    <t>4211723.0</t>
+  </si>
+  <si>
+    <t>9966222463</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>UmeshRoy30557@example.net</t>
+  </si>
+  <si>
+    <t>1995-02-23</t>
+  </si>
+  <si>
+    <t>910676640994543</t>
+  </si>
+  <si>
+    <t>b139624ac9ee0cd3</t>
+  </si>
+  <si>
+    <t>834495518621820</t>
+  </si>
+  <si>
+    <t>IDEP627151688191RUP6</t>
+  </si>
+  <si>
+    <t>4211739.0</t>
   </si>
 </sst>
 </file>
@@ -1400,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1432,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1477,6 +1447,17 @@
       </c>
       <c r="C6" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>9892189981</v>
       </c>
     </row>
   </sheetData>
@@ -1541,22 +1522,19 @@
         <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -1891,9 +1869,6 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>162</v>
@@ -1990,16 +1965,16 @@
         <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2102,7 +2077,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>180</v>
@@ -2114,7 +2089,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2155,7 +2130,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2198,10 +2173,10 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2215,25 +2190,25 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2256,16 +2231,16 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2288,16 +2263,16 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2320,16 +2295,16 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2352,16 +2327,16 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2384,16 +2359,16 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2416,16 +2391,16 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2448,16 +2423,16 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2474,22 +2449,22 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2504,13 +2479,25 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.81640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.453125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
@@ -2538,13 +2525,13 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2558,28 +2545,28 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2602,19 +2589,19 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2637,19 +2624,19 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2672,19 +2659,19 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2707,19 +2694,19 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2742,19 +2729,19 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2777,19 +2764,19 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -2812,19 +2799,19 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2841,28 +2828,66 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>226</v>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{5E4C0D59-6B54-47A0-9973-C1C5A916D2B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2915,13 +2940,13 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2935,28 +2960,28 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2979,19 +3004,19 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3014,19 +3039,19 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3049,19 +3074,19 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3084,19 +3109,19 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3119,19 +3144,19 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -3154,19 +3179,19 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -3189,19 +3214,19 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3218,25 +3243,25 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3340,7 +3365,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>180</v>
@@ -3352,7 +3377,7 @@
         <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3487,10 +3512,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3502,7 +3527,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3511,10 +3536,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4210313.0</v>
+        <v>4211739.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3534,10 +3559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BBC0A-5573-4F9C-B1FA-FBD30A0E9E0D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3574,7 +3599,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3591,7 +3616,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3608,7 +3633,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3625,7 +3650,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3642,12 +3667,29 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7">
+        <v>888888</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9892189981</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3727,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -3794,7 +3836,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4024,7 +4066,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4239,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4592,17 +4634,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F3E5C7-A046-42D4-AD6A-3A3C6FA9F5A7}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.36328125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="46.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.6328125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="28.54296875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4614,136 +4656,156 @@
         <v>58</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C2">
         <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C3">
         <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C4">
         <v>645</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C5">
         <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C6">
         <v>725</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C7">
         <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8">
+        <v>725</v>
+      </c>
+      <c r="D8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4789,7 +4851,7 @@
         <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>127</v>
@@ -4803,7 +4865,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>127</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A96AC89-1164-4772-9372-16F615ACD472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5F0D9-7052-48C2-950E-2F5BDC1EA82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="SendOTPForPin" sheetId="17" r:id="rId12"/>
     <sheet name="Current_Spend" sheetId="14" r:id="rId13"/>
     <sheet name="Validate" sheetId="15" r:id="rId14"/>
-    <sheet name=" UpdateUser" sheetId="5" r:id="rId15"/>
+    <sheet name="PlayStore_UpdateUser" sheetId="5" r:id="rId15"/>
     <sheet name="MerchantQRCode_UpdateUser" sheetId="20" r:id="rId16"/>
     <sheet name="PromoCode_UpdateUser" sheetId="21" r:id="rId17"/>
     <sheet name="Notify" sheetId="16" r:id="rId18"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="340">
   <si>
     <t>TestCases</t>
   </si>
@@ -428,9 +428,6 @@
     <t>SCAN_AND_PAY</t>
   </si>
   <si>
-    <t>upi://pay?pa=rpy.ipmerchant1234193162@icici&amp;pn=IdeoPay Merchant&amp;cu=INR&amp;tn=Pay To IdeoPay Merchant&amp;tr=ORDER_QR</t>
-  </si>
-  <si>
     <t>reasonfieldempty</t>
   </si>
   <si>
@@ -443,475 +440,631 @@
     <t>qr_codefieldwithinvalidvpa</t>
   </si>
   <si>
+    <t>qr_codefieldwithinvalidcode</t>
+  </si>
+  <si>
+    <t>txn_initiate</t>
+  </si>
+  <si>
+    <t>product_value</t>
+  </si>
+  <si>
+    <t>transaction_type</t>
+  </si>
+  <si>
+    <t>merchant_order_id</t>
+  </si>
+  <si>
+    <t>upi_handle_reference_number</t>
+  </si>
+  <si>
+    <t>sku_description</t>
+  </si>
+  <si>
+    <t>IDEOPAY_APP_SCAN_AND_PAY</t>
+  </si>
+  <si>
+    <t>ANON61667628897768FT</t>
+  </si>
+  <si>
+    <t>IDEP961692153253HPL6</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>59999445696</t>
+  </si>
+  <si>
+    <t>KPREHU</t>
+  </si>
+  <si>
+    <t>productvaluefieldempty</t>
+  </si>
+  <si>
+    <t>productvaluefieldwithalphanumeric_character</t>
+  </si>
+  <si>
+    <t>pay123</t>
+  </si>
+  <si>
+    <t>transactiontypefieldempty</t>
+  </si>
+  <si>
+    <t>transactiontypefieldinvalid</t>
+  </si>
+  <si>
+    <t>PAY</t>
+  </si>
+  <si>
+    <t>merchantorderidfieldempty</t>
+  </si>
+  <si>
+    <t>upihandlereferencenumberfieldempty</t>
+  </si>
+  <si>
+    <t>longitudefieldempty</t>
+  </si>
+  <si>
+    <t>latitudefieldempty</t>
+  </si>
+  <si>
+    <t>latitudeandlongitudefieldempty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>txn_complete</t>
+  </si>
+  <si>
+    <t>transaction_reference_number</t>
+  </si>
+  <si>
+    <t>transaction_pin_hash</t>
+  </si>
+  <si>
+    <t>c2aed5cba564a0dd3efd934a6c42711edd6c046042bf5d39371a654fc2018630</t>
+  </si>
+  <si>
+    <t>current_spend</t>
+  </si>
+  <si>
+    <t>validate</t>
+  </si>
+  <si>
+    <t>customer_code</t>
+  </si>
+  <si>
+    <t>bene_account_no</t>
+  </si>
+  <si>
+    <t>bene_account_ifsc</t>
+  </si>
+  <si>
+    <t>bene_full_name</t>
+  </si>
+  <si>
+    <t>transfer_type</t>
+  </si>
+  <si>
+    <t>transfer_unique_no</t>
+  </si>
+  <si>
+    <t>transfer_timestamp</t>
+  </si>
+  <si>
+    <t>transfer_ccy</t>
+  </si>
+  <si>
+    <t>transfer_amt</t>
+  </si>
+  <si>
+    <t>rmtr_account_no</t>
+  </si>
+  <si>
+    <t>rmtr_account_ifsc</t>
+  </si>
+  <si>
+    <t>rmtr_full_name</t>
+  </si>
+  <si>
+    <t>rmtr_address</t>
+  </si>
+  <si>
+    <t>rmtr_to_bene_note</t>
+  </si>
+  <si>
+    <t>attempt_no</t>
+  </si>
+  <si>
+    <t>YESB0CMSNOC</t>
+  </si>
+  <si>
+    <t>NEFT</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>IBKL0NEFT01</t>
+  </si>
+  <si>
+    <t>AKHENIA NIKUNJ H</t>
+  </si>
+  <si>
+    <t>M S HARI BANSH PRASAD GUPTAGOSAINGANJ LKO</t>
+  </si>
+  <si>
+    <t>ATTN</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>UPI</t>
+  </si>
+  <si>
+    <t>HDFC0000419</t>
+  </si>
+  <si>
+    <t>rmtr_account_type</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>attecredit_acct_nopt_no</t>
+  </si>
+  <si>
+    <t>credited_at</t>
+  </si>
+  <si>
+    <t>SAVINGS</t>
+  </si>
+  <si>
+    <t>AKHENIA NIKUNJ H</t>
+  </si>
+  <si>
+    <t>CREDITED</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>send_otp</t>
+  </si>
+  <si>
+    <t>sendotpforpin</t>
+  </si>
+  <si>
+    <t>pin_hash</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>resetpin</t>
+  </si>
+  <si>
+    <t>set_pin</t>
+  </si>
+  <si>
+    <t>f1242993610053a7bd914c5ebbed6db0128081103c319026e0e4f166dbeabcd3</t>
+  </si>
+  <si>
+    <t>M4HF7O3UUDT09Z27F4JRCMMJQ8SMNKGK</t>
+  </si>
+  <si>
+    <t>alphabetsinafield_400</t>
+  </si>
+  <si>
+    <t>abcghi</t>
+  </si>
+  <si>
+    <t>line1fieldisempty</t>
+  </si>
+  <si>
+    <t>pincodefieldisempty</t>
+  </si>
+  <si>
+    <t>labelfieldisempty</t>
+  </si>
+  <si>
+    <t>tagfieldisempty</t>
+  </si>
+  <si>
+    <t>sourcefieldisempty</t>
+  </si>
+  <si>
+    <t>invalidsourcefield</t>
+  </si>
+  <si>
+    <t>gdhs</t>
+  </si>
+  <si>
+    <t>productnamefieldisempty</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>cibil_user_name</t>
+  </si>
+  <si>
+    <t>is_only_thin_cibil_loan_accounts</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ltbc1</t>
+  </si>
+  <si>
+    <t>K3sKqgjdMfFET4s0Me7WwmpuJLLKr0wyWl6SyqviOQE</t>
+  </si>
+  <si>
+    <t>bc1</t>
+  </si>
+  <si>
+    <t>has_tnc_accepted</t>
+  </si>
+  <si>
+    <t>has_ckyc_consent_accepted</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>MotiTata89 676@example.net</t>
+  </si>
+  <si>
+    <t>rpy.ipmerchant1234193158@icici</t>
+  </si>
+  <si>
+    <t>bc2</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>l3</t>
+  </si>
+  <si>
+    <t>merchant_reference_number</t>
+  </si>
+  <si>
+    <t>MERT365187966172J62P</t>
+  </si>
+  <si>
+    <t>Aastha</t>
+  </si>
+  <si>
+    <t>YadunandanNawal79319@example.net</t>
+  </si>
+  <si>
+    <t>1976-07-26</t>
+  </si>
+  <si>
+    <t>promo_code_reference_number</t>
+  </si>
+  <si>
+    <t>segment1</t>
+  </si>
+  <si>
+    <t>Dayanand Bhaskar Putran</t>
+  </si>
+  <si>
+    <t>segment1otp_200</t>
+  </si>
+  <si>
+    <t>segment1_update_user_200</t>
+  </si>
+  <si>
+    <t>Dayanand</t>
+  </si>
+  <si>
+    <t>Putran</t>
+  </si>
+  <si>
+    <t>segment1_auth_200</t>
+  </si>
+  <si>
+    <t>segment1_registeruser_200</t>
+  </si>
+  <si>
+    <t>upi://pay?pa=rpy.ipmerchant1234191701@icici&amp;pn=IdeoPay Merchant&amp;cu=INR&amp;tn=Pay To IdeoPay Merchant&amp;tr=ORDER_QR</t>
+  </si>
+  <si>
+    <t>ANON621752856818EF8K</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>BNPL2617283918863671</t>
+  </si>
+  <si>
+    <t>59999858185</t>
+  </si>
+  <si>
+    <t>GRSQGT</t>
+  </si>
+  <si>
+    <t>335577016327253292</t>
+  </si>
+  <si>
+    <t>ICIC90657239927</t>
+  </si>
+  <si>
+    <t>335577016863310305</t>
+  </si>
+  <si>
+    <t>ICIC99491180270</t>
+  </si>
+  <si>
+    <t>8311349739</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>BholaGagrani23258@example.net</t>
+  </si>
+  <si>
+    <t>1977-06-16</t>
+  </si>
+  <si>
+    <t>692128771718584</t>
+  </si>
+  <si>
+    <t>06a430b329cb5fc3</t>
+  </si>
+  <si>
+    <t>043492206324517</t>
+  </si>
+  <si>
+    <t>IDEP127621898885LXR3</t>
+  </si>
+  <si>
     <t>upi://pay?pa=rpy.ipmerc@icici&amp;pn=IdeoPay Merchant&amp;cu=INR&amp;tn=Pay To IdeoPay Merchant&amp;tr=ORDER_QR</t>
   </si>
   <si>
     <t>upi://payMerchant&amp;tr=ORDER_QR</t>
   </si>
   <si>
-    <t>qr_codefieldwithinvalidcode</t>
-  </si>
-  <si>
-    <t>txn_initiate</t>
-  </si>
-  <si>
-    <t>product_value</t>
-  </si>
-  <si>
-    <t>transaction_type</t>
-  </si>
-  <si>
-    <t>merchant_order_id</t>
-  </si>
-  <si>
-    <t>upi_handle_reference_number</t>
-  </si>
-  <si>
-    <t>sku_description</t>
-  </si>
-  <si>
-    <t>IDEOPAY_APP_SCAN_AND_PAY</t>
-  </si>
-  <si>
-    <t>ANON61667628897768FT</t>
-  </si>
-  <si>
-    <t>IDEP961692153253HPL6</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>59999445696</t>
-  </si>
-  <si>
-    <t>KPREHU</t>
-  </si>
-  <si>
-    <t>productvaluefieldempty</t>
-  </si>
-  <si>
-    <t>productvaluefieldwithalphanumeric_character</t>
-  </si>
-  <si>
-    <t>pay123</t>
-  </si>
-  <si>
-    <t>transactiontypefieldempty</t>
-  </si>
-  <si>
-    <t>transactiontypefieldinvalid</t>
-  </si>
-  <si>
-    <t>PAY</t>
-  </si>
-  <si>
-    <t>merchantorderidfieldempty</t>
-  </si>
-  <si>
-    <t>upihandlereferencenumberfieldempty</t>
-  </si>
-  <si>
-    <t>longitudefieldempty</t>
-  </si>
-  <si>
-    <t>latitudefieldempty</t>
-  </si>
-  <si>
-    <t>latitudeandlongitudefieldempty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>txn_complete</t>
-  </si>
-  <si>
-    <t>transaction_reference_number</t>
-  </si>
-  <si>
-    <t>transaction_pin_hash</t>
-  </si>
-  <si>
-    <t>c2aed5cba564a0dd3efd934a6c42711edd6c046042bf5d39371a654fc2018630</t>
-  </si>
-  <si>
-    <t>current_spend</t>
-  </si>
-  <si>
-    <t>validate</t>
-  </si>
-  <si>
-    <t>customer_code</t>
-  </si>
-  <si>
-    <t>bene_account_no</t>
-  </si>
-  <si>
-    <t>bene_account_ifsc</t>
-  </si>
-  <si>
-    <t>bene_full_name</t>
-  </si>
-  <si>
-    <t>transfer_type</t>
-  </si>
-  <si>
-    <t>transfer_unique_no</t>
-  </si>
-  <si>
-    <t>transfer_timestamp</t>
-  </si>
-  <si>
-    <t>transfer_ccy</t>
-  </si>
-  <si>
-    <t>transfer_amt</t>
-  </si>
-  <si>
-    <t>rmtr_account_no</t>
-  </si>
-  <si>
-    <t>rmtr_account_ifsc</t>
-  </si>
-  <si>
-    <t>rmtr_full_name</t>
-  </si>
-  <si>
-    <t>rmtr_address</t>
-  </si>
-  <si>
-    <t>rmtr_to_bene_note</t>
-  </si>
-  <si>
-    <t>attempt_no</t>
-  </si>
-  <si>
-    <t>YESB0CMSNOC</t>
-  </si>
-  <si>
-    <t>NEFT</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>IBKL0NEFT01</t>
-  </si>
-  <si>
-    <t>AKHENIA NIKUNJ H</t>
-  </si>
-  <si>
-    <t>M S HARI BANSH PRASAD GUPTAGOSAINGANJ LKO</t>
-  </si>
-  <si>
-    <t>ATTN</t>
-  </si>
-  <si>
-    <t>notify</t>
-  </si>
-  <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t>HDFC0000419</t>
-  </si>
-  <si>
-    <t>rmtr_account_type</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>attecredit_acct_nopt_no</t>
-  </si>
-  <si>
-    <t>credited_at</t>
-  </si>
-  <si>
-    <t>SAVINGS</t>
-  </si>
-  <si>
-    <t>AKHENIA NIKUNJ H</t>
-  </si>
-  <si>
-    <t>CREDITED</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>send_otp</t>
-  </si>
-  <si>
-    <t>sendotpforpin</t>
-  </si>
-  <si>
-    <t>pin_hash</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>resetpin</t>
-  </si>
-  <si>
-    <t>set_pin</t>
-  </si>
-  <si>
-    <t>f1242993610053a7bd914c5ebbed6db0128081103c319026e0e4f166dbeabcd3</t>
-  </si>
-  <si>
-    <t>M4HF7O3UUDT09Z27F4JRCMMJQ8SMNKGK</t>
-  </si>
-  <si>
-    <t>alphabetsinafield_400</t>
-  </si>
-  <si>
-    <t>abcghi</t>
-  </si>
-  <si>
-    <t>line1fieldisempty</t>
-  </si>
-  <si>
-    <t>pincodefieldisempty</t>
-  </si>
-  <si>
-    <t>labelfieldisempty</t>
-  </si>
-  <si>
-    <t>tagfieldisempty</t>
-  </si>
-  <si>
-    <t>sourcefieldisempty</t>
-  </si>
-  <si>
-    <t>invalidsourcefield</t>
-  </si>
-  <si>
-    <t>gdhs</t>
-  </si>
-  <si>
-    <t>productnamefieldisempty</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>cibil_user_name</t>
-  </si>
-  <si>
-    <t>is_only_thin_cibil_loan_accounts</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>ltbc1</t>
-  </si>
-  <si>
-    <t>K3sKqgjdMfFET4s0Me7WwmpuJLLKr0wyWl6SyqviOQE</t>
-  </si>
-  <si>
-    <t>bc1</t>
-  </si>
-  <si>
-    <t>has_tnc_accepted</t>
-  </si>
-  <si>
-    <t>has_ckyc_consent_accepted</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>MotiTata89 676@example.net</t>
-  </si>
-  <si>
-    <t>rpy.ipmerchant1234193158@icici</t>
-  </si>
-  <si>
-    <t>bc2</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l3</t>
-  </si>
-  <si>
-    <t>merchant_reference_number</t>
-  </si>
-  <si>
-    <t>MERT365187966172J62P</t>
-  </si>
-  <si>
-    <t>Aastha</t>
-  </si>
-  <si>
-    <t>YadunandanNawal79319@example.net</t>
-  </si>
-  <si>
-    <t>1976-07-26</t>
-  </si>
-  <si>
-    <t>promo_code_reference_number</t>
-  </si>
-  <si>
-    <t>segment1</t>
-  </si>
-  <si>
-    <t>Dayanand Bhaskar Putran</t>
-  </si>
-  <si>
-    <t>segment1otp_200</t>
-  </si>
-  <si>
-    <t>segment1_update_user_200</t>
-  </si>
-  <si>
-    <t>Dayanand</t>
-  </si>
-  <si>
-    <t>Putran</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>59999797520</t>
-  </si>
-  <si>
-    <t>FSDHGB</t>
-  </si>
-  <si>
-    <t>335577018700729893</t>
-  </si>
-  <si>
-    <t>ICIC89051640182</t>
-  </si>
-  <si>
-    <t>335577019614726001</t>
-  </si>
-  <si>
-    <t>ICIC83624276645</t>
-  </si>
-  <si>
-    <t>6183999122</t>
-  </si>
-  <si>
-    <t>Heena</t>
-  </si>
-  <si>
-    <t>JamshedIyengar31889@example.net</t>
-  </si>
-  <si>
-    <t>1981-03-20</t>
-  </si>
-  <si>
-    <t>764684191058392</t>
-  </si>
-  <si>
-    <t>7a611f26b4b421c6</t>
-  </si>
-  <si>
-    <t>482565759270555</t>
-  </si>
-  <si>
-    <t>IDEP761248696357L9G4</t>
-  </si>
-  <si>
-    <t>segment1_auth_200</t>
-  </si>
-  <si>
-    <t>8822058800</t>
-  </si>
-  <si>
-    <t>Neela</t>
-  </si>
-  <si>
-    <t>NaseerChawla79914@example.net</t>
-  </si>
-  <si>
-    <t>1973-01-03</t>
-  </si>
-  <si>
-    <t>910998136047556</t>
-  </si>
-  <si>
-    <t>9d48ec6ff5a9302b</t>
-  </si>
-  <si>
-    <t>682058809588984</t>
-  </si>
-  <si>
-    <t>IDEP162749868863Y79R</t>
-  </si>
-  <si>
-    <t>4211718</t>
-  </si>
-  <si>
-    <t>6678760571</t>
-  </si>
-  <si>
-    <t>Mini</t>
-  </si>
-  <si>
-    <t>RehmanSachdev39420@example.net</t>
-  </si>
-  <si>
-    <t>1995-09-26</t>
-  </si>
-  <si>
-    <t>715924867343870</t>
-  </si>
-  <si>
-    <t>f05a9b94e6867976</t>
-  </si>
-  <si>
-    <t>073360136146743</t>
-  </si>
-  <si>
-    <t>IDEP612749155215JFLO</t>
-  </si>
-  <si>
-    <t>4211722.0</t>
-  </si>
-  <si>
-    <t>4211723.0</t>
-  </si>
-  <si>
-    <t>9966222463</t>
-  </si>
-  <si>
-    <t>Mona</t>
-  </si>
-  <si>
-    <t>UmeshRoy30557@example.net</t>
-  </si>
-  <si>
-    <t>1995-02-23</t>
-  </si>
-  <si>
-    <t>910676640994543</t>
-  </si>
-  <si>
-    <t>b139624ac9ee0cd3</t>
-  </si>
-  <si>
-    <t>834495518621820</t>
-  </si>
-  <si>
-    <t>IDEP627151688191RUP6</t>
-  </si>
-  <si>
-    <t>4211739.0</t>
+    <t>8823475513</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>IshatParikh68819@example.net</t>
+  </si>
+  <si>
+    <t>1994-02-16</t>
+  </si>
+  <si>
+    <t>554315212403465</t>
+  </si>
+  <si>
+    <t>f10f7d5c6094954b</t>
+  </si>
+  <si>
+    <t>022407511789779</t>
+  </si>
+  <si>
+    <t>IDEP2671327881684URI</t>
+  </si>
+  <si>
+    <t>4212484</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>59999050487</t>
+  </si>
+  <si>
+    <t>FLBQGR</t>
+  </si>
+  <si>
+    <t>BNPL1276332528883618</t>
+  </si>
+  <si>
+    <t>59999621442</t>
+  </si>
+  <si>
+    <t>TOUHEH</t>
+  </si>
+  <si>
+    <t>59999985706</t>
+  </si>
+  <si>
+    <t>HBHFNK</t>
+  </si>
+  <si>
+    <t>59999359394</t>
+  </si>
+  <si>
+    <t>HKTGOA</t>
+  </si>
+  <si>
+    <t>59999493626</t>
+  </si>
+  <si>
+    <t>UJMMMM</t>
+  </si>
+  <si>
+    <t>59999363718</t>
+  </si>
+  <si>
+    <t>MEKIMS</t>
+  </si>
+  <si>
+    <t>59999063919</t>
+  </si>
+  <si>
+    <t>JLLKNS</t>
+  </si>
+  <si>
+    <t>59999066133</t>
+  </si>
+  <si>
+    <t>DEFCLK</t>
+  </si>
+  <si>
+    <t>59999143885</t>
+  </si>
+  <si>
+    <t>BRRLRG</t>
+  </si>
+  <si>
+    <t>59999414229</t>
+  </si>
+  <si>
+    <t>BPOPKQ</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>33557701null</t>
+  </si>
+  <si>
+    <t>ICIC94668973092</t>
+  </si>
+  <si>
+    <t>ICIC84351679550</t>
+  </si>
+  <si>
+    <t>7346759970</t>
+  </si>
+  <si>
+    <t>Sona</t>
+  </si>
+  <si>
+    <t>ManojDate66291@example.net</t>
+  </si>
+  <si>
+    <t>1991-11-20</t>
+  </si>
+  <si>
+    <t>679590752575233</t>
+  </si>
+  <si>
+    <t>53a8ee751eb6833a</t>
+  </si>
+  <si>
+    <t>760168119102445</t>
+  </si>
+  <si>
+    <t>IDEP61723412542578SG</t>
+  </si>
+  <si>
+    <t>4212606.0</t>
+  </si>
+  <si>
+    <t>4212615.0</t>
+  </si>
+  <si>
+    <t>8416133819</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>AarifDe62235@example.net</t>
+  </si>
+  <si>
+    <t>1990-07-12</t>
+  </si>
+  <si>
+    <t>616450014462702</t>
+  </si>
+  <si>
+    <t>78bb368399dd707d</t>
+  </si>
+  <si>
+    <t>381957653141127</t>
+  </si>
+  <si>
+    <t>IDEP726135827526VEX5</t>
+  </si>
+  <si>
+    <t>Dayanand Putran</t>
+  </si>
+  <si>
+    <t>8698110794</t>
+  </si>
+  <si>
+    <t>Supriya</t>
+  </si>
+  <si>
+    <t>AmirRamakrishnan67713@example.net</t>
+  </si>
+  <si>
+    <t>1992-04-21</t>
+  </si>
+  <si>
+    <t>590205951263590</t>
+  </si>
+  <si>
+    <t>3567a5545fc3ebbd</t>
+  </si>
+  <si>
+    <t>558827817101266</t>
+  </si>
+  <si>
+    <t>4212625.0</t>
+  </si>
+  <si>
+    <t>8653953046</t>
+  </si>
+  <si>
+    <t>Devika</t>
+  </si>
+  <si>
+    <t>TaahidTripathi33471@example.net</t>
+  </si>
+  <si>
+    <t>1971-05-15</t>
+  </si>
+  <si>
+    <t>755598206417362</t>
+  </si>
+  <si>
+    <t>db3dcf3a919f39aa</t>
+  </si>
+  <si>
+    <t>094830107947753</t>
+  </si>
+  <si>
+    <t>IDEP172638217563EFDI</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1526,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1402,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1440,18 +1593,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1469,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1493,19 +1646,19 @@
         <v>58</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>72</v>
@@ -1519,22 +1672,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" t="s">
         <v>245</v>
       </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>246</v>
-      </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -1548,25 +1704,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H3" s="2">
         <v>19.494599999999998</v>
@@ -1580,25 +1736,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="2">
         <v>19.494599999999998</v>
@@ -1612,25 +1768,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H5" s="2">
         <v>19.494599999999998</v>
@@ -1644,25 +1800,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" t="s">
         <v>143</v>
-      </c>
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" t="s">
-        <v>146</v>
       </c>
       <c r="H6" s="2">
         <v>19.494599999999998</v>
@@ -1676,25 +1832,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H7" s="2">
         <v>19.494599999999998</v>
@@ -1708,25 +1864,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H8" s="2">
         <v>19.494599999999998</v>
@@ -1740,28 +1896,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
         <v>143</v>
       </c>
-      <c r="C9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" t="s">
-        <v>146</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I9" s="2">
         <v>72.860399999999998</v>
@@ -1772,25 +1928,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" t="s">
         <v>143</v>
-      </c>
-      <c r="C10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" t="s">
-        <v>146</v>
       </c>
       <c r="H10" s="2">
         <v>19.494599999999998</v>
@@ -1804,25 +1960,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" t="s">
         <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" t="s">
-        <v>146</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>37</v>
@@ -1845,7 +2001,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1860,18 +2016,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1899,15 +2058,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +2080,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1962,19 +2121,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2024,96 +2183,96 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="H1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="O1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
       </c>
       <c r="L2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" t="s">
+        <v>181</v>
+      </c>
+      <c r="N2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" t="s">
         <v>183</v>
-      </c>
-      <c r="M2" t="s">
-        <v>184</v>
-      </c>
-      <c r="N2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O2" t="s">
-        <v>186</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -2130,7 +2289,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2173,10 +2332,10 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2190,25 +2349,25 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2231,16 +2390,16 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2263,16 +2422,16 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2295,16 +2454,16 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2327,16 +2486,16 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2359,16 +2518,16 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2391,16 +2550,16 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2423,16 +2582,16 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2449,22 +2608,22 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -2525,13 +2684,13 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2545,28 +2704,28 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2589,19 +2748,19 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2624,19 +2783,19 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2659,19 +2818,19 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2694,19 +2853,19 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2729,19 +2888,19 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2764,19 +2923,19 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -2799,19 +2958,19 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2828,60 +2987,60 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2896,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2940,13 +3099,13 @@
         <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2960,28 +3119,28 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3004,19 +3163,19 @@
         <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -3039,19 +3198,19 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3074,19 +3233,19 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3109,19 +3268,19 @@
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3144,19 +3303,19 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -3179,19 +3338,19 @@
         <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -3214,19 +3373,19 @@
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3243,25 +3402,25 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3303,102 +3462,102 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="H1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="L1" s="22" t="s">
+      <c r="O1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="P1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>116</v>
@@ -3407,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R2" s="2">
         <v>5881300001186</v>
@@ -3429,15 +3588,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.08984375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.81640625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.453125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
@@ -3512,10 +3671,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3527,7 +3686,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3536,10 +3695,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4211739.0</v>
+        <v>4212665.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3548,6 +3707,56 @@
         <v>49</v>
       </c>
       <c r="P2" s="14">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3">
+        <v>9892189981</v>
+      </c>
+      <c r="E3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>4212665.0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="14">
+        <v>49</v>
+      </c>
+      <c r="P3" s="14">
         <v>1210</v>
       </c>
     </row>
@@ -3561,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BBC0A-5573-4F9C-B1FA-FBD30A0E9E0D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3599,7 +3808,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3616,7 +3825,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3633,7 +3842,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3650,7 +3859,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3667,7 +3876,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3678,12 +3887,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B7">
         <v>888888</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="16">
         <v>9892189981</v>
       </c>
       <c r="D7" t="s">
@@ -3704,7 +3913,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3769,7 +3978,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -3836,7 +4045,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4003,7 +4212,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4062,11 +4271,11 @@
       <c r="E2" s="18">
         <v>72.835400000000007</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="18" t="s">
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4185,33 +4394,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C2" s="14">
         <v>888888</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4225,7 +4434,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4281,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4397,7 +4606,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>113</v>
@@ -4430,7 +4639,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>113</v>
@@ -4463,7 +4672,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>113</v>
@@ -4496,7 +4705,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>113</v>
@@ -4529,7 +4738,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>113</v>
@@ -4562,7 +4771,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>113</v>
@@ -4586,7 +4795,7 @@
         <v>118</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
@@ -4595,7 +4804,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>113</v>
@@ -4656,156 +4865,156 @@
         <v>58</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C2">
         <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C3">
         <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C4">
         <v>645</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C5">
         <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C6">
         <v>725</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C7">
         <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C8">
         <v>725</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4818,8 +5027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C49B488-B7A9-4ADF-9017-DAB7ABD94CBB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4827,6 +5036,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="25.6328125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="71.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -4851,29 +5061,29 @@
         <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>127</v>
+        <v>279</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>127</v>
+        <v>279</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>126</v>
@@ -4881,13 +5091,13 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>127</v>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>126</v>
@@ -4895,13 +5105,13 @@
       <c r="C5">
         <v>67</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>126</v>
@@ -4910,12 +5120,12 @@
         <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>126</v>
@@ -4924,7 +5134,7 @@
         <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="349">
   <si>
     <t>TestCases</t>
   </si>
@@ -1065,6 +1065,33 @@
   </si>
   <si>
     <t>IDEP172638217563EFDI</t>
+  </si>
+  <si>
+    <t>8155655943</t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>SurajKara67168@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-17</t>
+  </si>
+  <si>
+    <t>292414362726341</t>
+  </si>
+  <si>
+    <t>a60700ce4e574c8e</t>
+  </si>
+  <si>
+    <t>617640319587406</t>
+  </si>
+  <si>
+    <t>IDEP276142556288E2DO</t>
+  </si>
+  <si>
+    <t>4212665.0</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1675,7 +1702,7 @@
         <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
         <v>279</v>
@@ -2124,16 +2151,16 @@
         <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2349,13 +2376,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>223</v>
@@ -2704,13 +2731,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>223</v>
@@ -3019,13 +3046,13 @@
         <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>223</v>
@@ -3671,10 +3698,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3686,7 +3713,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3695,10 +3722,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4212665.0</v>
+        <v>4212744.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3724,7 +3751,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -3736,7 +3763,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -3745,10 +3772,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4212665.0</v>
+        <v>4212744.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -3808,7 +3835,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3825,7 +3852,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3842,7 +3869,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3859,7 +3886,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3876,7 +3903,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4045,7 +4072,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4275,7 +4302,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4490,7 +4517,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4882,7 +4909,7 @@
         <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4902,7 +4929,7 @@
         <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4922,7 +4949,7 @@
         <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -4942,7 +4969,7 @@
         <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4962,7 +4989,7 @@
         <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4982,7 +5009,7 @@
         <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5002,7 +5029,7 @@
         <v>236</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C8">
         <v>725</v>
